--- a/mapping_file_creator/2023_primer_sets.xlsx
+++ b/mapping_file_creator/2023_primer_sets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://joinnioz-my.sharepoint.com/personal/maartje_brouwer_nioz_nl/Documents/Documenten/GitHub/molecular_tools/mapping_file_creator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CC9DA1D-5B2F-4C42-B189-FDEC28C067D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{2CC9DA1D-5B2F-4C42-B189-FDEC28C067D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09E830AE-E4C8-448C-B727-A9ABEC04837C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B4BA240D-4364-4E6B-832C-6ED414D244A6}"/>
+    <workbookView xWindow="60" yWindow="16080" windowWidth="20760" windowHeight="13200" activeTab="1" xr2:uid="{B4BA240D-4364-4E6B-832C-6ED414D244A6}"/>
   </bookViews>
   <sheets>
     <sheet name="515F" sheetId="1" r:id="rId1"/>
@@ -727,690 +727,6 @@
     <t>515F_Golay9021</t>
   </si>
   <si>
-    <t>926R_Golay0258</t>
-  </si>
-  <si>
-    <t>926R_Golay0100</t>
-  </si>
-  <si>
-    <t>926R_Golay0102</t>
-  </si>
-  <si>
-    <t>926R_Golay0104</t>
-  </si>
-  <si>
-    <t>926R_Golay0106</t>
-  </si>
-  <si>
-    <t>926R_Golay0108</t>
-  </si>
-  <si>
-    <t>926R_Golay0110</t>
-  </si>
-  <si>
-    <t>926R_Golay0112</t>
-  </si>
-  <si>
-    <t>926R_Golay0114</t>
-  </si>
-  <si>
-    <t>926R_Golay0116</t>
-  </si>
-  <si>
-    <t>926R_Golay0118</t>
-  </si>
-  <si>
-    <t>926R_Golay0120</t>
-  </si>
-  <si>
-    <t>926R_Golay0260</t>
-  </si>
-  <si>
-    <t>926R_Golay0124</t>
-  </si>
-  <si>
-    <t>926R_Golay0126</t>
-  </si>
-  <si>
-    <t>926R_Golay0128</t>
-  </si>
-  <si>
-    <t>926R_Golay0130</t>
-  </si>
-  <si>
-    <t>926R_Golay0132</t>
-  </si>
-  <si>
-    <t>926R_Golay0134</t>
-  </si>
-  <si>
-    <t>926R_Golay0136</t>
-  </si>
-  <si>
-    <t>926R_Golay0138</t>
-  </si>
-  <si>
-    <t>926R_Golay0140</t>
-  </si>
-  <si>
-    <t>926R_Golay0142</t>
-  </si>
-  <si>
-    <t>926R_Golay0144</t>
-  </si>
-  <si>
-    <t>926R_Golay0146</t>
-  </si>
-  <si>
-    <t>926R_Golay0148</t>
-  </si>
-  <si>
-    <t>926R_Golay0150</t>
-  </si>
-  <si>
-    <t>926R_Golay0152</t>
-  </si>
-  <si>
-    <t>926R_Golay0154</t>
-  </si>
-  <si>
-    <t>926R_Golay0156</t>
-  </si>
-  <si>
-    <t>926R_Golay0158</t>
-  </si>
-  <si>
-    <t>926R_Golay0160</t>
-  </si>
-  <si>
-    <t>926R_Golay0162</t>
-  </si>
-  <si>
-    <t>926R_Golay0164</t>
-  </si>
-  <si>
-    <t>926R_Golay0166</t>
-  </si>
-  <si>
-    <t>926R_Golay0168</t>
-  </si>
-  <si>
-    <t>926R_Golay0170</t>
-  </si>
-  <si>
-    <t>926R_Golay0172</t>
-  </si>
-  <si>
-    <t>926R_Golay0174</t>
-  </si>
-  <si>
-    <t>926R_Golay0176</t>
-  </si>
-  <si>
-    <t>926R_Golay0178</t>
-  </si>
-  <si>
-    <t>926R_Golay0180</t>
-  </si>
-  <si>
-    <t>926R_Golay0182</t>
-  </si>
-  <si>
-    <t>926R_Golay0184</t>
-  </si>
-  <si>
-    <t>926R_Golay0186</t>
-  </si>
-  <si>
-    <t>926R_Golay0188</t>
-  </si>
-  <si>
-    <t>926R_Golay0190</t>
-  </si>
-  <si>
-    <t>926R_Golay0192</t>
-  </si>
-  <si>
-    <t>926R_Golay0194</t>
-  </si>
-  <si>
-    <t>926R_Golay0196</t>
-  </si>
-  <si>
-    <t>926R_Golay0198</t>
-  </si>
-  <si>
-    <t>926R_Golay0200</t>
-  </si>
-  <si>
-    <t>926R_Golay0202</t>
-  </si>
-  <si>
-    <t>926R_Golay0204</t>
-  </si>
-  <si>
-    <t>926R_Golay0206</t>
-  </si>
-  <si>
-    <t>926R_Golay0208</t>
-  </si>
-  <si>
-    <t>926R_Golay0210</t>
-  </si>
-  <si>
-    <t>926R_Golay0212</t>
-  </si>
-  <si>
-    <t>926R_Golay0214</t>
-  </si>
-  <si>
-    <t>926R_Golay0216</t>
-  </si>
-  <si>
-    <t>926R_Golay0218</t>
-  </si>
-  <si>
-    <t>926R_Golay0220</t>
-  </si>
-  <si>
-    <t>926R_Golay0222</t>
-  </si>
-  <si>
-    <t>926R_Golay0224</t>
-  </si>
-  <si>
-    <t>926R_Golay0262</t>
-  </si>
-  <si>
-    <t>926R_Golay0228</t>
-  </si>
-  <si>
-    <t>926R_Golay0230</t>
-  </si>
-  <si>
-    <t>926R_Golay0232</t>
-  </si>
-  <si>
-    <t>926R_Golay0234</t>
-  </si>
-  <si>
-    <t>926R_Golay0236</t>
-  </si>
-  <si>
-    <t>926R_Golay0238</t>
-  </si>
-  <si>
-    <t>926R_Golay0240</t>
-  </si>
-  <si>
-    <t>926R_Golay0242</t>
-  </si>
-  <si>
-    <t>926R_Golay0244</t>
-  </si>
-  <si>
-    <t>926R_Golay0246</t>
-  </si>
-  <si>
-    <t>926R_Golay0248</t>
-  </si>
-  <si>
-    <t>926R_Golay0250</t>
-  </si>
-  <si>
-    <t>926R_Golay0252</t>
-  </si>
-  <si>
-    <t>926R_Golay0254</t>
-  </si>
-  <si>
-    <t>926R_Golay0256</t>
-  </si>
-  <si>
-    <t>926R_Golay0264</t>
-  </si>
-  <si>
-    <t>926R_Golay0266</t>
-  </si>
-  <si>
-    <t>926R_Golay0268</t>
-  </si>
-  <si>
-    <t>926R_Golay0010</t>
-  </si>
-  <si>
-    <t>926R_Golay0012</t>
-  </si>
-  <si>
-    <t>926R_Golay0014</t>
-  </si>
-  <si>
-    <t>926R_Golay0016</t>
-  </si>
-  <si>
-    <t>926R_Golay0018</t>
-  </si>
-  <si>
-    <t>926R_Golay0020</t>
-  </si>
-  <si>
-    <t>926R_Golay0022</t>
-  </si>
-  <si>
-    <t>926R_Golay0024</t>
-  </si>
-  <si>
-    <t>926R_Golay0026</t>
-  </si>
-  <si>
-    <t>926R_Golay0028</t>
-  </si>
-  <si>
-    <t>926R_Golay0030</t>
-  </si>
-  <si>
-    <t>926R_Golay0032</t>
-  </si>
-  <si>
-    <t>926R_Golay0034</t>
-  </si>
-  <si>
-    <t>926R_Golay0036</t>
-  </si>
-  <si>
-    <t>926R_Golay0038</t>
-  </si>
-  <si>
-    <t>926R_Golay0040</t>
-  </si>
-  <si>
-    <t>926R_Golay0042</t>
-  </si>
-  <si>
-    <t>926R_Golay0044</t>
-  </si>
-  <si>
-    <t>926R_Golay0046</t>
-  </si>
-  <si>
-    <t>926R_Golay0048</t>
-  </si>
-  <si>
-    <t>926R_Golay0050</t>
-  </si>
-  <si>
-    <t>926R_Golay0052</t>
-  </si>
-  <si>
-    <t>926R_Golay0054</t>
-  </si>
-  <si>
-    <t>926R_Golay0056</t>
-  </si>
-  <si>
-    <t>926R_Golay0058</t>
-  </si>
-  <si>
-    <t>926R_Golay0060</t>
-  </si>
-  <si>
-    <t>926R_Golay0002</t>
-  </si>
-  <si>
-    <t>926R_Golay0004</t>
-  </si>
-  <si>
-    <t>926R_Golay0006</t>
-  </si>
-  <si>
-    <t>926R_Golay0008</t>
-  </si>
-  <si>
-    <t>926R_Golay0064</t>
-  </si>
-  <si>
-    <t>926R_Golay0066</t>
-  </si>
-  <si>
-    <t>926R_Golay0068</t>
-  </si>
-  <si>
-    <t>926R_Golay0070</t>
-  </si>
-  <si>
-    <t>926R_Golay0072</t>
-  </si>
-  <si>
-    <t>926R_Golay0074</t>
-  </si>
-  <si>
-    <t>926R_Golay0076</t>
-  </si>
-  <si>
-    <t>926R_Golay0078</t>
-  </si>
-  <si>
-    <t>926R_Golay0080</t>
-  </si>
-  <si>
-    <t>926R_Golay0082</t>
-  </si>
-  <si>
-    <t>926R_Golay0084</t>
-  </si>
-  <si>
-    <t>926R_Golay0086</t>
-  </si>
-  <si>
-    <t>926R_Golay0088</t>
-  </si>
-  <si>
-    <t>926R_Golay0090</t>
-  </si>
-  <si>
-    <t>926R_Golay0092</t>
-  </si>
-  <si>
-    <t>926R_Golay0094</t>
-  </si>
-  <si>
-    <t>926R_Golay0096</t>
-  </si>
-  <si>
-    <t>926R_Golay0098</t>
-  </si>
-  <si>
-    <t>926R_Golay9100</t>
-  </si>
-  <si>
-    <t>926R_Golay9102</t>
-  </si>
-  <si>
-    <t>926R_Golay9104</t>
-  </si>
-  <si>
-    <t>926R_Golay9106</t>
-  </si>
-  <si>
-    <t>926R_Golay9108</t>
-  </si>
-  <si>
-    <t>926R_Golay9110</t>
-  </si>
-  <si>
-    <t>926R_Golay9112</t>
-  </si>
-  <si>
-    <t>926R_Golay9114</t>
-  </si>
-  <si>
-    <t>926R_Golay9116</t>
-  </si>
-  <si>
-    <t>926R_Golay9118</t>
-  </si>
-  <si>
-    <t>926R_Golay9120</t>
-  </si>
-  <si>
-    <t>926R_Golay9122</t>
-  </si>
-  <si>
-    <t>926R_Golay9124</t>
-  </si>
-  <si>
-    <t>926R_Golay9126</t>
-  </si>
-  <si>
-    <t>926R_Golay9128</t>
-  </si>
-  <si>
-    <t>926R_Golay9130</t>
-  </si>
-  <si>
-    <t>926R_Golay9132</t>
-  </si>
-  <si>
-    <t>926R_Golay9134</t>
-  </si>
-  <si>
-    <t>926R_Golay9136</t>
-  </si>
-  <si>
-    <t>926R_Golay9138</t>
-  </si>
-  <si>
-    <t>926R_Golay9140</t>
-  </si>
-  <si>
-    <t>926R_Golay9142</t>
-  </si>
-  <si>
-    <t>926R_Golay9144</t>
-  </si>
-  <si>
-    <t>926R_Golay9146</t>
-  </si>
-  <si>
-    <t>926R_Golay9148</t>
-  </si>
-  <si>
-    <t>926R_Golay9152</t>
-  </si>
-  <si>
-    <t>926R_Golay9154</t>
-  </si>
-  <si>
-    <t>926R_Golay9156</t>
-  </si>
-  <si>
-    <t>926R_Golay9158</t>
-  </si>
-  <si>
-    <t>926R_Golay9160</t>
-  </si>
-  <si>
-    <t>926R_Golay9162</t>
-  </si>
-  <si>
-    <t>926R_Golay9164</t>
-  </si>
-  <si>
-    <t>926R_Golay9166</t>
-  </si>
-  <si>
-    <t>926R_Golay9168</t>
-  </si>
-  <si>
-    <t>926R_Golay9170</t>
-  </si>
-  <si>
-    <t>926R_Golay9172</t>
-  </si>
-  <si>
-    <t>926R_Golay9176</t>
-  </si>
-  <si>
-    <t>926R_Golay9178</t>
-  </si>
-  <si>
-    <t>926R_Golay9180</t>
-  </si>
-  <si>
-    <t>926R_Golay9182</t>
-  </si>
-  <si>
-    <t>926R_Golay9184</t>
-  </si>
-  <si>
-    <t>926R_Golay9186</t>
-  </si>
-  <si>
-    <t>926R_Golay9188</t>
-  </si>
-  <si>
-    <t>926R_Golay9190</t>
-  </si>
-  <si>
-    <t>926R_Golay9192</t>
-  </si>
-  <si>
-    <t>926R_Golay9194</t>
-  </si>
-  <si>
-    <t>926R_Golay9196</t>
-  </si>
-  <si>
-    <t>926R_Golay9198</t>
-  </si>
-  <si>
-    <t>926R_Golay9200</t>
-  </si>
-  <si>
-    <t>926R_Golay9002</t>
-  </si>
-  <si>
-    <t>926R_Golay9004</t>
-  </si>
-  <si>
-    <t>926R_Golay9006</t>
-  </si>
-  <si>
-    <t>926R_Golay9008</t>
-  </si>
-  <si>
-    <t>926R_Golay9010</t>
-  </si>
-  <si>
-    <t>926R_Golay9012</t>
-  </si>
-  <si>
-    <t>926R_Golay9014</t>
-  </si>
-  <si>
-    <t>926R_Golay9016</t>
-  </si>
-  <si>
-    <t>926R_Golay9018</t>
-  </si>
-  <si>
-    <t>926R_Golay9020</t>
-  </si>
-  <si>
-    <t>926R_Golay9022</t>
-  </si>
-  <si>
-    <t>926R_Golay9024</t>
-  </si>
-  <si>
-    <t>926R_Golay9026</t>
-  </si>
-  <si>
-    <t>926R_Golay9028</t>
-  </si>
-  <si>
-    <t>926R_Golay9030</t>
-  </si>
-  <si>
-    <t>926R_Golay9032</t>
-  </si>
-  <si>
-    <t>926R_Golay9034</t>
-  </si>
-  <si>
-    <t>926R_Golay9036</t>
-  </si>
-  <si>
-    <t>926R_Golay9038</t>
-  </si>
-  <si>
-    <t>926R_Golay9040</t>
-  </si>
-  <si>
-    <t>926R_Golay9042</t>
-  </si>
-  <si>
-    <t>926R_Golay9044</t>
-  </si>
-  <si>
-    <t>926R_Golay9046</t>
-  </si>
-  <si>
-    <t>926R_Golay9048</t>
-  </si>
-  <si>
-    <t>926R_Golay9050</t>
-  </si>
-  <si>
-    <t>926R_Golay9052</t>
-  </si>
-  <si>
-    <t>926R_Golay9054</t>
-  </si>
-  <si>
-    <t>926R_Golay9056</t>
-  </si>
-  <si>
-    <t>926R_Golay9058</t>
-  </si>
-  <si>
-    <t>926R_Golay9060</t>
-  </si>
-  <si>
-    <t>926R_Golay9062</t>
-  </si>
-  <si>
-    <t>926R_Golay9064</t>
-  </si>
-  <si>
-    <t>926R_Golay9066</t>
-  </si>
-  <si>
-    <t>926R_Golay9068</t>
-  </si>
-  <si>
-    <t>926R_Golay9070</t>
-  </si>
-  <si>
-    <t>926R_Golay9072</t>
-  </si>
-  <si>
-    <t>926R_Golay9074</t>
-  </si>
-  <si>
-    <t>926R_Golay9076</t>
-  </si>
-  <si>
-    <t>926R_Golay9078</t>
-  </si>
-  <si>
-    <t>926R_Golay9080</t>
-  </si>
-  <si>
-    <t>926R_Golay9082</t>
-  </si>
-  <si>
-    <t>926R_Golay9086</t>
-  </si>
-  <si>
-    <t>926R_Golay9088</t>
-  </si>
-  <si>
-    <t>926R_Golay9090</t>
-  </si>
-  <si>
-    <t>926R_Golay9092</t>
-  </si>
-  <si>
-    <t>926R_Golay9094</t>
-  </si>
-  <si>
-    <t>926R_Golay9096</t>
-  </si>
-  <si>
-    <t>926R_Golay9098</t>
-  </si>
-  <si>
     <t>Forward_primer</t>
   </si>
   <si>
@@ -2663,6 +1979,690 @@
   </si>
   <si>
     <t>951R_Golay9202</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0002</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0004</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0006</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0008</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0010</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0012</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0014</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0016</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0018</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0020</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0022</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0024</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0026</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0028</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0030</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0032</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0034</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0036</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0038</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0040</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0042</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0044</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0046</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0048</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0050</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0052</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0054</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0056</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0058</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0060</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0258</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0064</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0066</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0068</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0070</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0072</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0074</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0076</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0078</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0080</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0082</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0084</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0086</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0088</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0090</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0092</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0094</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0096</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0098</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0100</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0102</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0104</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0106</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0108</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0110</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0112</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0114</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0116</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0118</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0120</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0260</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0124</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0126</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0128</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0130</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0132</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0134</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0136</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0138</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0140</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0142</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0144</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0146</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0148</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0150</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0152</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0154</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0156</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0158</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0160</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0162</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0164</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0166</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0168</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0170</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0172</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0174</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0176</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0178</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0180</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0182</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0184</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0186</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0188</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0190</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0192</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0194</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0196</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0198</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0200</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0202</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0204</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0206</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0208</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0210</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0212</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0214</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0216</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0218</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0220</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0222</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0224</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0262</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0228</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0230</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0232</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0234</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0236</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0238</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0240</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0242</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0244</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0246</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0248</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0250</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0252</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0254</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0256</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9002</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9004</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9006</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9008</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9010</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9012</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9014</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9016</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9018</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9020</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9022</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9024</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9026</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9028</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9030</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9032</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9034</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9036</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9038</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9040</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9042</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9044</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9046</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9048</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9050</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9052</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9054</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9056</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9058</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9060</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9062</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9064</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9066</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9068</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9070</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9072</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9074</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9076</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9078</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9080</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9082</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0264</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9086</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9088</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9090</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9092</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9094</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9096</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9098</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9100</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9102</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9104</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9106</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9108</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9110</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9112</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9114</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9116</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9118</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9120</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9122</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9124</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9126</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9128</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9130</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9132</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9134</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9136</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9138</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9140</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9142</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9144</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9146</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9148</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0266</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9152</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9154</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9156</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9158</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9160</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9162</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9164</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9166</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9168</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9170</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9172</t>
+  </si>
+  <si>
+    <t>926RBC_Golay0268</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9176</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9178</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9180</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9182</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9184</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9186</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9188</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9190</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9192</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9194</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9196</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9198</t>
+  </si>
+  <si>
+    <t>926RBC_Golay9200</t>
   </si>
 </sst>
 </file>
@@ -3057,7 +3057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9D52808-D23F-42E0-96C4-7FD50F2C2336}">
   <dimension ref="A1:A229"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -3068,7 +3068,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>456</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -4220,7 +4220,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{877BBEAB-A1AB-4B40-808F-FC750FE08F59}">
   <dimension ref="A1:A229"/>
   <sheetViews>
-    <sheetView topLeftCell="A211" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="L224" sqref="L224"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4230,1147 +4232,1147 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>457</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>337</v>
+        <v>646</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>338</v>
+        <v>647</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>339</v>
+        <v>648</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>340</v>
+        <v>649</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>311</v>
+        <v>650</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>312</v>
+        <v>651</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>313</v>
+        <v>652</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>314</v>
+        <v>653</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>315</v>
+        <v>654</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>316</v>
+        <v>655</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>317</v>
+        <v>656</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>318</v>
+        <v>657</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>319</v>
+        <v>658</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>320</v>
+        <v>659</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>321</v>
+        <v>660</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>322</v>
+        <v>661</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>323</v>
+        <v>662</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>324</v>
+        <v>663</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>325</v>
+        <v>664</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>326</v>
+        <v>665</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>327</v>
+        <v>666</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>328</v>
+        <v>667</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>329</v>
+        <v>668</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>330</v>
+        <v>669</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>331</v>
+        <v>670</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>332</v>
+        <v>671</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>333</v>
+        <v>672</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>334</v>
+        <v>673</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>335</v>
+        <v>674</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>336</v>
+        <v>675</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>228</v>
+        <v>676</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>341</v>
+        <v>677</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>342</v>
+        <v>678</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>343</v>
+        <v>679</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>344</v>
+        <v>680</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>345</v>
+        <v>681</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>346</v>
+        <v>682</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>347</v>
+        <v>683</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>348</v>
+        <v>684</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>349</v>
+        <v>685</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>350</v>
+        <v>686</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>351</v>
+        <v>687</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>352</v>
+        <v>688</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>353</v>
+        <v>689</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>354</v>
+        <v>690</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>355</v>
+        <v>691</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>356</v>
+        <v>692</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>357</v>
+        <v>693</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>358</v>
+        <v>694</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>229</v>
+        <v>695</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>230</v>
+        <v>696</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>231</v>
+        <v>697</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>232</v>
+        <v>698</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>233</v>
+        <v>699</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>234</v>
+        <v>700</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>235</v>
+        <v>701</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>236</v>
+        <v>702</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>237</v>
+        <v>703</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>238</v>
+        <v>704</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>239</v>
+        <v>705</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>240</v>
+        <v>706</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>241</v>
+        <v>707</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>242</v>
+        <v>708</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>243</v>
+        <v>709</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>244</v>
+        <v>710</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>245</v>
+        <v>711</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>246</v>
+        <v>712</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>247</v>
+        <v>713</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>248</v>
+        <v>714</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>249</v>
+        <v>715</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>250</v>
+        <v>716</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>251</v>
+        <v>717</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>252</v>
+        <v>718</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>253</v>
+        <v>719</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>254</v>
+        <v>720</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>255</v>
+        <v>721</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>256</v>
+        <v>722</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>257</v>
+        <v>723</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>258</v>
+        <v>724</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>259</v>
+        <v>725</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>260</v>
+        <v>726</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>261</v>
+        <v>727</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>262</v>
+        <v>728</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>263</v>
+        <v>729</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>264</v>
+        <v>730</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>265</v>
+        <v>731</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>266</v>
+        <v>732</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>267</v>
+        <v>733</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>268</v>
+        <v>734</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>269</v>
+        <v>735</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>270</v>
+        <v>736</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>271</v>
+        <v>737</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>272</v>
+        <v>738</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>273</v>
+        <v>739</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>274</v>
+        <v>740</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>275</v>
+        <v>741</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>276</v>
+        <v>742</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>277</v>
+        <v>743</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>278</v>
+        <v>744</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>279</v>
+        <v>745</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>280</v>
+        <v>746</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>281</v>
+        <v>747</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>282</v>
+        <v>748</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>283</v>
+        <v>749</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>284</v>
+        <v>750</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>285</v>
+        <v>751</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>286</v>
+        <v>752</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>287</v>
+        <v>753</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>288</v>
+        <v>754</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>289</v>
+        <v>755</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>290</v>
+        <v>756</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>291</v>
+        <v>757</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>292</v>
+        <v>758</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>293</v>
+        <v>759</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>294</v>
+        <v>760</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>295</v>
+        <v>761</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>296</v>
+        <v>762</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>297</v>
+        <v>763</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>298</v>
+        <v>764</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>299</v>
+        <v>765</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>300</v>
+        <v>766</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>301</v>
+        <v>767</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>302</v>
+        <v>768</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>303</v>
+        <v>769</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>304</v>
+        <v>770</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>305</v>
+        <v>771</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>306</v>
+        <v>772</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>307</v>
+        <v>773</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>408</v>
+        <v>774</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>409</v>
+        <v>775</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>410</v>
+        <v>776</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>411</v>
+        <v>777</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>412</v>
+        <v>778</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>413</v>
+        <v>779</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>414</v>
+        <v>780</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>415</v>
+        <v>781</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>416</v>
+        <v>782</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>417</v>
+        <v>783</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>418</v>
+        <v>784</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>419</v>
+        <v>785</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>420</v>
+        <v>786</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>421</v>
+        <v>787</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>422</v>
+        <v>788</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>423</v>
+        <v>789</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>424</v>
+        <v>790</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>425</v>
+        <v>791</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>426</v>
+        <v>792</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>427</v>
+        <v>793</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>428</v>
+        <v>794</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>429</v>
+        <v>795</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>430</v>
+        <v>796</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>431</v>
+        <v>797</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>432</v>
+        <v>798</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>433</v>
+        <v>799</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>434</v>
+        <v>800</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>435</v>
+        <v>801</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>436</v>
+        <v>802</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>437</v>
+        <v>803</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>438</v>
+        <v>804</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>439</v>
+        <v>805</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>440</v>
+        <v>806</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>441</v>
+        <v>807</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>442</v>
+        <v>808</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>443</v>
+        <v>809</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>444</v>
+        <v>810</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>445</v>
+        <v>811</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>446</v>
+        <v>812</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>447</v>
+        <v>813</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>448</v>
+        <v>814</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>308</v>
+        <v>815</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>449</v>
+        <v>816</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>450</v>
+        <v>817</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>451</v>
+        <v>818</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>452</v>
+        <v>819</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>453</v>
+        <v>820</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>454</v>
+        <v>821</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>455</v>
+        <v>822</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>359</v>
+        <v>823</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>360</v>
+        <v>824</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>361</v>
+        <v>825</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>362</v>
+        <v>826</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>363</v>
+        <v>827</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>364</v>
+        <v>828</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>365</v>
+        <v>829</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>366</v>
+        <v>830</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>367</v>
+        <v>831</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>368</v>
+        <v>832</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>369</v>
+        <v>833</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>370</v>
+        <v>834</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>371</v>
+        <v>835</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>372</v>
+        <v>836</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>373</v>
+        <v>837</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>374</v>
+        <v>838</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>375</v>
+        <v>839</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>376</v>
+        <v>840</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>377</v>
+        <v>841</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>378</v>
+        <v>842</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>379</v>
+        <v>843</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>380</v>
+        <v>844</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>381</v>
+        <v>845</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>382</v>
+        <v>846</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>383</v>
+        <v>847</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>309</v>
+        <v>848</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>384</v>
+        <v>849</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>385</v>
+        <v>850</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>386</v>
+        <v>851</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>387</v>
+        <v>852</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>388</v>
+        <v>853</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>389</v>
+        <v>854</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>390</v>
+        <v>855</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>391</v>
+        <v>856</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>392</v>
+        <v>857</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>393</v>
+        <v>858</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>394</v>
+        <v>859</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>310</v>
+        <v>860</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>395</v>
+        <v>861</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>396</v>
+        <v>862</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>397</v>
+        <v>863</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>398</v>
+        <v>864</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>399</v>
+        <v>865</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>400</v>
+        <v>866</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>401</v>
+        <v>867</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>402</v>
+        <v>868</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>403</v>
+        <v>869</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>404</v>
+        <v>870</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>405</v>
+        <v>871</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>406</v>
+        <v>872</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>407</v>
+        <v>873</v>
       </c>
     </row>
   </sheetData>
@@ -5391,647 +5393,647 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>457</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>562</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>558</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>559</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>560</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>517</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>518</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>519</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>520</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>521</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>522</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>523</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>524</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>525</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>526</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>527</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>528</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>529</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>530</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>531</v>
+        <v>303</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>532</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>533</v>
+        <v>305</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>534</v>
+        <v>306</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>535</v>
+        <v>307</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>561</v>
+        <v>333</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>536</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>537</v>
+        <v>309</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>538</v>
+        <v>310</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>563</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>539</v>
+        <v>311</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>540</v>
+        <v>312</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>541</v>
+        <v>313</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>542</v>
+        <v>314</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>543</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>544</v>
+        <v>316</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>545</v>
+        <v>317</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>546</v>
+        <v>318</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>547</v>
+        <v>319</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>548</v>
+        <v>320</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>549</v>
+        <v>321</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>550</v>
+        <v>322</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>564</v>
+        <v>336</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>551</v>
+        <v>323</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>552</v>
+        <v>324</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>553</v>
+        <v>325</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>554</v>
+        <v>326</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>555</v>
+        <v>327</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>565</v>
+        <v>337</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>556</v>
+        <v>328</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>557</v>
+        <v>329</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>458</v>
+        <v>230</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>459</v>
+        <v>231</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>460</v>
+        <v>232</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>461</v>
+        <v>233</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>462</v>
+        <v>234</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>463</v>
+        <v>235</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>464</v>
+        <v>236</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>465</v>
+        <v>237</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>466</v>
+        <v>238</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>467</v>
+        <v>239</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>468</v>
+        <v>240</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>469</v>
+        <v>241</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>470</v>
+        <v>242</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>471</v>
+        <v>243</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>472</v>
+        <v>244</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>473</v>
+        <v>245</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>474</v>
+        <v>246</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>475</v>
+        <v>247</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>476</v>
+        <v>248</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>477</v>
+        <v>249</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>478</v>
+        <v>250</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>479</v>
+        <v>251</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>480</v>
+        <v>252</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>481</v>
+        <v>253</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>482</v>
+        <v>254</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>483</v>
+        <v>255</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>484</v>
+        <v>256</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>485</v>
+        <v>257</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>486</v>
+        <v>258</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>487</v>
+        <v>259</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>566</v>
+        <v>338</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>488</v>
+        <v>260</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>489</v>
+        <v>261</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>567</v>
+        <v>339</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>490</v>
+        <v>262</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>491</v>
+        <v>263</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>492</v>
+        <v>264</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>493</v>
+        <v>265</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>494</v>
+        <v>266</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>495</v>
+        <v>267</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>496</v>
+        <v>268</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>497</v>
+        <v>269</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>498</v>
+        <v>270</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>499</v>
+        <v>271</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>500</v>
+        <v>272</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>501</v>
+        <v>273</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>502</v>
+        <v>274</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>503</v>
+        <v>275</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>568</v>
+        <v>340</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>504</v>
+        <v>276</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>505</v>
+        <v>277</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>506</v>
+        <v>278</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>507</v>
+        <v>279</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>508</v>
+        <v>280</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>509</v>
+        <v>281</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>510</v>
+        <v>282</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>511</v>
+        <v>283</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>512</v>
+        <v>284</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>513</v>
+        <v>285</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>514</v>
+        <v>286</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>515</v>
+        <v>287</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>516</v>
+        <v>288</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>569</v>
+        <v>341</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>570</v>
+        <v>342</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>571</v>
+        <v>343</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>572</v>
+        <v>344</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>573</v>
+        <v>345</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>574</v>
+        <v>346</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>575</v>
+        <v>347</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>576</v>
+        <v>348</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>577</v>
+        <v>349</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>578</v>
+        <v>350</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>579</v>
+        <v>351</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>580</v>
+        <v>352</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>581</v>
+        <v>353</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>582</v>
+        <v>354</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>583</v>
+        <v>355</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>584</v>
+        <v>356</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>585</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -6054,487 +6056,487 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>457</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>778</v>
+        <v>550</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>779</v>
+        <v>551</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>872</v>
+        <v>644</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>780</v>
+        <v>552</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>781</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>782</v>
+        <v>554</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>783</v>
+        <v>555</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>784</v>
+        <v>556</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>785</v>
+        <v>557</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>786</v>
+        <v>558</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>787</v>
+        <v>559</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>788</v>
+        <v>560</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>789</v>
+        <v>561</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>790</v>
+        <v>562</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>791</v>
+        <v>563</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>792</v>
+        <v>564</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>793</v>
+        <v>565</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>794</v>
+        <v>566</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>795</v>
+        <v>567</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>796</v>
+        <v>568</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>797</v>
+        <v>569</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>798</v>
+        <v>570</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>799</v>
+        <v>571</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>800</v>
+        <v>572</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>801</v>
+        <v>573</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>802</v>
+        <v>574</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>803</v>
+        <v>575</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>804</v>
+        <v>576</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>805</v>
+        <v>577</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>806</v>
+        <v>578</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>807</v>
+        <v>579</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>808</v>
+        <v>580</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>809</v>
+        <v>581</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>810</v>
+        <v>582</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>811</v>
+        <v>583</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>812</v>
+        <v>584</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>813</v>
+        <v>585</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>814</v>
+        <v>586</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>815</v>
+        <v>587</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>816</v>
+        <v>588</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>817</v>
+        <v>589</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>818</v>
+        <v>590</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>819</v>
+        <v>591</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>820</v>
+        <v>592</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>821</v>
+        <v>593</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>822</v>
+        <v>594</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>823</v>
+        <v>595</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>824</v>
+        <v>596</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>825</v>
+        <v>597</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>826</v>
+        <v>598</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>827</v>
+        <v>599</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>828</v>
+        <v>600</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>829</v>
+        <v>601</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>830</v>
+        <v>602</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>831</v>
+        <v>603</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>832</v>
+        <v>604</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>833</v>
+        <v>605</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>834</v>
+        <v>606</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>835</v>
+        <v>607</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>836</v>
+        <v>608</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>837</v>
+        <v>609</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>838</v>
+        <v>610</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>839</v>
+        <v>611</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>840</v>
+        <v>612</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>841</v>
+        <v>613</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>842</v>
+        <v>614</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>843</v>
+        <v>615</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>844</v>
+        <v>616</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>845</v>
+        <v>617</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>846</v>
+        <v>618</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>847</v>
+        <v>619</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>848</v>
+        <v>620</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>849</v>
+        <v>621</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>850</v>
+        <v>622</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>873</v>
+        <v>645</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>851</v>
+        <v>623</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>852</v>
+        <v>624</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>853</v>
+        <v>625</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>854</v>
+        <v>626</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>855</v>
+        <v>627</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>856</v>
+        <v>628</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>857</v>
+        <v>629</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>858</v>
+        <v>630</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>859</v>
+        <v>631</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>860</v>
+        <v>632</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>861</v>
+        <v>633</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>862</v>
+        <v>634</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>863</v>
+        <v>635</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>864</v>
+        <v>636</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>865</v>
+        <v>637</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>866</v>
+        <v>638</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>867</v>
+        <v>639</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>868</v>
+        <v>640</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>869</v>
+        <v>641</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>870</v>
+        <v>642</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>871</v>
+        <v>643</v>
       </c>
     </row>
   </sheetData>
@@ -6558,487 +6560,487 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>456</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>586</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>587</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>588</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>589</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>590</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>591</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>592</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>593</v>
+        <v>365</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>594</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>595</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>596</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>597</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>598</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>599</v>
+        <v>371</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>600</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>601</v>
+        <v>373</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>602</v>
+        <v>374</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>603</v>
+        <v>375</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>604</v>
+        <v>376</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>605</v>
+        <v>377</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>606</v>
+        <v>378</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>607</v>
+        <v>379</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>608</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>609</v>
+        <v>381</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>610</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>776</v>
+        <v>548</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>611</v>
+        <v>383</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>612</v>
+        <v>384</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>613</v>
+        <v>385</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>614</v>
+        <v>386</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>615</v>
+        <v>387</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>616</v>
+        <v>388</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>617</v>
+        <v>389</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>618</v>
+        <v>390</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>619</v>
+        <v>391</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>620</v>
+        <v>392</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>621</v>
+        <v>393</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>622</v>
+        <v>394</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>623</v>
+        <v>395</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>624</v>
+        <v>396</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>625</v>
+        <v>397</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>626</v>
+        <v>398</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>627</v>
+        <v>399</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>777</v>
+        <v>549</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>628</v>
+        <v>400</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>629</v>
+        <v>401</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>630</v>
+        <v>402</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>631</v>
+        <v>403</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>632</v>
+        <v>404</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>633</v>
+        <v>405</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>634</v>
+        <v>406</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>635</v>
+        <v>407</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>636</v>
+        <v>408</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>637</v>
+        <v>409</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>638</v>
+        <v>410</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>639</v>
+        <v>411</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>640</v>
+        <v>412</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>641</v>
+        <v>413</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>642</v>
+        <v>414</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>643</v>
+        <v>415</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>644</v>
+        <v>416</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>645</v>
+        <v>417</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>646</v>
+        <v>418</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>647</v>
+        <v>419</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>648</v>
+        <v>420</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>649</v>
+        <v>421</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>650</v>
+        <v>422</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>651</v>
+        <v>423</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>652</v>
+        <v>424</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>653</v>
+        <v>425</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>654</v>
+        <v>426</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>655</v>
+        <v>427</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>656</v>
+        <v>428</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>657</v>
+        <v>429</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>658</v>
+        <v>430</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>659</v>
+        <v>431</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>660</v>
+        <v>432</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>661</v>
+        <v>433</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>662</v>
+        <v>434</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>663</v>
+        <v>435</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>664</v>
+        <v>436</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>665</v>
+        <v>437</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>666</v>
+        <v>438</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>667</v>
+        <v>439</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>668</v>
+        <v>440</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>669</v>
+        <v>441</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>670</v>
+        <v>442</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>671</v>
+        <v>443</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>672</v>
+        <v>444</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>673</v>
+        <v>445</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>674</v>
+        <v>446</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>675</v>
+        <v>447</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>676</v>
+        <v>448</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>677</v>
+        <v>449</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>678</v>
+        <v>450</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>679</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -7061,487 +7063,487 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>457</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>680</v>
+        <v>452</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>681</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>682</v>
+        <v>454</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>683</v>
+        <v>455</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>684</v>
+        <v>456</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>685</v>
+        <v>457</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>686</v>
+        <v>458</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>687</v>
+        <v>459</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>688</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>689</v>
+        <v>461</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>690</v>
+        <v>462</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>691</v>
+        <v>463</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>692</v>
+        <v>464</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>693</v>
+        <v>465</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>694</v>
+        <v>466</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>695</v>
+        <v>467</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>696</v>
+        <v>468</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>697</v>
+        <v>469</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>698</v>
+        <v>470</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>699</v>
+        <v>471</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>700</v>
+        <v>472</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>701</v>
+        <v>473</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>702</v>
+        <v>474</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>703</v>
+        <v>475</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>704</v>
+        <v>476</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>705</v>
+        <v>477</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>706</v>
+        <v>478</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>707</v>
+        <v>479</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>708</v>
+        <v>480</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>709</v>
+        <v>481</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>710</v>
+        <v>482</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>711</v>
+        <v>483</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>712</v>
+        <v>484</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>713</v>
+        <v>485</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>714</v>
+        <v>486</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>715</v>
+        <v>487</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>716</v>
+        <v>488</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>717</v>
+        <v>489</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>718</v>
+        <v>490</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>719</v>
+        <v>491</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>720</v>
+        <v>492</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>721</v>
+        <v>493</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>722</v>
+        <v>494</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>723</v>
+        <v>495</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>724</v>
+        <v>496</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>725</v>
+        <v>497</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>726</v>
+        <v>498</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>727</v>
+        <v>499</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>728</v>
+        <v>500</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>729</v>
+        <v>501</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>730</v>
+        <v>502</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>731</v>
+        <v>503</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>732</v>
+        <v>504</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>733</v>
+        <v>505</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>734</v>
+        <v>506</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>735</v>
+        <v>507</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>736</v>
+        <v>508</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>737</v>
+        <v>509</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>738</v>
+        <v>510</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>739</v>
+        <v>511</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>740</v>
+        <v>512</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>741</v>
+        <v>513</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>742</v>
+        <v>514</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>743</v>
+        <v>515</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>744</v>
+        <v>516</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>745</v>
+        <v>517</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>746</v>
+        <v>518</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>747</v>
+        <v>519</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>748</v>
+        <v>520</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>749</v>
+        <v>521</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>750</v>
+        <v>522</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>751</v>
+        <v>523</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>752</v>
+        <v>524</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>753</v>
+        <v>525</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>754</v>
+        <v>526</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>755</v>
+        <v>527</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>756</v>
+        <v>528</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>757</v>
+        <v>529</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>758</v>
+        <v>530</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>759</v>
+        <v>531</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>760</v>
+        <v>532</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>761</v>
+        <v>533</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>762</v>
+        <v>534</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>763</v>
+        <v>535</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>764</v>
+        <v>536</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>765</v>
+        <v>537</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>766</v>
+        <v>538</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>767</v>
+        <v>539</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>768</v>
+        <v>540</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>769</v>
+        <v>541</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>770</v>
+        <v>542</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>771</v>
+        <v>543</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>772</v>
+        <v>544</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>773</v>
+        <v>545</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>774</v>
+        <v>546</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>775</v>
+        <v>547</v>
       </c>
     </row>
   </sheetData>

--- a/mapping_file_creator/2023_primer_sets.xlsx
+++ b/mapping_file_creator/2023_primer_sets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://joinnioz-my.sharepoint.com/personal/maartje_brouwer_nioz_nl/Documents/Documenten/GitHub/molecular_tools/mapping_file_creator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rdebeer\Documents\GitHub\molecular_tools\mapping_file_creator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{2CC9DA1D-5B2F-4C42-B189-FDEC28C067D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09E830AE-E4C8-448C-B727-A9ABEC04837C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED62A0C-95A6-4161-A4D3-7CE308549B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="16080" windowWidth="20760" windowHeight="13200" activeTab="1" xr2:uid="{B4BA240D-4364-4E6B-832C-6ED414D244A6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{B4BA240D-4364-4E6B-832C-6ED414D244A6}"/>
   </bookViews>
   <sheets>
     <sheet name="515F" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="951R" sheetId="6" r:id="rId4"/>
     <sheet name="F04" sheetId="4" r:id="rId5"/>
     <sheet name="R22" sheetId="5" r:id="rId6"/>
+    <sheet name="Rh515F" sheetId="7" r:id="rId7"/>
+    <sheet name="Rh1073R" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="996">
   <si>
     <t>515F_Golay0257</t>
   </si>
@@ -2663,6 +2665,372 @@
   </si>
   <si>
     <t>926RBC_Golay9200</t>
+  </si>
+  <si>
+    <t>Forward primer</t>
+  </si>
+  <si>
+    <t>Rh545F_Go1</t>
+  </si>
+  <si>
+    <t>Rh545F_Go3</t>
+  </si>
+  <si>
+    <t>Rh545F_Go5</t>
+  </si>
+  <si>
+    <t>Rh545F_Go7</t>
+  </si>
+  <si>
+    <t>Rh545F_Go9</t>
+  </si>
+  <si>
+    <t>Rh545F_Go11</t>
+  </si>
+  <si>
+    <t>Rh545F_Go13</t>
+  </si>
+  <si>
+    <t>Rh545F_Go15</t>
+  </si>
+  <si>
+    <t>Rh545F_Go17</t>
+  </si>
+  <si>
+    <t>Rh545F_Go19</t>
+  </si>
+  <si>
+    <t>Rh545F_Go21</t>
+  </si>
+  <si>
+    <t>Rh545F_Go23</t>
+  </si>
+  <si>
+    <t>Rh545F_Go25</t>
+  </si>
+  <si>
+    <t>Rh545F_Go27</t>
+  </si>
+  <si>
+    <t>Rh545F_Go29</t>
+  </si>
+  <si>
+    <t>Rh545F_Go31</t>
+  </si>
+  <si>
+    <t>Rh545F_Go33</t>
+  </si>
+  <si>
+    <t>Rh545F_Go35</t>
+  </si>
+  <si>
+    <t>Rh545F_Go37</t>
+  </si>
+  <si>
+    <t>Rh545F_Go39</t>
+  </si>
+  <si>
+    <t>Rh545F_Go43</t>
+  </si>
+  <si>
+    <t>Rh545F_Go45</t>
+  </si>
+  <si>
+    <t>Rh545F_Go47</t>
+  </si>
+  <si>
+    <t>Rh545F_Go49</t>
+  </si>
+  <si>
+    <t>Rh545F_Go51</t>
+  </si>
+  <si>
+    <t>Rh545F_Go53</t>
+  </si>
+  <si>
+    <t>Rh545F_Go55</t>
+  </si>
+  <si>
+    <t>Rh545F_Go57</t>
+  </si>
+  <si>
+    <t>Rh545F_Go59</t>
+  </si>
+  <si>
+    <t>Rh545F_Go61</t>
+  </si>
+  <si>
+    <t>Rh545F_Go63</t>
+  </si>
+  <si>
+    <t>Rh545F_Go65</t>
+  </si>
+  <si>
+    <t>Rh545F_Go67</t>
+  </si>
+  <si>
+    <t>Rh545F_Go69</t>
+  </si>
+  <si>
+    <t>Rh545F_Go71</t>
+  </si>
+  <si>
+    <t>Rh545F_Go73</t>
+  </si>
+  <si>
+    <t>Rh545F_Go75</t>
+  </si>
+  <si>
+    <t>Rh545F_Go77</t>
+  </si>
+  <si>
+    <t>Rh545F_Go79</t>
+  </si>
+  <si>
+    <t>Rh545F_Go81</t>
+  </si>
+  <si>
+    <t>Rh545F_Go83</t>
+  </si>
+  <si>
+    <t>Rh545F_Go85</t>
+  </si>
+  <si>
+    <t>Rh545F_Go87</t>
+  </si>
+  <si>
+    <t>Rh545F_Go89</t>
+  </si>
+  <si>
+    <t>Rh545F_Go91</t>
+  </si>
+  <si>
+    <t>Rh545F_Go93</t>
+  </si>
+  <si>
+    <t>Rh545F_Go95</t>
+  </si>
+  <si>
+    <t>Rh545F_Go97</t>
+  </si>
+  <si>
+    <t>Rh545F_Go99</t>
+  </si>
+  <si>
+    <t>Rh545F_Go101</t>
+  </si>
+  <si>
+    <t>Rh545F_Go103</t>
+  </si>
+  <si>
+    <t>Rh545F_Go105</t>
+  </si>
+  <si>
+    <t>Rh545F_Go109</t>
+  </si>
+  <si>
+    <t>Rh545F_Go111</t>
+  </si>
+  <si>
+    <t>Rh545F_Go113</t>
+  </si>
+  <si>
+    <t>Rh545F_Go115</t>
+  </si>
+  <si>
+    <t>Rh545F_Go117</t>
+  </si>
+  <si>
+    <t>Rh545F_Go119</t>
+  </si>
+  <si>
+    <t>Rh545F_Go121</t>
+  </si>
+  <si>
+    <t>Rh545F_Go123</t>
+  </si>
+  <si>
+    <t>Rh1073R_Go4</t>
+  </si>
+  <si>
+    <t>Rh1073R_Go6</t>
+  </si>
+  <si>
+    <t>Rh1073R_Go8</t>
+  </si>
+  <si>
+    <t>Rh1073R_Go10</t>
+  </si>
+  <si>
+    <t>Rh1073R_Go12</t>
+  </si>
+  <si>
+    <t>Rh1073R_Go14</t>
+  </si>
+  <si>
+    <t>Rh1073R_Go16</t>
+  </si>
+  <si>
+    <t>Rh1073R_Go18</t>
+  </si>
+  <si>
+    <t>Rh1073R_Go20</t>
+  </si>
+  <si>
+    <t>Rh1073R_Go22</t>
+  </si>
+  <si>
+    <t>Rh1073R_Go24</t>
+  </si>
+  <si>
+    <t>Rh1073R_Go26</t>
+  </si>
+  <si>
+    <t>Rh1073R_Go28</t>
+  </si>
+  <si>
+    <t>Rh1073R_Go30</t>
+  </si>
+  <si>
+    <t>Rh1073R_Go32</t>
+  </si>
+  <si>
+    <t>Rh1073R_Go34</t>
+  </si>
+  <si>
+    <t>Rh1073R_Go36</t>
+  </si>
+  <si>
+    <t>Rh1073R_Go38</t>
+  </si>
+  <si>
+    <t>Rh1073R_Go40</t>
+  </si>
+  <si>
+    <t>Rh1073R_Go42</t>
+  </si>
+  <si>
+    <t>Rh1073R_Go44</t>
+  </si>
+  <si>
+    <t>Rh1073R_Go46</t>
+  </si>
+  <si>
+    <t>Rh1073R_Go50</t>
+  </si>
+  <si>
+    <t>Rh1073R_Go52</t>
+  </si>
+  <si>
+    <t>Rh1073R_Go54</t>
+  </si>
+  <si>
+    <t>Rh1073R_Go58</t>
+  </si>
+  <si>
+    <t>Rh1073R_Go60</t>
+  </si>
+  <si>
+    <t>Rh1073R_Go62</t>
+  </si>
+  <si>
+    <t>Rh1073R_Go64</t>
+  </si>
+  <si>
+    <t>Rh1073R_Go66</t>
+  </si>
+  <si>
+    <t>Rh1073R_Go68</t>
+  </si>
+  <si>
+    <t>Rh1073R_Go70</t>
+  </si>
+  <si>
+    <t>Rh1073R_Go72</t>
+  </si>
+  <si>
+    <t>Rh1073R_Go74</t>
+  </si>
+  <si>
+    <t>Rh1073R_Go76</t>
+  </si>
+  <si>
+    <t>Rh1073R_Go78</t>
+  </si>
+  <si>
+    <t>Rh1073R_Go80</t>
+  </si>
+  <si>
+    <t>Rh1073R_Go84</t>
+  </si>
+  <si>
+    <t>Rh1073R_Go86</t>
+  </si>
+  <si>
+    <t>Rh1073R_Go88</t>
+  </si>
+  <si>
+    <t>Rh1073R_Go90</t>
+  </si>
+  <si>
+    <t>Rh1073R_Go92</t>
+  </si>
+  <si>
+    <t>Rh1073R_Go96</t>
+  </si>
+  <si>
+    <t>Rh1073R_Go98</t>
+  </si>
+  <si>
+    <t>Rh1073R_Go100</t>
+  </si>
+  <si>
+    <t>Rh1073R_Go102</t>
+  </si>
+  <si>
+    <t>Rh1073R_Go104</t>
+  </si>
+  <si>
+    <t>Rh1073R_Go106</t>
+  </si>
+  <si>
+    <t>Rh1073R_Go108</t>
+  </si>
+  <si>
+    <t>Rh1073R_Go110</t>
+  </si>
+  <si>
+    <t>Rh1073R_Go112</t>
+  </si>
+  <si>
+    <t>Rh1073R_Go114</t>
+  </si>
+  <si>
+    <t>Rh1073R_Go116</t>
+  </si>
+  <si>
+    <t>Rh1073R_Go118</t>
+  </si>
+  <si>
+    <t>Rh1073R_Go120</t>
+  </si>
+  <si>
+    <t>Rh1073R_Go122</t>
+  </si>
+  <si>
+    <t>Rh1073R_Go124</t>
+  </si>
+  <si>
+    <t>Rh1073R_Go126</t>
+  </si>
+  <si>
+    <t>Rh1073R_Go128</t>
+  </si>
+  <si>
+    <t>Rh1073R_Go130</t>
+  </si>
+  <si>
+    <t>Reverse primer</t>
   </si>
 </sst>
 </file>
@@ -4220,7 +4588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{877BBEAB-A1AB-4B40-808F-FC750FE08F59}">
   <dimension ref="A1:A229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+    <sheetView topLeftCell="A211" workbookViewId="0">
       <selection activeCell="L224" sqref="L224"/>
     </sheetView>
   </sheetViews>
@@ -7052,7 +7420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4AABAE1-CEB5-4D9C-ACF3-C0901C1E79F6}">
   <dimension ref="A1:A97"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -7549,4 +7917,650 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0596F0-8C6E-45AE-946B-39DBC0D8C61B}">
+  <dimension ref="A1:A61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>934</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A1AED7D-1A9B-4F61-B227-A523832163F3}">
+  <dimension ref="A1:A61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>994</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/mapping_file_creator/2023_primer_sets.xlsx
+++ b/mapping_file_creator/2023_primer_sets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://joinnioz-my.sharepoint.com/personal/maartje_brouwer_nioz_nl/Documents/Documenten/GitHub/molecular_tools/mapping_file_creator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{2CC9DA1D-5B2F-4C42-B189-FDEC28C067D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09E830AE-E4C8-448C-B727-A9ABEC04837C}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{2CC9DA1D-5B2F-4C42-B189-FDEC28C067D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51ED5A3C-19D9-4502-A8E1-E86A1588CCCF}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="16080" windowWidth="20760" windowHeight="13200" activeTab="1" xr2:uid="{B4BA240D-4364-4E6B-832C-6ED414D244A6}"/>
+    <workbookView xWindow="-16320" yWindow="-6525" windowWidth="16440" windowHeight="28320" activeTab="5" xr2:uid="{B4BA240D-4364-4E6B-832C-6ED414D244A6}"/>
   </bookViews>
   <sheets>
     <sheet name="515F" sheetId="1" r:id="rId1"/>
@@ -1255,147 +1255,6 @@
     <t>EUKssu_F04_A095</t>
   </si>
   <si>
-    <t>EUKssu_F04_A097</t>
-  </si>
-  <si>
-    <t>EUKssu_F04_A099</t>
-  </si>
-  <si>
-    <t>EUKssu_F04_A101</t>
-  </si>
-  <si>
-    <t>EUKssu_F04_A103</t>
-  </si>
-  <si>
-    <t>EUKssu_F04_A105</t>
-  </si>
-  <si>
-    <t>EUKssu_F04_A107</t>
-  </si>
-  <si>
-    <t>EUKssu_F04_A109</t>
-  </si>
-  <si>
-    <t>EUKssu_F04_A111</t>
-  </si>
-  <si>
-    <t>EUKssu_F04_A113</t>
-  </si>
-  <si>
-    <t>EUKssu_F04_A115</t>
-  </si>
-  <si>
-    <t>EUKssu_F04_A117</t>
-  </si>
-  <si>
-    <t>EUKssu_F04_A119</t>
-  </si>
-  <si>
-    <t>EUKssu_F04_A121</t>
-  </si>
-  <si>
-    <t>EUKssu_F04_A123</t>
-  </si>
-  <si>
-    <t>EUKssu_F04_A125</t>
-  </si>
-  <si>
-    <t>EUKssu_F04_A127</t>
-  </si>
-  <si>
-    <t>EUKssu_F04_A129</t>
-  </si>
-  <si>
-    <t>EUKssu_F04_A131</t>
-  </si>
-  <si>
-    <t>EUKssu_F04_A133</t>
-  </si>
-  <si>
-    <t>EUKssu_F04_A135</t>
-  </si>
-  <si>
-    <t>EUKssu_F04_A137</t>
-  </si>
-  <si>
-    <t>EUKssu_F04_A139</t>
-  </si>
-  <si>
-    <t>EUKssu_F04_A141</t>
-  </si>
-  <si>
-    <t>EUKssu_F04_A143</t>
-  </si>
-  <si>
-    <t>EUKssu_F04_A145</t>
-  </si>
-  <si>
-    <t>EUKssu_F04_A147</t>
-  </si>
-  <si>
-    <t>EUKssu_F04_A149</t>
-  </si>
-  <si>
-    <t>EUKssu_F04_A151</t>
-  </si>
-  <si>
-    <t>EUKssu_F04_A153</t>
-  </si>
-  <si>
-    <t>EUKssu_F04_A155</t>
-  </si>
-  <si>
-    <t>EUKssu_F04_A157</t>
-  </si>
-  <si>
-    <t>EUKssu_F04_A161</t>
-  </si>
-  <si>
-    <t>EUKssu_F04_A163</t>
-  </si>
-  <si>
-    <t>EUKssu_F04_A165</t>
-  </si>
-  <si>
-    <t>EUKssu_F04_A167</t>
-  </si>
-  <si>
-    <t>EUKssu_F04_A169</t>
-  </si>
-  <si>
-    <t>EUKssu_F04_A171</t>
-  </si>
-  <si>
-    <t>EUKssu_F04_A173</t>
-  </si>
-  <si>
-    <t>EUKssu_F04_A175</t>
-  </si>
-  <si>
-    <t>EUKssu_F04_A177</t>
-  </si>
-  <si>
-    <t>EUKssu_F04_A179</t>
-  </si>
-  <si>
-    <t>EUKssu_F04_A181</t>
-  </si>
-  <si>
-    <t>EUKssu_F04_A183</t>
-  </si>
-  <si>
-    <t>EUKssu_F04_A185</t>
-  </si>
-  <si>
-    <t>EUKssu_F04_A187</t>
-  </si>
-  <si>
-    <t>EUKssu_F04_A189</t>
-  </si>
-  <si>
-    <t>EUKssu_F04_A191</t>
-  </si>
-  <si>
     <t>EUKssu_F04_A193</t>
   </si>
   <si>
@@ -1549,150 +1408,6 @@
     <t>EUKssu_R22mod_A104</t>
   </si>
   <si>
-    <t>EUKssu_R22mod_A106</t>
-  </si>
-  <si>
-    <t>EUKssu_R22mod_A108</t>
-  </si>
-  <si>
-    <t>EUKssu_R22mod_A110</t>
-  </si>
-  <si>
-    <t>EUKssu_R22mod_A112</t>
-  </si>
-  <si>
-    <t>EUKssu_R22mod_A114</t>
-  </si>
-  <si>
-    <t>EUKssu_R22mod_A116</t>
-  </si>
-  <si>
-    <t>EUKssu_R22mod_A118</t>
-  </si>
-  <si>
-    <t>EUKssu_R22mod_A120</t>
-  </si>
-  <si>
-    <t>EUKssu_R22mod_A122</t>
-  </si>
-  <si>
-    <t>EUKssu_R22mod_A124</t>
-  </si>
-  <si>
-    <t>EUKssu_R22mod_A126</t>
-  </si>
-  <si>
-    <t>EUKssu_R22mod_A128</t>
-  </si>
-  <si>
-    <t>EUKssu_R22mod_A130</t>
-  </si>
-  <si>
-    <t>EUKssu_R22mod_A132</t>
-  </si>
-  <si>
-    <t>EUKssu_R22mod_A134</t>
-  </si>
-  <si>
-    <t>EUKssu_R22mod_A136</t>
-  </si>
-  <si>
-    <t>EUKssu_R22mod_A138</t>
-  </si>
-  <si>
-    <t>EUKssu_R22mod_A140</t>
-  </si>
-  <si>
-    <t>EUKssu_R22mod_A142</t>
-  </si>
-  <si>
-    <t>EUKssu_R22mod_A144</t>
-  </si>
-  <si>
-    <t>EUKssu_R22mod_A146</t>
-  </si>
-  <si>
-    <t>EUKssu_R22mod_A148</t>
-  </si>
-  <si>
-    <t>EUKssu_R22mod_A150</t>
-  </si>
-  <si>
-    <t>EUKssu_R22mod_A152</t>
-  </si>
-  <si>
-    <t>EUKssu_R22mod_A154</t>
-  </si>
-  <si>
-    <t>EUKssu_R22mod_A156</t>
-  </si>
-  <si>
-    <t>EUKssu_R22mod_A158</t>
-  </si>
-  <si>
-    <t>EUKssu_R22mod_A160</t>
-  </si>
-  <si>
-    <t>EUKssu_R22mod_A162</t>
-  </si>
-  <si>
-    <t>EUKssu_R22mod_A164</t>
-  </si>
-  <si>
-    <t>EUKssu_R22mod_A166</t>
-  </si>
-  <si>
-    <t>EUKssu_R22mod_A168</t>
-  </si>
-  <si>
-    <t>EUKssu_R22mod_A170</t>
-  </si>
-  <si>
-    <t>EUKssu_R22mod_A172</t>
-  </si>
-  <si>
-    <t>EUKssu_R22mod_A174</t>
-  </si>
-  <si>
-    <t>EUKssu_R22mod_A176</t>
-  </si>
-  <si>
-    <t>EUKssu_R22mod_A178</t>
-  </si>
-  <si>
-    <t>EUKssu_R22mod_A180</t>
-  </si>
-  <si>
-    <t>EUKssu_R22mod_A182</t>
-  </si>
-  <si>
-    <t>EUKssu_R22mod_A184</t>
-  </si>
-  <si>
-    <t>EUKssu_R22mod_A186</t>
-  </si>
-  <si>
-    <t>EUKssu_R22mod_A188</t>
-  </si>
-  <si>
-    <t>EUKssu_R22mod_A190</t>
-  </si>
-  <si>
-    <t>EUKssu_R22mod_A192</t>
-  </si>
-  <si>
-    <t>EUKssu_R22mod_A194</t>
-  </si>
-  <si>
-    <t>EUKssu_R22mod_A196</t>
-  </si>
-  <si>
-    <t>EUKssu_F04_A199</t>
-  </si>
-  <si>
-    <t>EUKssu_F04_A201</t>
-  </si>
-  <si>
     <t>951R_Golay9002</t>
   </si>
   <si>
@@ -2663,13 +2378,298 @@
   </si>
   <si>
     <t>926RBC_Golay9200</t>
+  </si>
+  <si>
+    <t>EUKssu_F04_A002</t>
+  </si>
+  <si>
+    <t>EUKssu_F04_A004</t>
+  </si>
+  <si>
+    <t>EUKssu_F04_A006</t>
+  </si>
+  <si>
+    <t>EUKssu_F04_A008</t>
+  </si>
+  <si>
+    <t>EUKssu_F04_A010</t>
+  </si>
+  <si>
+    <t>EUKssu_F04_A012</t>
+  </si>
+  <si>
+    <t>EUKssu_F04_A014</t>
+  </si>
+  <si>
+    <t>EUKssu_F04_A016</t>
+  </si>
+  <si>
+    <t>EUKssu_F04_A018</t>
+  </si>
+  <si>
+    <t>EUKssu_F04_A020</t>
+  </si>
+  <si>
+    <t>EUKssu_F04_A022</t>
+  </si>
+  <si>
+    <t>EUKssu_F04_A024</t>
+  </si>
+  <si>
+    <t>EUKssu_F04_A026</t>
+  </si>
+  <si>
+    <t>EUKssu_F04_A028</t>
+  </si>
+  <si>
+    <t>EUKssu_F04_A030</t>
+  </si>
+  <si>
+    <t>EUKssu_F04_A032</t>
+  </si>
+  <si>
+    <t>EUKssu_F04_A034</t>
+  </si>
+  <si>
+    <t>EUKssu_F04_A036</t>
+  </si>
+  <si>
+    <t>EUKssu_F04_A038</t>
+  </si>
+  <si>
+    <t>EUKssu_F04_A040</t>
+  </si>
+  <si>
+    <t>EUKssu_F04_A042</t>
+  </si>
+  <si>
+    <t>EUKssu_F04_A044</t>
+  </si>
+  <si>
+    <t>EUKssu_F04_A046</t>
+  </si>
+  <si>
+    <t>EUKssu_F04_A048</t>
+  </si>
+  <si>
+    <t>EUKssu_F04_A050</t>
+  </si>
+  <si>
+    <t>EUKssu_F04_A051</t>
+  </si>
+  <si>
+    <t>EUKssu_F04_A052</t>
+  </si>
+  <si>
+    <t>EUKssu_F04_A054</t>
+  </si>
+  <si>
+    <t>EUKssu_F04_A056</t>
+  </si>
+  <si>
+    <t>EUKssu_F04_A058</t>
+  </si>
+  <si>
+    <t>EUKssu_F04_A060</t>
+  </si>
+  <si>
+    <t>EUKssu_F04_A062</t>
+  </si>
+  <si>
+    <t>EUKssu_F04_A064</t>
+  </si>
+  <si>
+    <t>EUKssu_F04_A066</t>
+  </si>
+  <si>
+    <t>EUKssu_F04_A068</t>
+  </si>
+  <si>
+    <t>EUKssu_F04_A070</t>
+  </si>
+  <si>
+    <t>EUKssu_F04_A072</t>
+  </si>
+  <si>
+    <t>EUKssu_F04_A074</t>
+  </si>
+  <si>
+    <t>EUKssu_F04_A076</t>
+  </si>
+  <si>
+    <t>EUKssu_F04_A078</t>
+  </si>
+  <si>
+    <t>EUKssu_F04_A080</t>
+  </si>
+  <si>
+    <t>EUKssu_F04_A082</t>
+  </si>
+  <si>
+    <t>EUKssu_F04_A084</t>
+  </si>
+  <si>
+    <t>EUKssu_F04_A086</t>
+  </si>
+  <si>
+    <t>EUKssu_F04_A087</t>
+  </si>
+  <si>
+    <t>EUKssu_F04_A088</t>
+  </si>
+  <si>
+    <t>EUKssu_F04_A090</t>
+  </si>
+  <si>
+    <t>EUKssu_F04_A092</t>
+  </si>
+  <si>
+    <t>EUKssu_F04_A094</t>
+  </si>
+  <si>
+    <t>EUKssu_R22mod_A019</t>
+  </si>
+  <si>
+    <t>EUKssu_R22mod_A021</t>
+  </si>
+  <si>
+    <t>EUKssu_R22mod_A023</t>
+  </si>
+  <si>
+    <t>EUKssu_R22mod_A025</t>
+  </si>
+  <si>
+    <t>EUKssu_R22mod_A027</t>
+  </si>
+  <si>
+    <t>EUKssu_R22mod_A029</t>
+  </si>
+  <si>
+    <t>EUKssu_R22mod_A031</t>
+  </si>
+  <si>
+    <t>EUKssu_R22mod_A033</t>
+  </si>
+  <si>
+    <t>EUKssu_R22mod_A035</t>
+  </si>
+  <si>
+    <t>EUKssu_R22mod_A036</t>
+  </si>
+  <si>
+    <t>EUKssu_R22mod_A037</t>
+  </si>
+  <si>
+    <t>EUKssu_R22mod_A039</t>
+  </si>
+  <si>
+    <t>EUKssu_R22mod_A041</t>
+  </si>
+  <si>
+    <t>EUKssu_R22mod_A043</t>
+  </si>
+  <si>
+    <t>EUKssu_R22mod_A045</t>
+  </si>
+  <si>
+    <t>EUKssu_R22mod_A047</t>
+  </si>
+  <si>
+    <t>EUKssu_R22mod_A049</t>
+  </si>
+  <si>
+    <t>EUKssu_R22mod_A051</t>
+  </si>
+  <si>
+    <t>EUKssu_R22mod_A053</t>
+  </si>
+  <si>
+    <t>EUKssu_R22mod_A055</t>
+  </si>
+  <si>
+    <t>EUKssu_R22mod_A057</t>
+  </si>
+  <si>
+    <t>EUKssu_R22mod_A059</t>
+  </si>
+  <si>
+    <t>EUKssu_R22mod_A061</t>
+  </si>
+  <si>
+    <t>EUKssu_R22mod_A063</t>
+  </si>
+  <si>
+    <t>EUKssu_R22mod_A065</t>
+  </si>
+  <si>
+    <t>EUKssu_R22mod_A067</t>
+  </si>
+  <si>
+    <t>EUKssu_R22mod_A069</t>
+  </si>
+  <si>
+    <t>EUKssu_R22mod_A071</t>
+  </si>
+  <si>
+    <t>EUKssu_R22mod_A073</t>
+  </si>
+  <si>
+    <t>EUKssu_R22mod_A075</t>
+  </si>
+  <si>
+    <t>EUKssu_R22mod_A077</t>
+  </si>
+  <si>
+    <t>EUKssu_R22mod_A079</t>
+  </si>
+  <si>
+    <t>EUKssu_R22mod_A081</t>
+  </si>
+  <si>
+    <t>EUKssu_R22mod_A083</t>
+  </si>
+  <si>
+    <t>EUKssu_R22mod_A085</t>
+  </si>
+  <si>
+    <t>EUKssu_R22mod_A087</t>
+  </si>
+  <si>
+    <t>EUKssu_R22mod_A089</t>
+  </si>
+  <si>
+    <t>EUKssu_R22mod_A091</t>
+  </si>
+  <si>
+    <t>EUKssu_R22mod_A093</t>
+  </si>
+  <si>
+    <t>EUKssu_R22mod_A095</t>
+  </si>
+  <si>
+    <t>EUKssu_R22mod_A097</t>
+  </si>
+  <si>
+    <t>EUKssu_R22mod_A098</t>
+  </si>
+  <si>
+    <t>EUKssu_R22mod_A099</t>
+  </si>
+  <si>
+    <t>EUKssu_R22mod_A101</t>
+  </si>
+  <si>
+    <t>EUKssu_R22mod_A103</t>
+  </si>
+  <si>
+    <t>EUKssu_R22mod_A105</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2700,6 +2700,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -4220,7 +4226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{877BBEAB-A1AB-4B40-808F-FC750FE08F59}">
   <dimension ref="A1:A229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+    <sheetView topLeftCell="A211" workbookViewId="0">
       <selection activeCell="L224" sqref="L224"/>
     </sheetView>
   </sheetViews>
@@ -4237,1142 +4243,1142 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>646</v>
+        <v>551</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>647</v>
+        <v>552</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>648</v>
+        <v>553</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>649</v>
+        <v>554</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>650</v>
+        <v>555</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>651</v>
+        <v>556</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>652</v>
+        <v>557</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>653</v>
+        <v>558</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>654</v>
+        <v>559</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>655</v>
+        <v>560</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>656</v>
+        <v>561</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>657</v>
+        <v>562</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>658</v>
+        <v>563</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>659</v>
+        <v>564</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>661</v>
+        <v>566</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>662</v>
+        <v>567</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>663</v>
+        <v>568</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>664</v>
+        <v>569</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>665</v>
+        <v>570</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>666</v>
+        <v>571</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>667</v>
+        <v>572</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>668</v>
+        <v>573</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>669</v>
+        <v>574</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>670</v>
+        <v>575</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>671</v>
+        <v>576</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>672</v>
+        <v>577</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>673</v>
+        <v>578</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>674</v>
+        <v>579</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>675</v>
+        <v>580</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>676</v>
+        <v>581</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>677</v>
+        <v>582</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>678</v>
+        <v>583</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>679</v>
+        <v>584</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>680</v>
+        <v>585</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>681</v>
+        <v>586</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>682</v>
+        <v>587</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>684</v>
+        <v>589</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>685</v>
+        <v>590</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>686</v>
+        <v>591</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>687</v>
+        <v>592</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>688</v>
+        <v>593</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>689</v>
+        <v>594</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>690</v>
+        <v>595</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>691</v>
+        <v>596</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>692</v>
+        <v>597</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>693</v>
+        <v>598</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>694</v>
+        <v>599</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>695</v>
+        <v>600</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>696</v>
+        <v>601</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>697</v>
+        <v>602</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>698</v>
+        <v>603</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>699</v>
+        <v>604</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>700</v>
+        <v>605</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>701</v>
+        <v>606</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>702</v>
+        <v>607</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>703</v>
+        <v>608</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>704</v>
+        <v>609</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>705</v>
+        <v>610</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>706</v>
+        <v>611</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>707</v>
+        <v>612</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>708</v>
+        <v>613</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>709</v>
+        <v>614</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>710</v>
+        <v>615</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>711</v>
+        <v>616</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>712</v>
+        <v>617</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>713</v>
+        <v>618</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>714</v>
+        <v>619</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>715</v>
+        <v>620</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>716</v>
+        <v>621</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>717</v>
+        <v>622</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>718</v>
+        <v>623</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>719</v>
+        <v>624</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>720</v>
+        <v>625</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>721</v>
+        <v>626</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>722</v>
+        <v>627</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>723</v>
+        <v>628</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>724</v>
+        <v>629</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>725</v>
+        <v>630</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>726</v>
+        <v>631</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>727</v>
+        <v>632</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>728</v>
+        <v>633</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>729</v>
+        <v>634</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>730</v>
+        <v>635</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>731</v>
+        <v>636</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>732</v>
+        <v>637</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>733</v>
+        <v>638</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>734</v>
+        <v>639</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>735</v>
+        <v>640</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>736</v>
+        <v>641</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>737</v>
+        <v>642</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>738</v>
+        <v>643</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>739</v>
+        <v>644</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>740</v>
+        <v>645</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>741</v>
+        <v>646</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>742</v>
+        <v>647</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>743</v>
+        <v>648</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>744</v>
+        <v>649</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>745</v>
+        <v>650</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>746</v>
+        <v>651</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>747</v>
+        <v>652</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>748</v>
+        <v>653</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>749</v>
+        <v>654</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>750</v>
+        <v>655</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>751</v>
+        <v>656</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>752</v>
+        <v>657</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>753</v>
+        <v>658</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>754</v>
+        <v>659</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>755</v>
+        <v>660</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>756</v>
+        <v>661</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>757</v>
+        <v>662</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>758</v>
+        <v>663</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>759</v>
+        <v>664</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>760</v>
+        <v>665</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>761</v>
+        <v>666</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>762</v>
+        <v>667</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>763</v>
+        <v>668</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>764</v>
+        <v>669</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>765</v>
+        <v>670</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>766</v>
+        <v>671</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>767</v>
+        <v>672</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>768</v>
+        <v>673</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>769</v>
+        <v>674</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>770</v>
+        <v>675</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>771</v>
+        <v>676</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>772</v>
+        <v>677</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>773</v>
+        <v>678</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>774</v>
+        <v>679</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>775</v>
+        <v>680</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>776</v>
+        <v>681</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>777</v>
+        <v>682</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>778</v>
+        <v>683</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>779</v>
+        <v>684</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>780</v>
+        <v>685</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>781</v>
+        <v>686</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>782</v>
+        <v>687</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>783</v>
+        <v>688</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>784</v>
+        <v>689</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>785</v>
+        <v>690</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>786</v>
+        <v>691</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>787</v>
+        <v>692</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>788</v>
+        <v>693</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>789</v>
+        <v>694</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>790</v>
+        <v>695</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>791</v>
+        <v>696</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>792</v>
+        <v>697</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>793</v>
+        <v>698</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>794</v>
+        <v>699</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>795</v>
+        <v>700</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>796</v>
+        <v>701</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>797</v>
+        <v>702</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>798</v>
+        <v>703</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>799</v>
+        <v>704</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>800</v>
+        <v>705</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>801</v>
+        <v>706</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>802</v>
+        <v>707</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>803</v>
+        <v>708</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>804</v>
+        <v>709</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>805</v>
+        <v>710</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>806</v>
+        <v>711</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>807</v>
+        <v>712</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>808</v>
+        <v>713</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>809</v>
+        <v>714</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>810</v>
+        <v>715</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>811</v>
+        <v>716</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>812</v>
+        <v>717</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>813</v>
+        <v>718</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>814</v>
+        <v>719</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>815</v>
+        <v>720</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>816</v>
+        <v>721</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>817</v>
+        <v>722</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>818</v>
+        <v>723</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>819</v>
+        <v>724</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>820</v>
+        <v>725</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>821</v>
+        <v>726</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>822</v>
+        <v>727</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>823</v>
+        <v>728</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>824</v>
+        <v>729</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>825</v>
+        <v>730</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>826</v>
+        <v>731</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>827</v>
+        <v>732</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>828</v>
+        <v>733</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>829</v>
+        <v>734</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>830</v>
+        <v>735</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>831</v>
+        <v>736</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>832</v>
+        <v>737</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>833</v>
+        <v>738</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>834</v>
+        <v>739</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>835</v>
+        <v>740</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>836</v>
+        <v>741</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>837</v>
+        <v>742</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>838</v>
+        <v>743</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>839</v>
+        <v>744</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>840</v>
+        <v>745</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>841</v>
+        <v>746</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>842</v>
+        <v>747</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>843</v>
+        <v>748</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>844</v>
+        <v>749</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>845</v>
+        <v>750</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>846</v>
+        <v>751</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>847</v>
+        <v>752</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>848</v>
+        <v>753</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>849</v>
+        <v>754</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>850</v>
+        <v>755</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>851</v>
+        <v>756</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>852</v>
+        <v>757</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>853</v>
+        <v>758</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>854</v>
+        <v>759</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>855</v>
+        <v>760</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>856</v>
+        <v>761</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>857</v>
+        <v>762</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>858</v>
+        <v>763</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>859</v>
+        <v>764</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>860</v>
+        <v>765</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>861</v>
+        <v>766</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>862</v>
+        <v>767</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>863</v>
+        <v>768</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>864</v>
+        <v>769</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>865</v>
+        <v>770</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>866</v>
+        <v>771</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>867</v>
+        <v>772</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>868</v>
+        <v>773</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>869</v>
+        <v>774</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>870</v>
+        <v>775</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>871</v>
+        <v>776</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>872</v>
+        <v>777</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>873</v>
+        <v>778</v>
       </c>
     </row>
   </sheetData>
@@ -6061,482 +6067,482 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>550</v>
+        <v>455</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>551</v>
+        <v>456</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>644</v>
+        <v>549</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>552</v>
+        <v>457</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>553</v>
+        <v>458</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>554</v>
+        <v>459</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>555</v>
+        <v>460</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>556</v>
+        <v>461</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>557</v>
+        <v>462</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>558</v>
+        <v>463</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>559</v>
+        <v>464</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>560</v>
+        <v>465</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>561</v>
+        <v>466</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>562</v>
+        <v>467</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>563</v>
+        <v>468</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>564</v>
+        <v>469</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>565</v>
+        <v>470</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>566</v>
+        <v>471</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>567</v>
+        <v>472</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>568</v>
+        <v>473</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>569</v>
+        <v>474</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>570</v>
+        <v>475</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>571</v>
+        <v>476</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>572</v>
+        <v>477</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>573</v>
+        <v>478</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>574</v>
+        <v>479</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>575</v>
+        <v>480</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>576</v>
+        <v>481</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>577</v>
+        <v>482</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>578</v>
+        <v>483</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>579</v>
+        <v>484</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>580</v>
+        <v>485</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>581</v>
+        <v>486</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>582</v>
+        <v>487</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>583</v>
+        <v>488</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>584</v>
+        <v>489</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>585</v>
+        <v>490</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>586</v>
+        <v>491</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>587</v>
+        <v>492</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>588</v>
+        <v>493</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>589</v>
+        <v>494</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>590</v>
+        <v>495</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>591</v>
+        <v>496</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>592</v>
+        <v>497</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>593</v>
+        <v>498</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>594</v>
+        <v>499</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>595</v>
+        <v>500</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>596</v>
+        <v>501</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>597</v>
+        <v>502</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>598</v>
+        <v>503</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>599</v>
+        <v>504</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>600</v>
+        <v>505</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>601</v>
+        <v>506</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>602</v>
+        <v>507</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>603</v>
+        <v>508</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>604</v>
+        <v>509</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>605</v>
+        <v>510</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>606</v>
+        <v>511</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>607</v>
+        <v>512</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>608</v>
+        <v>513</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>609</v>
+        <v>514</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>610</v>
+        <v>515</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>611</v>
+        <v>516</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>612</v>
+        <v>517</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>613</v>
+        <v>518</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>614</v>
+        <v>519</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>615</v>
+        <v>520</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>616</v>
+        <v>521</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>617</v>
+        <v>522</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>618</v>
+        <v>523</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>619</v>
+        <v>524</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>620</v>
+        <v>525</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>621</v>
+        <v>526</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>622</v>
+        <v>527</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>645</v>
+        <v>550</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>623</v>
+        <v>528</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>624</v>
+        <v>529</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>625</v>
+        <v>530</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>626</v>
+        <v>531</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>627</v>
+        <v>532</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>628</v>
+        <v>533</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>629</v>
+        <v>534</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>630</v>
+        <v>535</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>631</v>
+        <v>536</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>632</v>
+        <v>537</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>633</v>
+        <v>538</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>634</v>
+        <v>539</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>635</v>
+        <v>540</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>636</v>
+        <v>541</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>637</v>
+        <v>542</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>638</v>
+        <v>543</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>639</v>
+        <v>544</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>640</v>
+        <v>545</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>641</v>
+        <v>546</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>642</v>
+        <v>547</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>643</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>
@@ -6549,8 +6555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6266B8C-11FE-408B-BD4A-0C2D15AB0E21}">
   <dimension ref="A1:A97"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6570,480 +6576,481 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>359</v>
+        <v>779</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>361</v>
+        <v>780</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>363</v>
+        <v>781</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>365</v>
+        <v>782</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>367</v>
+        <v>783</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>369</v>
+        <v>784</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>371</v>
+        <v>785</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>373</v>
+        <v>786</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>375</v>
+        <v>787</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>377</v>
+        <v>788</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>379</v>
+        <v>789</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>381</v>
+        <v>790</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>548</v>
+        <v>791</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>384</v>
+        <v>792</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>386</v>
+        <v>793</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>388</v>
+        <v>794</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>390</v>
+        <v>795</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>392</v>
+        <v>796</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>394</v>
+        <v>797</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>396</v>
+        <v>798</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>398</v>
+        <v>799</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>549</v>
+        <v>800</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>401</v>
+        <v>801</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>403</v>
+        <v>802</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>405</v>
+        <v>803</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>406</v>
+        <v>804</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>407</v>
+        <v>805</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>408</v>
+        <v>383</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>409</v>
+        <v>806</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>410</v>
+        <v>384</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>411</v>
+        <v>807</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>412</v>
+        <v>385</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>413</v>
+        <v>808</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>414</v>
+        <v>386</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>415</v>
+        <v>809</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>416</v>
+        <v>387</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>417</v>
+        <v>810</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>418</v>
+        <v>388</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>419</v>
+        <v>811</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>421</v>
+        <v>812</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>422</v>
+        <v>390</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>423</v>
+        <v>813</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>424</v>
+        <v>391</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>425</v>
+        <v>814</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>426</v>
+        <v>392</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>427</v>
+        <v>815</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>428</v>
+        <v>393</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>429</v>
+        <v>816</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>430</v>
+        <v>394</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>431</v>
+        <v>817</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>433</v>
+        <v>818</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>434</v>
+        <v>396</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>435</v>
+        <v>819</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>436</v>
+        <v>397</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>437</v>
+        <v>820</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>438</v>
+        <v>398</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>439</v>
+        <v>821</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>440</v>
+        <v>399</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>441</v>
+        <v>822</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>442</v>
+        <v>823</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>443</v>
+        <v>824</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>444</v>
+        <v>400</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>445</v>
+        <v>825</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>446</v>
+        <v>401</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>447</v>
+        <v>826</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>448</v>
+        <v>402</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>449</v>
+        <v>827</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>450</v>
+        <v>403</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>451</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7052,8 +7059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4AABAE1-CEB5-4D9C-ACF3-C0901C1E79F6}">
   <dimension ref="A1:A97"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7068,485 +7075,486 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>452</v>
+        <v>405</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>453</v>
+        <v>406</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>454</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>455</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>456</v>
+        <v>409</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>457</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>458</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>459</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>460</v>
+        <v>413</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>461</v>
+        <v>828</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>462</v>
+        <v>414</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>463</v>
+        <v>829</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>464</v>
+        <v>415</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>465</v>
+        <v>830</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>466</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>467</v>
+        <v>831</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>468</v>
+        <v>417</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>469</v>
+        <v>832</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>470</v>
+        <v>418</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>471</v>
+        <v>833</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>472</v>
+        <v>419</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>473</v>
+        <v>834</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>474</v>
+        <v>420</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>475</v>
+        <v>835</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>476</v>
+        <v>421</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>477</v>
+        <v>836</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>478</v>
+        <v>837</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>479</v>
+        <v>838</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>480</v>
+        <v>422</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>481</v>
+        <v>839</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>482</v>
+        <v>423</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>483</v>
+        <v>840</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>484</v>
+        <v>424</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>485</v>
+        <v>841</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>486</v>
+        <v>425</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>487</v>
+        <v>842</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>488</v>
+        <v>426</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>489</v>
+        <v>843</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>490</v>
+        <v>427</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>491</v>
+        <v>844</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>492</v>
+        <v>428</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>493</v>
+        <v>845</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>494</v>
+        <v>429</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>495</v>
+        <v>846</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>496</v>
+        <v>430</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>497</v>
+        <v>847</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>498</v>
+        <v>431</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>499</v>
+        <v>848</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>500</v>
+        <v>432</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>501</v>
+        <v>849</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>502</v>
+        <v>433</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>503</v>
+        <v>850</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>504</v>
+        <v>434</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>505</v>
+        <v>851</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>506</v>
+        <v>435</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>507</v>
+        <v>852</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>508</v>
+        <v>436</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>509</v>
+        <v>853</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>510</v>
+        <v>437</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>511</v>
+        <v>854</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>512</v>
+        <v>438</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>513</v>
+        <v>855</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>514</v>
+        <v>439</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>515</v>
+        <v>856</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>516</v>
+        <v>440</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>517</v>
+        <v>857</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>518</v>
+        <v>441</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>519</v>
+        <v>858</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>520</v>
+        <v>442</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>521</v>
+        <v>859</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>522</v>
+        <v>443</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>523</v>
+        <v>860</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>524</v>
+        <v>444</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>525</v>
+        <v>861</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>526</v>
+        <v>445</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>527</v>
+        <v>862</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>528</v>
+        <v>446</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>529</v>
+        <v>863</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>530</v>
+        <v>447</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>531</v>
+        <v>864</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>532</v>
+        <v>448</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>533</v>
+        <v>865</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>534</v>
+        <v>449</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>535</v>
+        <v>866</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>536</v>
+        <v>450</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>537</v>
+        <v>867</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>538</v>
+        <v>451</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>539</v>
+        <v>868</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>540</v>
+        <v>869</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>541</v>
+        <v>870</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>542</v>
+        <v>452</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>543</v>
+        <v>871</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>544</v>
+        <v>453</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>545</v>
+        <v>872</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>546</v>
+        <v>454</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>547</v>
+        <v>873</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/mapping_file_creator/2023_primer_sets.xlsx
+++ b/mapping_file_creator/2023_primer_sets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rdebeer\Documents\GitHub\molecular_tools\mapping_file_creator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\zeus.nioz.nl\mmb\molecular_ecology\manuals_and_protocols\seperate_protocols\primers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED62A0C-95A6-4161-A4D3-7CE308549B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6AF72BB-625C-4B69-9230-F2B46AEF5449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{B4BA240D-4364-4E6B-832C-6ED414D244A6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20760" windowHeight="13200" activeTab="9" xr2:uid="{B4BA240D-4364-4E6B-832C-6ED414D244A6}"/>
   </bookViews>
   <sheets>
     <sheet name="515F" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,10 @@
     <sheet name="951R" sheetId="6" r:id="rId4"/>
     <sheet name="F04" sheetId="4" r:id="rId5"/>
     <sheet name="R22" sheetId="5" r:id="rId6"/>
-    <sheet name="Rh515F" sheetId="7" r:id="rId7"/>
-    <sheet name="Rh1073R" sheetId="8" r:id="rId8"/>
+    <sheet name="12S_F1a" sheetId="7" r:id="rId7"/>
+    <sheet name="12S_R1" sheetId="8" r:id="rId8"/>
+    <sheet name="LCO" sheetId="9" r:id="rId9"/>
+    <sheet name="HCO" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="996">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="1192">
   <si>
     <t>515F_Golay0257</t>
   </si>
@@ -2667,370 +2669,958 @@
     <t>926RBC_Golay9200</t>
   </si>
   <si>
-    <t>Forward primer</t>
-  </si>
-  <si>
-    <t>Rh545F_Go1</t>
-  </si>
-  <si>
-    <t>Rh545F_Go3</t>
-  </si>
-  <si>
-    <t>Rh545F_Go5</t>
-  </si>
-  <si>
-    <t>Rh545F_Go7</t>
-  </si>
-  <si>
-    <t>Rh545F_Go9</t>
-  </si>
-  <si>
-    <t>Rh545F_Go11</t>
-  </si>
-  <si>
-    <t>Rh545F_Go13</t>
-  </si>
-  <si>
-    <t>Rh545F_Go15</t>
-  </si>
-  <si>
-    <t>Rh545F_Go17</t>
-  </si>
-  <si>
-    <t>Rh545F_Go19</t>
-  </si>
-  <si>
-    <t>Rh545F_Go21</t>
-  </si>
-  <si>
-    <t>Rh545F_Go23</t>
-  </si>
-  <si>
-    <t>Rh545F_Go25</t>
-  </si>
-  <si>
-    <t>Rh545F_Go27</t>
-  </si>
-  <si>
-    <t>Rh545F_Go29</t>
-  </si>
-  <si>
-    <t>Rh545F_Go31</t>
-  </si>
-  <si>
-    <t>Rh545F_Go33</t>
-  </si>
-  <si>
-    <t>Rh545F_Go35</t>
-  </si>
-  <si>
-    <t>Rh545F_Go37</t>
-  </si>
-  <si>
-    <t>Rh545F_Go39</t>
-  </si>
-  <si>
-    <t>Rh545F_Go43</t>
-  </si>
-  <si>
-    <t>Rh545F_Go45</t>
-  </si>
-  <si>
-    <t>Rh545F_Go47</t>
-  </si>
-  <si>
-    <t>Rh545F_Go49</t>
-  </si>
-  <si>
-    <t>Rh545F_Go51</t>
-  </si>
-  <si>
-    <t>Rh545F_Go53</t>
-  </si>
-  <si>
-    <t>Rh545F_Go55</t>
-  </si>
-  <si>
-    <t>Rh545F_Go57</t>
-  </si>
-  <si>
-    <t>Rh545F_Go59</t>
-  </si>
-  <si>
-    <t>Rh545F_Go61</t>
-  </si>
-  <si>
-    <t>Rh545F_Go63</t>
-  </si>
-  <si>
-    <t>Rh545F_Go65</t>
-  </si>
-  <si>
-    <t>Rh545F_Go67</t>
-  </si>
-  <si>
-    <t>Rh545F_Go69</t>
-  </si>
-  <si>
-    <t>Rh545F_Go71</t>
-  </si>
-  <si>
-    <t>Rh545F_Go73</t>
-  </si>
-  <si>
-    <t>Rh545F_Go75</t>
-  </si>
-  <si>
-    <t>Rh545F_Go77</t>
-  </si>
-  <si>
-    <t>Rh545F_Go79</t>
-  </si>
-  <si>
-    <t>Rh545F_Go81</t>
-  </si>
-  <si>
-    <t>Rh545F_Go83</t>
-  </si>
-  <si>
-    <t>Rh545F_Go85</t>
-  </si>
-  <si>
-    <t>Rh545F_Go87</t>
-  </si>
-  <si>
-    <t>Rh545F_Go89</t>
-  </si>
-  <si>
-    <t>Rh545F_Go91</t>
-  </si>
-  <si>
-    <t>Rh545F_Go93</t>
-  </si>
-  <si>
-    <t>Rh545F_Go95</t>
-  </si>
-  <si>
-    <t>Rh545F_Go97</t>
-  </si>
-  <si>
-    <t>Rh545F_Go99</t>
-  </si>
-  <si>
-    <t>Rh545F_Go101</t>
-  </si>
-  <si>
-    <t>Rh545F_Go103</t>
-  </si>
-  <si>
-    <t>Rh545F_Go105</t>
-  </si>
-  <si>
-    <t>Rh545F_Go109</t>
-  </si>
-  <si>
-    <t>Rh545F_Go111</t>
-  </si>
-  <si>
-    <t>Rh545F_Go113</t>
-  </si>
-  <si>
-    <t>Rh545F_Go115</t>
-  </si>
-  <si>
-    <t>Rh545F_Go117</t>
-  </si>
-  <si>
-    <t>Rh545F_Go119</t>
-  </si>
-  <si>
-    <t>Rh545F_Go121</t>
-  </si>
-  <si>
-    <t>Rh545F_Go123</t>
-  </si>
-  <si>
-    <t>Rh1073R_Go4</t>
-  </si>
-  <si>
-    <t>Rh1073R_Go6</t>
-  </si>
-  <si>
-    <t>Rh1073R_Go8</t>
-  </si>
-  <si>
-    <t>Rh1073R_Go10</t>
-  </si>
-  <si>
-    <t>Rh1073R_Go12</t>
-  </si>
-  <si>
-    <t>Rh1073R_Go14</t>
-  </si>
-  <si>
-    <t>Rh1073R_Go16</t>
-  </si>
-  <si>
-    <t>Rh1073R_Go18</t>
-  </si>
-  <si>
-    <t>Rh1073R_Go20</t>
-  </si>
-  <si>
-    <t>Rh1073R_Go22</t>
-  </si>
-  <si>
-    <t>Rh1073R_Go24</t>
-  </si>
-  <si>
-    <t>Rh1073R_Go26</t>
-  </si>
-  <si>
-    <t>Rh1073R_Go28</t>
-  </si>
-  <si>
-    <t>Rh1073R_Go30</t>
-  </si>
-  <si>
-    <t>Rh1073R_Go32</t>
-  </si>
-  <si>
-    <t>Rh1073R_Go34</t>
-  </si>
-  <si>
-    <t>Rh1073R_Go36</t>
-  </si>
-  <si>
-    <t>Rh1073R_Go38</t>
-  </si>
-  <si>
-    <t>Rh1073R_Go40</t>
-  </si>
-  <si>
-    <t>Rh1073R_Go42</t>
-  </si>
-  <si>
-    <t>Rh1073R_Go44</t>
-  </si>
-  <si>
-    <t>Rh1073R_Go46</t>
-  </si>
-  <si>
-    <t>Rh1073R_Go50</t>
-  </si>
-  <si>
-    <t>Rh1073R_Go52</t>
-  </si>
-  <si>
-    <t>Rh1073R_Go54</t>
-  </si>
-  <si>
-    <t>Rh1073R_Go58</t>
-  </si>
-  <si>
-    <t>Rh1073R_Go60</t>
-  </si>
-  <si>
-    <t>Rh1073R_Go62</t>
-  </si>
-  <si>
-    <t>Rh1073R_Go64</t>
-  </si>
-  <si>
-    <t>Rh1073R_Go66</t>
-  </si>
-  <si>
-    <t>Rh1073R_Go68</t>
-  </si>
-  <si>
-    <t>Rh1073R_Go70</t>
-  </si>
-  <si>
-    <t>Rh1073R_Go72</t>
-  </si>
-  <si>
-    <t>Rh1073R_Go74</t>
-  </si>
-  <si>
-    <t>Rh1073R_Go76</t>
-  </si>
-  <si>
-    <t>Rh1073R_Go78</t>
-  </si>
-  <si>
-    <t>Rh1073R_Go80</t>
-  </si>
-  <si>
-    <t>Rh1073R_Go84</t>
-  </si>
-  <si>
-    <t>Rh1073R_Go86</t>
-  </si>
-  <si>
-    <t>Rh1073R_Go88</t>
-  </si>
-  <si>
-    <t>Rh1073R_Go90</t>
-  </si>
-  <si>
-    <t>Rh1073R_Go92</t>
-  </si>
-  <si>
-    <t>Rh1073R_Go96</t>
-  </si>
-  <si>
-    <t>Rh1073R_Go98</t>
-  </si>
-  <si>
-    <t>Rh1073R_Go100</t>
-  </si>
-  <si>
-    <t>Rh1073R_Go102</t>
-  </si>
-  <si>
-    <t>Rh1073R_Go104</t>
-  </si>
-  <si>
-    <t>Rh1073R_Go106</t>
-  </si>
-  <si>
-    <t>Rh1073R_Go108</t>
-  </si>
-  <si>
-    <t>Rh1073R_Go110</t>
-  </si>
-  <si>
-    <t>Rh1073R_Go112</t>
-  </si>
-  <si>
-    <t>Rh1073R_Go114</t>
-  </si>
-  <si>
-    <t>Rh1073R_Go116</t>
-  </si>
-  <si>
-    <t>Rh1073R_Go118</t>
-  </si>
-  <si>
-    <t>Rh1073R_Go120</t>
-  </si>
-  <si>
-    <t>Rh1073R_Go122</t>
-  </si>
-  <si>
-    <t>Rh1073R_Go124</t>
-  </si>
-  <si>
-    <t>Rh1073R_Go126</t>
-  </si>
-  <si>
-    <t>Rh1073R_Go128</t>
-  </si>
-  <si>
-    <t>Rh1073R_Go130</t>
-  </si>
-  <si>
-    <t>Reverse primer</t>
+    <t>12S_F1a-1</t>
+  </si>
+  <si>
+    <t>12S_F1a-3</t>
+  </si>
+  <si>
+    <t>12S_F1a-5</t>
+  </si>
+  <si>
+    <t>12S_F1a-7</t>
+  </si>
+  <si>
+    <t>12S_F1a-9</t>
+  </si>
+  <si>
+    <t>12S_F1a-11</t>
+  </si>
+  <si>
+    <t>12S_F1a-13</t>
+  </si>
+  <si>
+    <t>12S_F1a-15</t>
+  </si>
+  <si>
+    <t>12S_F1a-17</t>
+  </si>
+  <si>
+    <t>12S_F1a-19</t>
+  </si>
+  <si>
+    <t>12S_F1a-21</t>
+  </si>
+  <si>
+    <t>12S_F1a-23</t>
+  </si>
+  <si>
+    <t>12S_F1a-25</t>
+  </si>
+  <si>
+    <t>12S_F1a-27</t>
+  </si>
+  <si>
+    <t>12S_F1a-29</t>
+  </si>
+  <si>
+    <t>12S_F1a-31</t>
+  </si>
+  <si>
+    <t>12S_F1a-33</t>
+  </si>
+  <si>
+    <t>12S_F1a-35</t>
+  </si>
+  <si>
+    <t>12S_F1a-37</t>
+  </si>
+  <si>
+    <t>12S_F1a-39</t>
+  </si>
+  <si>
+    <t>12S_F1a-41</t>
+  </si>
+  <si>
+    <t>12S_F1a-43</t>
+  </si>
+  <si>
+    <t>12S_F1a-45</t>
+  </si>
+  <si>
+    <t>12S_F1a-47</t>
+  </si>
+  <si>
+    <t>12S_F1a-49</t>
+  </si>
+  <si>
+    <t>12S_F1a-51</t>
+  </si>
+  <si>
+    <t>12S_F1a-53</t>
+  </si>
+  <si>
+    <t>12S_F1a-55</t>
+  </si>
+  <si>
+    <t>12S_F1a-57</t>
+  </si>
+  <si>
+    <t>12S_F1a-59</t>
+  </si>
+  <si>
+    <t>12S_F1a-61</t>
+  </si>
+  <si>
+    <t>12S_F1a-63</t>
+  </si>
+  <si>
+    <t>12S_F1a-65</t>
+  </si>
+  <si>
+    <t>12S_F1a-67</t>
+  </si>
+  <si>
+    <t>12S_F1a-69</t>
+  </si>
+  <si>
+    <t>12S_F1a-71</t>
+  </si>
+  <si>
+    <t>12S_F1a-73</t>
+  </si>
+  <si>
+    <t>12S_F1a-75</t>
+  </si>
+  <si>
+    <t>12S_F1a-77</t>
+  </si>
+  <si>
+    <t>12S_F1a-79</t>
+  </si>
+  <si>
+    <t>12S_F1a-81</t>
+  </si>
+  <si>
+    <t>12S_F1a-83</t>
+  </si>
+  <si>
+    <t>12S_F1a-85</t>
+  </si>
+  <si>
+    <t>12S_F1a-87</t>
+  </si>
+  <si>
+    <t>12S_F1a-89</t>
+  </si>
+  <si>
+    <t>12S_F1a-91</t>
+  </si>
+  <si>
+    <t>12S_F1a-93</t>
+  </si>
+  <si>
+    <t>12S_F1a-95</t>
+  </si>
+  <si>
+    <t>12S_F1a-97</t>
+  </si>
+  <si>
+    <t>12S_F1a-99</t>
+  </si>
+  <si>
+    <t>12S_F1a-101</t>
+  </si>
+  <si>
+    <t>12S_F1a-103</t>
+  </si>
+  <si>
+    <t>12S_F1a-105</t>
+  </si>
+  <si>
+    <t>12S_F1a-107</t>
+  </si>
+  <si>
+    <t>12S_F1a-109</t>
+  </si>
+  <si>
+    <t>12S_F1a-111</t>
+  </si>
+  <si>
+    <t>12S_F1a-113</t>
+  </si>
+  <si>
+    <t>12S_F1a-115</t>
+  </si>
+  <si>
+    <t>12S_F1a-117</t>
+  </si>
+  <si>
+    <t>12S-R1-2</t>
+  </si>
+  <si>
+    <t>12S-R1-4</t>
+  </si>
+  <si>
+    <t>12S-R1-6</t>
+  </si>
+  <si>
+    <t>12S-R1-8</t>
+  </si>
+  <si>
+    <t>12S-R1-10</t>
+  </si>
+  <si>
+    <t>12S-R1-12</t>
+  </si>
+  <si>
+    <t>12S-R1-14</t>
+  </si>
+  <si>
+    <t>12S-R1-16</t>
+  </si>
+  <si>
+    <t>12S-R1-18</t>
+  </si>
+  <si>
+    <t>12S-R1-20</t>
+  </si>
+  <si>
+    <t>12S-R1-22</t>
+  </si>
+  <si>
+    <t>12S-R1-24</t>
+  </si>
+  <si>
+    <t>12S-R1-26</t>
+  </si>
+  <si>
+    <t>12S-R1-28</t>
+  </si>
+  <si>
+    <t>12S-R1-30</t>
+  </si>
+  <si>
+    <t>12S-R1-32</t>
+  </si>
+  <si>
+    <t>12S-R1-34</t>
+  </si>
+  <si>
+    <t>12S-R1-36</t>
+  </si>
+  <si>
+    <t>12S-R1-38</t>
+  </si>
+  <si>
+    <t>12S-R1-40</t>
+  </si>
+  <si>
+    <t>12S-R1-42</t>
+  </si>
+  <si>
+    <t>12S-R1-44</t>
+  </si>
+  <si>
+    <t>12S-R1-46</t>
+  </si>
+  <si>
+    <t>12S-R1-48</t>
+  </si>
+  <si>
+    <t>12S-R1-50</t>
+  </si>
+  <si>
+    <t>12S-R1-52</t>
+  </si>
+  <si>
+    <t>12S-R1-54</t>
+  </si>
+  <si>
+    <t>12S-R1-56</t>
+  </si>
+  <si>
+    <t>12S-R1-58</t>
+  </si>
+  <si>
+    <t>12S-R1-60</t>
+  </si>
+  <si>
+    <t>12S-R1-62</t>
+  </si>
+  <si>
+    <t>12S-R1-64</t>
+  </si>
+  <si>
+    <t>12S-R1-66</t>
+  </si>
+  <si>
+    <t>12S-R1-68</t>
+  </si>
+  <si>
+    <t>12S-R1-70</t>
+  </si>
+  <si>
+    <t>12S-R1-72</t>
+  </si>
+  <si>
+    <t>12S-R1-74</t>
+  </si>
+  <si>
+    <t>12S-R1-76</t>
+  </si>
+  <si>
+    <t>12S-R1-78</t>
+  </si>
+  <si>
+    <t>12S-R1-80</t>
+  </si>
+  <si>
+    <t>12S-R1-82</t>
+  </si>
+  <si>
+    <t>12S-R1-84</t>
+  </si>
+  <si>
+    <t>12S-R1-86</t>
+  </si>
+  <si>
+    <t>12S-R1-88</t>
+  </si>
+  <si>
+    <t>12S-R1-90</t>
+  </si>
+  <si>
+    <t>12S-R1-92</t>
+  </si>
+  <si>
+    <t>12S-R1-94</t>
+  </si>
+  <si>
+    <t>12S-R1-96</t>
+  </si>
+  <si>
+    <t>12S-R1-98</t>
+  </si>
+  <si>
+    <t>12S-R1-100</t>
+  </si>
+  <si>
+    <t>12S-R1-102</t>
+  </si>
+  <si>
+    <t>12S-R1-104</t>
+  </si>
+  <si>
+    <t>12S-R1-106</t>
+  </si>
+  <si>
+    <t>12S-R1-108</t>
+  </si>
+  <si>
+    <t>12S-R1-110</t>
+  </si>
+  <si>
+    <t>12S-R1-112</t>
+  </si>
+  <si>
+    <t>12S-R1-114</t>
+  </si>
+  <si>
+    <t>12S-R1-116</t>
+  </si>
+  <si>
+    <t>12S-R1-118</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay1</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay3</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay5</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay7</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay9</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay11</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay13</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay15</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay17</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay19</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay21</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay23</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay25</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay27</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay29</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay31</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay33</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay35</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay37</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay39</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay41</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay43</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay45</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay47</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay49</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay51</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay53</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay55</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay57</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay59</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay61</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay63</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay65</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay67</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay69</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay71</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay73</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay75</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay77</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay79</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay81</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay83</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay85</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay87</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay89</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay91</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay93</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay95</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay97</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay99</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay101</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay103</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay105</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay107</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay109</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay111</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay113</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay115</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay117</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay119</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay121</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay123</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay125</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay127</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay129</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay131</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay133</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay135</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay137</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay139</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay141</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay143</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay145</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay147</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay149</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay151</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay153</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay155</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay157</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay159</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay161</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay163</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay165</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay167</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay169</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay171</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay173</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay175</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay177</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay179</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay181</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay183</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay185</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay187</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay189</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay191</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay193</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay195</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay197</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay199</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay2</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay4</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay6</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay8</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay10</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay12</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay14</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay16</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay18</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay20</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay22</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay24</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay26</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay28</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay30</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay32</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay34</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay36</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay38</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay40</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay42</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay44</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay46</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay48</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay50</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay52</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay54</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay56</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay58</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay60</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay62</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay64</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay66</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay68</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay70</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay72</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay74</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay76</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay78</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay80</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay82</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay84</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay86</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay88</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay90</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay92</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay94</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay96</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay98</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay100</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay102</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay104</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay106</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay108</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay110</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay112</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay114</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay116</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay118</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay120</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay122</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay124</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay126</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay128</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay130</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay132</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay134</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay136</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay138</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay140</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay142</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay144</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay146</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay148</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay150</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay152</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay154</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay156</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay158</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay160</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay162</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay164</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay166</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay168</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay170</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay172</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay174</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay176</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay178</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay180</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay182</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay184</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay186</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay188</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay190</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay192</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay194</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay196</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay198</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay200</t>
   </si>
 </sst>
 </file>
@@ -3097,7 +3687,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3108,6 +3698,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3127,9 +3720,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3167,7 +3760,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3273,7 +3866,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3415,7 +4008,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3425,9 +4018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9D52808-D23F-42E0-96C4-7FD50F2C2336}">
   <dimension ref="A1:A229"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4584,12 +5175,527 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E288A0-433F-455A-BEEA-9B6096EDB2EA}">
+  <dimension ref="A1:A100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="9" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="9" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="9" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="9" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="9" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="9" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="9" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="9" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="9" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="9" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="9" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="9" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="9" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="9" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="9" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="9" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="9" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="9" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="9" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="9" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="9" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="9" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="9" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{877BBEAB-A1AB-4B40-808F-FC750FE08F59}">
   <dimension ref="A1:A229"/>
   <sheetViews>
-    <sheetView topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="L224" sqref="L224"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6917,8 +8023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6266B8C-11FE-408B-BD4A-0C2D15AB0E21}">
   <dimension ref="A1:A97"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7421,7 +8527,7 @@
   <dimension ref="A1:A97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7920,321 +9026,308 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0596F0-8C6E-45AE-946B-39DBC0D8C61B}">
-  <dimension ref="A1:A61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{585703A0-3DDC-44D2-BF87-0AC42AF5FD0E}">
+  <dimension ref="A1:A59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="8" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="8" t="s">
         <v>875</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="8" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="8" t="s">
         <v>877</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="8" t="s">
         <v>878</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="8" t="s">
         <v>879</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="8" t="s">
         <v>880</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="8" t="s">
         <v>881</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="8" t="s">
         <v>882</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="8" t="s">
         <v>883</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="8" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="8" t="s">
         <v>885</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="8" t="s">
         <v>886</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="8" t="s">
         <v>887</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="8" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="8" t="s">
         <v>889</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="8" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="8" t="s">
         <v>891</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="8" t="s">
         <v>892</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="8" t="s">
         <v>893</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="8" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="8" t="s">
         <v>895</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="8" t="s">
         <v>896</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="8" t="s">
         <v>897</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="8" t="s">
         <v>898</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="8" t="s">
         <v>899</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="8" t="s">
         <v>900</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="8" t="s">
         <v>901</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="8" t="s">
         <v>902</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="8" t="s">
         <v>903</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="8" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="8" t="s">
         <v>905</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="8" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="8" t="s">
         <v>907</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="8" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="8" t="s">
         <v>909</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="8" t="s">
         <v>910</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="8" t="s">
         <v>911</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="8" t="s">
         <v>912</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="8" t="s">
         <v>913</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="8" t="s">
         <v>914</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="8" t="s">
         <v>915</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="8" t="s">
         <v>916</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="8" t="s">
         <v>917</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="8" t="s">
         <v>918</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="8" t="s">
         <v>919</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="8" t="s">
         <v>920</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" s="8" t="s">
         <v>921</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="8" t="s">
         <v>922</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="8" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="8" t="s">
         <v>924</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" s="8" t="s">
         <v>925</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="8" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="8" t="s">
         <v>927</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" s="8" t="s">
         <v>928</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" s="8" t="s">
         <v>929</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" s="8" t="s">
         <v>930</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="A58" s="8" t="s">
         <v>931</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="A59" s="8" t="s">
         <v>932</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>934</v>
       </c>
     </row>
   </sheetData>
@@ -8243,321 +9336,823 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A1AED7D-1A9B-4F61-B227-A523832163F3}">
-  <dimension ref="A1:A61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82FE6956-99CC-4672-8011-5C0D01D5A669}">
+  <dimension ref="A1:A59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="8" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
+        <v>991</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3972E3-C764-4F7C-B243-F7B5A335E4F5}">
+  <dimension ref="A1:A100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A100"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>937</v>
-      </c>
-    </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>938</v>
+      <c r="A5" s="9" t="s">
+        <v>996</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>939</v>
+      <c r="A6" s="9" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>940</v>
+      <c r="A7" s="9" t="s">
+        <v>998</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>941</v>
+      <c r="A8" s="9" t="s">
+        <v>999</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>942</v>
+      <c r="A9" s="9" t="s">
+        <v>1000</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>943</v>
+      <c r="A10" s="9" t="s">
+        <v>1001</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>944</v>
+      <c r="A11" s="9" t="s">
+        <v>1002</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>945</v>
+      <c r="A12" s="9" t="s">
+        <v>1003</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>946</v>
+      <c r="A13" s="9" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>947</v>
+      <c r="A14" s="9" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>948</v>
+      <c r="A15" s="9" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>949</v>
+      <c r="A16" s="9" t="s">
+        <v>1007</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>950</v>
+      <c r="A17" s="9" t="s">
+        <v>1008</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>951</v>
+      <c r="A18" s="9" t="s">
+        <v>1009</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>952</v>
+      <c r="A19" s="9" t="s">
+        <v>1010</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>953</v>
+      <c r="A20" s="9" t="s">
+        <v>1011</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>954</v>
+      <c r="A21" s="9" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>955</v>
+      <c r="A22" s="9" t="s">
+        <v>1013</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>956</v>
+      <c r="A23" s="9" t="s">
+        <v>1014</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>957</v>
+      <c r="A24" s="9" t="s">
+        <v>1015</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>958</v>
+      <c r="A25" s="9" t="s">
+        <v>1016</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>959</v>
+      <c r="A26" s="9" t="s">
+        <v>1017</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>960</v>
+      <c r="A27" s="9" t="s">
+        <v>1018</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>961</v>
+      <c r="A28" s="9" t="s">
+        <v>1019</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>962</v>
+      <c r="A29" s="9" t="s">
+        <v>1020</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>963</v>
+      <c r="A30" s="9" t="s">
+        <v>1021</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>964</v>
+      <c r="A31" s="9" t="s">
+        <v>1022</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>965</v>
+      <c r="A32" s="9" t="s">
+        <v>1023</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>966</v>
+      <c r="A33" s="9" t="s">
+        <v>1024</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>967</v>
+      <c r="A34" s="9" t="s">
+        <v>1025</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>968</v>
+      <c r="A35" s="9" t="s">
+        <v>1026</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>969</v>
+      <c r="A36" s="9" t="s">
+        <v>1027</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>970</v>
+      <c r="A37" s="9" t="s">
+        <v>1028</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>971</v>
+      <c r="A38" s="9" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>972</v>
+      <c r="A39" s="9" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>973</v>
+      <c r="A40" s="9" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>974</v>
+      <c r="A41" s="9" t="s">
+        <v>1032</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>975</v>
+      <c r="A42" s="9" t="s">
+        <v>1033</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>976</v>
+      <c r="A43" s="9" t="s">
+        <v>1034</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>977</v>
+      <c r="A44" s="9" t="s">
+        <v>1035</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>978</v>
+      <c r="A45" s="9" t="s">
+        <v>1036</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>979</v>
+      <c r="A46" s="9" t="s">
+        <v>1037</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>980</v>
+      <c r="A47" s="9" t="s">
+        <v>1038</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>981</v>
+      <c r="A48" s="9" t="s">
+        <v>1039</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>982</v>
+      <c r="A49" s="9" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>983</v>
+      <c r="A50" s="9" t="s">
+        <v>1041</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>984</v>
+      <c r="A51" s="9" t="s">
+        <v>1042</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>985</v>
+      <c r="A52" s="9" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>986</v>
+      <c r="A53" s="9" t="s">
+        <v>1044</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>987</v>
+      <c r="A54" s="9" t="s">
+        <v>1045</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>988</v>
+      <c r="A55" s="9" t="s">
+        <v>1046</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>989</v>
+      <c r="A56" s="9" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>990</v>
+      <c r="A57" s="9" t="s">
+        <v>1048</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>991</v>
+      <c r="A58" s="9" t="s">
+        <v>1049</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>992</v>
+      <c r="A59" s="9" t="s">
+        <v>1050</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>993</v>
+      <c r="A60" s="9" t="s">
+        <v>1051</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>994</v>
+      <c r="A61" s="9" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="9" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="9" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="9" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="9" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="9" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="9" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="9" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="9" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="9" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="9" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="9" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="9" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="9" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="9" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="9" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="9" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="9" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="9" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="9" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="9" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="9" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="9" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="9" t="s">
+        <v>1091</v>
       </c>
     </row>
   </sheetData>

--- a/mapping_file_creator/2023_primer_sets.xlsx
+++ b/mapping_file_creator/2023_primer_sets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\zeus.nioz.nl\mmb\molecular_ecology\manuals_and_protocols\seperate_protocols\primers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://joinnioz-my.sharepoint.com/personal/maartje_brouwer_nioz_nl/Documents/Documenten/GitHub/molecular_tools/mapping_file_creator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6AF72BB-625C-4B69-9230-F2B46AEF5449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{C6AF72BB-625C-4B69-9230-F2B46AEF5449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77611D52-2134-46C2-A37E-FCDC03DC490F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20760" windowHeight="13200" activeTab="9" xr2:uid="{B4BA240D-4364-4E6B-832C-6ED414D244A6}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="2" activeTab="6" xr2:uid="{B4BA240D-4364-4E6B-832C-6ED414D244A6}"/>
   </bookViews>
   <sheets>
     <sheet name="515F" sheetId="1" r:id="rId1"/>
@@ -2669,360 +2669,6 @@
     <t>926RBC_Golay9200</t>
   </si>
   <si>
-    <t>12S_F1a-1</t>
-  </si>
-  <si>
-    <t>12S_F1a-3</t>
-  </si>
-  <si>
-    <t>12S_F1a-5</t>
-  </si>
-  <si>
-    <t>12S_F1a-7</t>
-  </si>
-  <si>
-    <t>12S_F1a-9</t>
-  </si>
-  <si>
-    <t>12S_F1a-11</t>
-  </si>
-  <si>
-    <t>12S_F1a-13</t>
-  </si>
-  <si>
-    <t>12S_F1a-15</t>
-  </si>
-  <si>
-    <t>12S_F1a-17</t>
-  </si>
-  <si>
-    <t>12S_F1a-19</t>
-  </si>
-  <si>
-    <t>12S_F1a-21</t>
-  </si>
-  <si>
-    <t>12S_F1a-23</t>
-  </si>
-  <si>
-    <t>12S_F1a-25</t>
-  </si>
-  <si>
-    <t>12S_F1a-27</t>
-  </si>
-  <si>
-    <t>12S_F1a-29</t>
-  </si>
-  <si>
-    <t>12S_F1a-31</t>
-  </si>
-  <si>
-    <t>12S_F1a-33</t>
-  </si>
-  <si>
-    <t>12S_F1a-35</t>
-  </si>
-  <si>
-    <t>12S_F1a-37</t>
-  </si>
-  <si>
-    <t>12S_F1a-39</t>
-  </si>
-  <si>
-    <t>12S_F1a-41</t>
-  </si>
-  <si>
-    <t>12S_F1a-43</t>
-  </si>
-  <si>
-    <t>12S_F1a-45</t>
-  </si>
-  <si>
-    <t>12S_F1a-47</t>
-  </si>
-  <si>
-    <t>12S_F1a-49</t>
-  </si>
-  <si>
-    <t>12S_F1a-51</t>
-  </si>
-  <si>
-    <t>12S_F1a-53</t>
-  </si>
-  <si>
-    <t>12S_F1a-55</t>
-  </si>
-  <si>
-    <t>12S_F1a-57</t>
-  </si>
-  <si>
-    <t>12S_F1a-59</t>
-  </si>
-  <si>
-    <t>12S_F1a-61</t>
-  </si>
-  <si>
-    <t>12S_F1a-63</t>
-  </si>
-  <si>
-    <t>12S_F1a-65</t>
-  </si>
-  <si>
-    <t>12S_F1a-67</t>
-  </si>
-  <si>
-    <t>12S_F1a-69</t>
-  </si>
-  <si>
-    <t>12S_F1a-71</t>
-  </si>
-  <si>
-    <t>12S_F1a-73</t>
-  </si>
-  <si>
-    <t>12S_F1a-75</t>
-  </si>
-  <si>
-    <t>12S_F1a-77</t>
-  </si>
-  <si>
-    <t>12S_F1a-79</t>
-  </si>
-  <si>
-    <t>12S_F1a-81</t>
-  </si>
-  <si>
-    <t>12S_F1a-83</t>
-  </si>
-  <si>
-    <t>12S_F1a-85</t>
-  </si>
-  <si>
-    <t>12S_F1a-87</t>
-  </si>
-  <si>
-    <t>12S_F1a-89</t>
-  </si>
-  <si>
-    <t>12S_F1a-91</t>
-  </si>
-  <si>
-    <t>12S_F1a-93</t>
-  </si>
-  <si>
-    <t>12S_F1a-95</t>
-  </si>
-  <si>
-    <t>12S_F1a-97</t>
-  </si>
-  <si>
-    <t>12S_F1a-99</t>
-  </si>
-  <si>
-    <t>12S_F1a-101</t>
-  </si>
-  <si>
-    <t>12S_F1a-103</t>
-  </si>
-  <si>
-    <t>12S_F1a-105</t>
-  </si>
-  <si>
-    <t>12S_F1a-107</t>
-  </si>
-  <si>
-    <t>12S_F1a-109</t>
-  </si>
-  <si>
-    <t>12S_F1a-111</t>
-  </si>
-  <si>
-    <t>12S_F1a-113</t>
-  </si>
-  <si>
-    <t>12S_F1a-115</t>
-  </si>
-  <si>
-    <t>12S_F1a-117</t>
-  </si>
-  <si>
-    <t>12S-R1-2</t>
-  </si>
-  <si>
-    <t>12S-R1-4</t>
-  </si>
-  <si>
-    <t>12S-R1-6</t>
-  </si>
-  <si>
-    <t>12S-R1-8</t>
-  </si>
-  <si>
-    <t>12S-R1-10</t>
-  </si>
-  <si>
-    <t>12S-R1-12</t>
-  </si>
-  <si>
-    <t>12S-R1-14</t>
-  </si>
-  <si>
-    <t>12S-R1-16</t>
-  </si>
-  <si>
-    <t>12S-R1-18</t>
-  </si>
-  <si>
-    <t>12S-R1-20</t>
-  </si>
-  <si>
-    <t>12S-R1-22</t>
-  </si>
-  <si>
-    <t>12S-R1-24</t>
-  </si>
-  <si>
-    <t>12S-R1-26</t>
-  </si>
-  <si>
-    <t>12S-R1-28</t>
-  </si>
-  <si>
-    <t>12S-R1-30</t>
-  </si>
-  <si>
-    <t>12S-R1-32</t>
-  </si>
-  <si>
-    <t>12S-R1-34</t>
-  </si>
-  <si>
-    <t>12S-R1-36</t>
-  </si>
-  <si>
-    <t>12S-R1-38</t>
-  </si>
-  <si>
-    <t>12S-R1-40</t>
-  </si>
-  <si>
-    <t>12S-R1-42</t>
-  </si>
-  <si>
-    <t>12S-R1-44</t>
-  </si>
-  <si>
-    <t>12S-R1-46</t>
-  </si>
-  <si>
-    <t>12S-R1-48</t>
-  </si>
-  <si>
-    <t>12S-R1-50</t>
-  </si>
-  <si>
-    <t>12S-R1-52</t>
-  </si>
-  <si>
-    <t>12S-R1-54</t>
-  </si>
-  <si>
-    <t>12S-R1-56</t>
-  </si>
-  <si>
-    <t>12S-R1-58</t>
-  </si>
-  <si>
-    <t>12S-R1-60</t>
-  </si>
-  <si>
-    <t>12S-R1-62</t>
-  </si>
-  <si>
-    <t>12S-R1-64</t>
-  </si>
-  <si>
-    <t>12S-R1-66</t>
-  </si>
-  <si>
-    <t>12S-R1-68</t>
-  </si>
-  <si>
-    <t>12S-R1-70</t>
-  </si>
-  <si>
-    <t>12S-R1-72</t>
-  </si>
-  <si>
-    <t>12S-R1-74</t>
-  </si>
-  <si>
-    <t>12S-R1-76</t>
-  </si>
-  <si>
-    <t>12S-R1-78</t>
-  </si>
-  <si>
-    <t>12S-R1-80</t>
-  </si>
-  <si>
-    <t>12S-R1-82</t>
-  </si>
-  <si>
-    <t>12S-R1-84</t>
-  </si>
-  <si>
-    <t>12S-R1-86</t>
-  </si>
-  <si>
-    <t>12S-R1-88</t>
-  </si>
-  <si>
-    <t>12S-R1-90</t>
-  </si>
-  <si>
-    <t>12S-R1-92</t>
-  </si>
-  <si>
-    <t>12S-R1-94</t>
-  </si>
-  <si>
-    <t>12S-R1-96</t>
-  </si>
-  <si>
-    <t>12S-R1-98</t>
-  </si>
-  <si>
-    <t>12S-R1-100</t>
-  </si>
-  <si>
-    <t>12S-R1-102</t>
-  </si>
-  <si>
-    <t>12S-R1-104</t>
-  </si>
-  <si>
-    <t>12S-R1-106</t>
-  </si>
-  <si>
-    <t>12S-R1-108</t>
-  </si>
-  <si>
-    <t>12S-R1-110</t>
-  </si>
-  <si>
-    <t>12S-R1-112</t>
-  </si>
-  <si>
-    <t>12S-R1-114</t>
-  </si>
-  <si>
-    <t>12S-R1-116</t>
-  </si>
-  <si>
-    <t>12S-R1-118</t>
-  </si>
-  <si>
     <t>LCO_1490_5T.Golay1</t>
   </si>
   <si>
@@ -3621,6 +3267,360 @@
   </si>
   <si>
     <t>HCO_1777_15T.Golay200</t>
+  </si>
+  <si>
+    <t>12S_R1_Golay002</t>
+  </si>
+  <si>
+    <t>12S_R1_Golay004</t>
+  </si>
+  <si>
+    <t>12S_R1_Golay006</t>
+  </si>
+  <si>
+    <t>12S_R1_Golay008</t>
+  </si>
+  <si>
+    <t>12S_R1_Golay010</t>
+  </si>
+  <si>
+    <t>12S_R1_Golay012</t>
+  </si>
+  <si>
+    <t>12S_R1_Golay014</t>
+  </si>
+  <si>
+    <t>12S_R1_Golay016</t>
+  </si>
+  <si>
+    <t>12S_R1_Golay018</t>
+  </si>
+  <si>
+    <t>12S_R1_Golay020</t>
+  </si>
+  <si>
+    <t>12S_R1_Golay022</t>
+  </si>
+  <si>
+    <t>12S_R1_Golay024</t>
+  </si>
+  <si>
+    <t>12S_R1_Golay026</t>
+  </si>
+  <si>
+    <t>12S_R1_Golay028</t>
+  </si>
+  <si>
+    <t>12S_R1_Golay030</t>
+  </si>
+  <si>
+    <t>12S_R1_Golay032</t>
+  </si>
+  <si>
+    <t>12S_R1_Golay034</t>
+  </si>
+  <si>
+    <t>12S_R1_Golay036</t>
+  </si>
+  <si>
+    <t>12S_R1_Golay038</t>
+  </si>
+  <si>
+    <t>12S_R1_Golay040</t>
+  </si>
+  <si>
+    <t>12S_R1_Golay042</t>
+  </si>
+  <si>
+    <t>12S_R1_Golay044</t>
+  </si>
+  <si>
+    <t>12S_R1_Golay046</t>
+  </si>
+  <si>
+    <t>12S_R1_Golay048</t>
+  </si>
+  <si>
+    <t>12S_R1_Golay050</t>
+  </si>
+  <si>
+    <t>12S_R1_Golay052</t>
+  </si>
+  <si>
+    <t>12S_R1_Golay054</t>
+  </si>
+  <si>
+    <t>12S_R1_Golay056</t>
+  </si>
+  <si>
+    <t>12S_R1_Golay058</t>
+  </si>
+  <si>
+    <t>12S_R1_Golay060</t>
+  </si>
+  <si>
+    <t>12S_R1_Golay062</t>
+  </si>
+  <si>
+    <t>12S_R1_Golay064</t>
+  </si>
+  <si>
+    <t>12S_R1_Golay066</t>
+  </si>
+  <si>
+    <t>12S_R1_Golay068</t>
+  </si>
+  <si>
+    <t>12S_R1_Golay070</t>
+  </si>
+  <si>
+    <t>12S_R1_Golay072</t>
+  </si>
+  <si>
+    <t>12S_R1_Golay074</t>
+  </si>
+  <si>
+    <t>12S_R1_Golay076</t>
+  </si>
+  <si>
+    <t>12S_R1_Golay078</t>
+  </si>
+  <si>
+    <t>12S_R1_Golay080</t>
+  </si>
+  <si>
+    <t>12S_R1_Golay082</t>
+  </si>
+  <si>
+    <t>12S_R1_Golay084</t>
+  </si>
+  <si>
+    <t>12S_R1_Golay086</t>
+  </si>
+  <si>
+    <t>12S_R1_Golay088</t>
+  </si>
+  <si>
+    <t>12S_R1_Golay090</t>
+  </si>
+  <si>
+    <t>12S_R1_Golay092</t>
+  </si>
+  <si>
+    <t>12S_R1_Golay094</t>
+  </si>
+  <si>
+    <t>12S_R1_Golay096</t>
+  </si>
+  <si>
+    <t>12S_R1_Golay098</t>
+  </si>
+  <si>
+    <t>12S_R1_Golay100</t>
+  </si>
+  <si>
+    <t>12S_R1_Golay102</t>
+  </si>
+  <si>
+    <t>12S_R1_Golay104</t>
+  </si>
+  <si>
+    <t>12S_R1_Golay106</t>
+  </si>
+  <si>
+    <t>12S_R1_Golay108</t>
+  </si>
+  <si>
+    <t>12S_R1_Golay110</t>
+  </si>
+  <si>
+    <t>12S_R1_Golay112</t>
+  </si>
+  <si>
+    <t>12S_R1_Golay114</t>
+  </si>
+  <si>
+    <t>12S_R1_Golay116</t>
+  </si>
+  <si>
+    <t>12S_R1_Golay118</t>
+  </si>
+  <si>
+    <t>12S_F1a_Golay001</t>
+  </si>
+  <si>
+    <t>12S_F1a_Golay003</t>
+  </si>
+  <si>
+    <t>12S_F1a_Golay005</t>
+  </si>
+  <si>
+    <t>12S_F1a_Golay007</t>
+  </si>
+  <si>
+    <t>12S_F1a_Golay009</t>
+  </si>
+  <si>
+    <t>12S_F1a_Golay011</t>
+  </si>
+  <si>
+    <t>12S_F1a_Golay013</t>
+  </si>
+  <si>
+    <t>12S_F1a_Golay015</t>
+  </si>
+  <si>
+    <t>12S_F1a_Golay017</t>
+  </si>
+  <si>
+    <t>12S_F1a_Golay019</t>
+  </si>
+  <si>
+    <t>12S_F1a_Golay021</t>
+  </si>
+  <si>
+    <t>12S_F1a_Golay023</t>
+  </si>
+  <si>
+    <t>12S_F1a_Golay025</t>
+  </si>
+  <si>
+    <t>12S_F1a_Golay027</t>
+  </si>
+  <si>
+    <t>12S_F1a_Golay029</t>
+  </si>
+  <si>
+    <t>12S_F1a_Golay031</t>
+  </si>
+  <si>
+    <t>12S_F1a_Golay033</t>
+  </si>
+  <si>
+    <t>12S_F1a_Golay035</t>
+  </si>
+  <si>
+    <t>12S_F1a_Golay037</t>
+  </si>
+  <si>
+    <t>12S_F1a_Golay039</t>
+  </si>
+  <si>
+    <t>12S_F1a_Golay041</t>
+  </si>
+  <si>
+    <t>12S_F1a_Golay043</t>
+  </si>
+  <si>
+    <t>12S_F1a_Golay045</t>
+  </si>
+  <si>
+    <t>12S_F1a_Golay047</t>
+  </si>
+  <si>
+    <t>12S_F1a_Golay049</t>
+  </si>
+  <si>
+    <t>12S_F1a_Golay051</t>
+  </si>
+  <si>
+    <t>12S_F1a_Golay053</t>
+  </si>
+  <si>
+    <t>12S_F1a_Golay055</t>
+  </si>
+  <si>
+    <t>12S_F1a_Golay057</t>
+  </si>
+  <si>
+    <t>12S_F1a_Golay059</t>
+  </si>
+  <si>
+    <t>12S_F1a_Golay061</t>
+  </si>
+  <si>
+    <t>12S_F1a_Golay063</t>
+  </si>
+  <si>
+    <t>12S_F1a_Golay065</t>
+  </si>
+  <si>
+    <t>12S_F1a_Golay067</t>
+  </si>
+  <si>
+    <t>12S_F1a_Golay069</t>
+  </si>
+  <si>
+    <t>12S_F1a_Golay071</t>
+  </si>
+  <si>
+    <t>12S_F1a_Golay073</t>
+  </si>
+  <si>
+    <t>12S_F1a_Golay075</t>
+  </si>
+  <si>
+    <t>12S_F1a_Golay077</t>
+  </si>
+  <si>
+    <t>12S_F1a_Golay079</t>
+  </si>
+  <si>
+    <t>12S_F1a_Golay081</t>
+  </si>
+  <si>
+    <t>12S_F1a_Golay083</t>
+  </si>
+  <si>
+    <t>12S_F1a_Golay085</t>
+  </si>
+  <si>
+    <t>12S_F1a_Golay087</t>
+  </si>
+  <si>
+    <t>12S_F1a_Golay089</t>
+  </si>
+  <si>
+    <t>12S_F1a_Golay091</t>
+  </si>
+  <si>
+    <t>12S_F1a_Golay093</t>
+  </si>
+  <si>
+    <t>12S_F1a_Golay095</t>
+  </si>
+  <si>
+    <t>12S_F1a_Golay097</t>
+  </si>
+  <si>
+    <t>12S_F1a_Golay099</t>
+  </si>
+  <si>
+    <t>12S_F1a_Golay101</t>
+  </si>
+  <si>
+    <t>12S_F1a_Golay103</t>
+  </si>
+  <si>
+    <t>12S_F1a_Golay105</t>
+  </si>
+  <si>
+    <t>12S_F1a_Golay107</t>
+  </si>
+  <si>
+    <t>12S_F1a_Golay109</t>
+  </si>
+  <si>
+    <t>12S_F1a_Golay111</t>
+  </si>
+  <si>
+    <t>12S_F1a_Golay113</t>
+  </si>
+  <si>
+    <t>12S_F1a_Golay115</t>
+  </si>
+  <si>
+    <t>12S_F1a_Golay117</t>
   </si>
 </sst>
 </file>
@@ -3687,7 +3687,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3698,9 +3698,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3717,6 +3715,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5179,510 +5181,510 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E288A0-433F-455A-BEEA-9B6096EDB2EA}">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>1092</v>
+      <c r="A1" s="8" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>1093</v>
+      <c r="A2" s="8" t="s">
+        <v>975</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>1094</v>
+      <c r="A3" s="8" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>1095</v>
+      <c r="A4" s="8" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>1096</v>
+      <c r="A5" s="8" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>1097</v>
+      <c r="A6" s="8" t="s">
+        <v>979</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>1098</v>
+      <c r="A7" s="8" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>1099</v>
+      <c r="A8" s="8" t="s">
+        <v>981</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>1100</v>
+      <c r="A9" s="8" t="s">
+        <v>982</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>1101</v>
+      <c r="A10" s="8" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>1102</v>
+      <c r="A11" s="8" t="s">
+        <v>984</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>1103</v>
+      <c r="A12" s="8" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>1104</v>
+      <c r="A13" s="8" t="s">
+        <v>986</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>1105</v>
+      <c r="A14" s="8" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>1106</v>
+      <c r="A15" s="8" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>1107</v>
+      <c r="A16" s="8" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>1108</v>
+      <c r="A17" s="8" t="s">
+        <v>990</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>1109</v>
+      <c r="A18" s="8" t="s">
+        <v>991</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>1110</v>
+      <c r="A19" s="8" t="s">
+        <v>992</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>1111</v>
+      <c r="A20" s="8" t="s">
+        <v>993</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>1112</v>
+      <c r="A21" s="8" t="s">
+        <v>994</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>1113</v>
+      <c r="A22" s="8" t="s">
+        <v>995</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>1114</v>
+      <c r="A23" s="8" t="s">
+        <v>996</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>1115</v>
+      <c r="A24" s="8" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>1116</v>
+      <c r="A25" s="8" t="s">
+        <v>998</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>1117</v>
+      <c r="A26" s="8" t="s">
+        <v>999</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>1118</v>
+      <c r="A27" s="8" t="s">
+        <v>1000</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>1119</v>
+      <c r="A28" s="8" t="s">
+        <v>1001</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>1120</v>
+      <c r="A29" s="8" t="s">
+        <v>1002</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>1121</v>
+      <c r="A30" s="8" t="s">
+        <v>1003</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>1122</v>
+      <c r="A31" s="8" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>1123</v>
+      <c r="A32" s="8" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>1124</v>
+      <c r="A33" s="8" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>1125</v>
+      <c r="A34" s="8" t="s">
+        <v>1007</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
-        <v>1126</v>
+      <c r="A35" s="8" t="s">
+        <v>1008</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
-        <v>1127</v>
+      <c r="A36" s="8" t="s">
+        <v>1009</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
-        <v>1128</v>
+      <c r="A37" s="8" t="s">
+        <v>1010</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
-        <v>1129</v>
+      <c r="A38" s="8" t="s">
+        <v>1011</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
-        <v>1130</v>
+      <c r="A39" s="8" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
-        <v>1131</v>
+      <c r="A40" s="8" t="s">
+        <v>1013</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
-        <v>1132</v>
+      <c r="A41" s="8" t="s">
+        <v>1014</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
-        <v>1133</v>
+      <c r="A42" s="8" t="s">
+        <v>1015</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
-        <v>1134</v>
+      <c r="A43" s="8" t="s">
+        <v>1016</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
-        <v>1135</v>
+      <c r="A44" s="8" t="s">
+        <v>1017</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
-        <v>1136</v>
+      <c r="A45" s="8" t="s">
+        <v>1018</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
-        <v>1137</v>
+      <c r="A46" s="8" t="s">
+        <v>1019</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
-        <v>1138</v>
+      <c r="A47" s="8" t="s">
+        <v>1020</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
-        <v>1139</v>
+      <c r="A48" s="8" t="s">
+        <v>1021</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
-        <v>1140</v>
+      <c r="A49" s="8" t="s">
+        <v>1022</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
-        <v>1141</v>
+      <c r="A50" s="8" t="s">
+        <v>1023</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
-        <v>1142</v>
+      <c r="A51" s="8" t="s">
+        <v>1024</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
-        <v>1143</v>
+      <c r="A52" s="8" t="s">
+        <v>1025</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
-        <v>1144</v>
+      <c r="A53" s="8" t="s">
+        <v>1026</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
-        <v>1145</v>
+      <c r="A54" s="8" t="s">
+        <v>1027</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
-        <v>1146</v>
+      <c r="A55" s="8" t="s">
+        <v>1028</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
-        <v>1147</v>
+      <c r="A56" s="8" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
-        <v>1148</v>
+      <c r="A57" s="8" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
-        <v>1149</v>
+      <c r="A58" s="8" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
-        <v>1150</v>
+      <c r="A59" s="8" t="s">
+        <v>1032</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="9" t="s">
-        <v>1151</v>
+      <c r="A60" s="8" t="s">
+        <v>1033</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
-        <v>1152</v>
+      <c r="A61" s="8" t="s">
+        <v>1034</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
-        <v>1153</v>
+      <c r="A62" s="8" t="s">
+        <v>1035</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="9" t="s">
-        <v>1154</v>
+      <c r="A63" s="8" t="s">
+        <v>1036</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="9" t="s">
-        <v>1155</v>
+      <c r="A64" s="8" t="s">
+        <v>1037</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="s">
-        <v>1156</v>
+      <c r="A65" s="8" t="s">
+        <v>1038</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="9" t="s">
-        <v>1157</v>
+      <c r="A66" s="8" t="s">
+        <v>1039</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="9" t="s">
-        <v>1158</v>
+      <c r="A67" s="8" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="9" t="s">
-        <v>1159</v>
+      <c r="A68" s="8" t="s">
+        <v>1041</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
-        <v>1160</v>
+      <c r="A69" s="8" t="s">
+        <v>1042</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="9" t="s">
-        <v>1161</v>
+      <c r="A70" s="8" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="9" t="s">
-        <v>1162</v>
+      <c r="A71" s="8" t="s">
+        <v>1044</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="9" t="s">
-        <v>1163</v>
+      <c r="A72" s="8" t="s">
+        <v>1045</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="9" t="s">
-        <v>1164</v>
+      <c r="A73" s="8" t="s">
+        <v>1046</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="9" t="s">
-        <v>1165</v>
+      <c r="A74" s="8" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="9" t="s">
-        <v>1166</v>
+      <c r="A75" s="8" t="s">
+        <v>1048</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="9" t="s">
-        <v>1167</v>
+      <c r="A76" s="8" t="s">
+        <v>1049</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="9" t="s">
-        <v>1168</v>
+      <c r="A77" s="8" t="s">
+        <v>1050</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="9" t="s">
-        <v>1169</v>
+      <c r="A78" s="8" t="s">
+        <v>1051</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="9" t="s">
-        <v>1170</v>
+      <c r="A79" s="8" t="s">
+        <v>1052</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="9" t="s">
-        <v>1171</v>
+      <c r="A80" s="8" t="s">
+        <v>1053</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="9" t="s">
-        <v>1172</v>
+      <c r="A81" s="8" t="s">
+        <v>1054</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="9" t="s">
-        <v>1173</v>
+      <c r="A82" s="8" t="s">
+        <v>1055</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="9" t="s">
-        <v>1174</v>
+      <c r="A83" s="8" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="9" t="s">
-        <v>1175</v>
+      <c r="A84" s="8" t="s">
+        <v>1057</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="9" t="s">
-        <v>1176</v>
+      <c r="A85" s="8" t="s">
+        <v>1058</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="9" t="s">
-        <v>1177</v>
+      <c r="A86" s="8" t="s">
+        <v>1059</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="9" t="s">
-        <v>1178</v>
+      <c r="A87" s="8" t="s">
+        <v>1060</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="9" t="s">
-        <v>1179</v>
+      <c r="A88" s="8" t="s">
+        <v>1061</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="9" t="s">
-        <v>1180</v>
+      <c r="A89" s="8" t="s">
+        <v>1062</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="9" t="s">
-        <v>1181</v>
+      <c r="A90" s="8" t="s">
+        <v>1063</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="9" t="s">
-        <v>1182</v>
+      <c r="A91" s="8" t="s">
+        <v>1064</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="9" t="s">
-        <v>1183</v>
+      <c r="A92" s="8" t="s">
+        <v>1065</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="9" t="s">
-        <v>1184</v>
+      <c r="A93" s="8" t="s">
+        <v>1066</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="9" t="s">
-        <v>1185</v>
+      <c r="A94" s="8" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="9" t="s">
-        <v>1186</v>
+      <c r="A95" s="8" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="9" t="s">
-        <v>1187</v>
+      <c r="A96" s="8" t="s">
+        <v>1069</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="9" t="s">
-        <v>1188</v>
+      <c r="A97" s="8" t="s">
+        <v>1070</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="9" t="s">
-        <v>1189</v>
+      <c r="A98" s="8" t="s">
+        <v>1071</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="9" t="s">
-        <v>1190</v>
+      <c r="A99" s="8" t="s">
+        <v>1072</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="9" t="s">
-        <v>1191</v>
+      <c r="A100" s="8" t="s">
+        <v>1073</v>
       </c>
     </row>
   </sheetData>
@@ -9029,305 +9031,308 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{585703A0-3DDC-44D2-BF87-0AC42AF5FD0E}">
   <dimension ref="A1:A59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>874</v>
+      <c r="A1" t="s">
+        <v>1133</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>875</v>
+      <c r="A2" t="s">
+        <v>1134</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>876</v>
+      <c r="A3" t="s">
+        <v>1135</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>877</v>
+      <c r="A4" t="s">
+        <v>1136</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>878</v>
+      <c r="A5" t="s">
+        <v>1137</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>879</v>
+      <c r="A6" t="s">
+        <v>1138</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>880</v>
+      <c r="A7" t="s">
+        <v>1139</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>881</v>
+      <c r="A8" t="s">
+        <v>1140</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>882</v>
+      <c r="A9" t="s">
+        <v>1141</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>883</v>
+      <c r="A10" t="s">
+        <v>1142</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>884</v>
+      <c r="A11" t="s">
+        <v>1143</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>885</v>
+      <c r="A12" t="s">
+        <v>1144</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>886</v>
+      <c r="A13" t="s">
+        <v>1145</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>887</v>
+      <c r="A14" t="s">
+        <v>1146</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>888</v>
+      <c r="A15" t="s">
+        <v>1147</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>889</v>
+      <c r="A16" t="s">
+        <v>1148</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>890</v>
+      <c r="A17" t="s">
+        <v>1149</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>891</v>
+      <c r="A18" t="s">
+        <v>1150</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>892</v>
+      <c r="A19" t="s">
+        <v>1151</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>893</v>
+      <c r="A20" t="s">
+        <v>1152</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>894</v>
+      <c r="A21" t="s">
+        <v>1153</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>895</v>
+      <c r="A22" t="s">
+        <v>1154</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>896</v>
+      <c r="A23" t="s">
+        <v>1155</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>897</v>
+      <c r="A24" t="s">
+        <v>1156</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>898</v>
+      <c r="A25" t="s">
+        <v>1157</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>899</v>
+      <c r="A26" t="s">
+        <v>1158</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>900</v>
+      <c r="A27" t="s">
+        <v>1159</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>901</v>
+      <c r="A28" t="s">
+        <v>1160</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>902</v>
+      <c r="A29" t="s">
+        <v>1161</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>903</v>
+      <c r="A30" t="s">
+        <v>1162</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>904</v>
+      <c r="A31" t="s">
+        <v>1163</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>905</v>
+      <c r="A32" t="s">
+        <v>1164</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>906</v>
+      <c r="A33" t="s">
+        <v>1165</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>907</v>
+      <c r="A34" t="s">
+        <v>1166</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>908</v>
+      <c r="A35" t="s">
+        <v>1167</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>909</v>
+      <c r="A36" t="s">
+        <v>1168</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>910</v>
+      <c r="A37" t="s">
+        <v>1169</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
-        <v>911</v>
+      <c r="A38" t="s">
+        <v>1170</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
-        <v>912</v>
+      <c r="A39" t="s">
+        <v>1171</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
-        <v>913</v>
+      <c r="A40" t="s">
+        <v>1172</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
-        <v>914</v>
+      <c r="A41" t="s">
+        <v>1173</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
-        <v>915</v>
+      <c r="A42" t="s">
+        <v>1174</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
-        <v>916</v>
+      <c r="A43" t="s">
+        <v>1175</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>917</v>
+      <c r="A44" t="s">
+        <v>1176</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>918</v>
+      <c r="A45" t="s">
+        <v>1177</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
-        <v>919</v>
+      <c r="A46" t="s">
+        <v>1178</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
-        <v>920</v>
+      <c r="A47" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
-        <v>921</v>
+      <c r="A48" t="s">
+        <v>1180</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
-        <v>922</v>
+      <c r="A49" t="s">
+        <v>1181</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
-        <v>923</v>
+      <c r="A50" t="s">
+        <v>1182</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
-        <v>924</v>
+      <c r="A51" t="s">
+        <v>1183</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
-        <v>925</v>
+      <c r="A52" t="s">
+        <v>1184</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
-        <v>926</v>
+      <c r="A53" t="s">
+        <v>1185</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
-        <v>927</v>
+      <c r="A54" t="s">
+        <v>1186</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
-        <v>928</v>
+      <c r="A55" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="8" t="s">
-        <v>929</v>
+      <c r="A56" t="s">
+        <v>1188</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
-        <v>930</v>
+      <c r="A57" t="s">
+        <v>1189</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
-        <v>931</v>
+      <c r="A58" t="s">
+        <v>1190</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
-        <v>932</v>
+      <c r="A59" t="s">
+        <v>1191</v>
       </c>
     </row>
   </sheetData>
@@ -9339,305 +9344,305 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82FE6956-99CC-4672-8011-5C0D01D5A669}">
   <dimension ref="A1:A59"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>933</v>
+      <c r="A1" t="s">
+        <v>1074</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>934</v>
+      <c r="A2" t="s">
+        <v>1075</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>935</v>
+      <c r="A3" t="s">
+        <v>1076</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>936</v>
+      <c r="A4" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>937</v>
+      <c r="A5" t="s">
+        <v>1078</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>938</v>
+      <c r="A6" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>939</v>
+      <c r="A7" t="s">
+        <v>1080</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>940</v>
+      <c r="A8" t="s">
+        <v>1081</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>941</v>
+      <c r="A9" t="s">
+        <v>1082</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>942</v>
+      <c r="A10" t="s">
+        <v>1083</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>943</v>
+      <c r="A11" t="s">
+        <v>1084</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>944</v>
+      <c r="A12" t="s">
+        <v>1085</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>945</v>
+      <c r="A13" t="s">
+        <v>1086</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>946</v>
+      <c r="A14" t="s">
+        <v>1087</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>947</v>
+      <c r="A15" t="s">
+        <v>1088</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>948</v>
+      <c r="A16" t="s">
+        <v>1089</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>949</v>
+      <c r="A17" t="s">
+        <v>1090</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>950</v>
+      <c r="A18" t="s">
+        <v>1091</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>951</v>
+      <c r="A19" t="s">
+        <v>1092</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>952</v>
+      <c r="A20" t="s">
+        <v>1093</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>953</v>
+      <c r="A21" t="s">
+        <v>1094</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>954</v>
+      <c r="A22" t="s">
+        <v>1095</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>955</v>
+      <c r="A23" t="s">
+        <v>1096</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>956</v>
+      <c r="A24" t="s">
+        <v>1097</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>957</v>
+      <c r="A25" t="s">
+        <v>1098</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>958</v>
+      <c r="A26" t="s">
+        <v>1099</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>959</v>
+      <c r="A27" t="s">
+        <v>1100</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>960</v>
+      <c r="A28" t="s">
+        <v>1101</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>961</v>
+      <c r="A29" t="s">
+        <v>1102</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>962</v>
+      <c r="A30" t="s">
+        <v>1103</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>963</v>
+      <c r="A31" t="s">
+        <v>1104</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>964</v>
+      <c r="A32" t="s">
+        <v>1105</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>965</v>
+      <c r="A33" t="s">
+        <v>1106</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>966</v>
+      <c r="A34" t="s">
+        <v>1107</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>967</v>
+      <c r="A35" t="s">
+        <v>1108</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>968</v>
+      <c r="A36" t="s">
+        <v>1109</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>969</v>
+      <c r="A37" t="s">
+        <v>1110</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
-        <v>970</v>
+      <c r="A38" t="s">
+        <v>1111</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
-        <v>971</v>
+      <c r="A39" t="s">
+        <v>1112</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
-        <v>972</v>
+      <c r="A40" t="s">
+        <v>1113</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
-        <v>973</v>
+      <c r="A41" t="s">
+        <v>1114</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
-        <v>974</v>
+      <c r="A42" t="s">
+        <v>1115</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
-        <v>975</v>
+      <c r="A43" t="s">
+        <v>1116</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
-        <v>976</v>
+      <c r="A44" t="s">
+        <v>1117</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>977</v>
+      <c r="A45" t="s">
+        <v>1118</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
-        <v>978</v>
+      <c r="A46" t="s">
+        <v>1119</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
-        <v>979</v>
+      <c r="A47" t="s">
+        <v>1120</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
-        <v>980</v>
+      <c r="A48" t="s">
+        <v>1121</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
-        <v>981</v>
+      <c r="A49" t="s">
+        <v>1122</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
-        <v>982</v>
+      <c r="A50" t="s">
+        <v>1123</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
-        <v>983</v>
+      <c r="A51" t="s">
+        <v>1124</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
-        <v>984</v>
+      <c r="A52" t="s">
+        <v>1125</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
-        <v>985</v>
+      <c r="A53" t="s">
+        <v>1126</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
-        <v>986</v>
+      <c r="A54" t="s">
+        <v>1127</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
-        <v>987</v>
+      <c r="A55" t="s">
+        <v>1128</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="8" t="s">
-        <v>988</v>
+      <c r="A56" t="s">
+        <v>1129</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
-        <v>989</v>
+      <c r="A57" t="s">
+        <v>1130</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
-        <v>990</v>
+      <c r="A58" t="s">
+        <v>1131</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
-        <v>991</v>
+      <c r="A59" t="s">
+        <v>1132</v>
       </c>
     </row>
   </sheetData>
@@ -9656,503 +9661,503 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>992</v>
+      <c r="A1" s="8" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>993</v>
+      <c r="A2" s="8" t="s">
+        <v>875</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>994</v>
+      <c r="A3" s="8" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>995</v>
+      <c r="A4" s="8" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>996</v>
+      <c r="A5" s="8" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>997</v>
+      <c r="A6" s="8" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>998</v>
+      <c r="A7" s="8" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>999</v>
+      <c r="A8" s="8" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>1000</v>
+      <c r="A9" s="8" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>1001</v>
+      <c r="A10" s="8" t="s">
+        <v>883</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>1002</v>
+      <c r="A11" s="8" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>1003</v>
+      <c r="A12" s="8" t="s">
+        <v>885</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>1004</v>
+      <c r="A13" s="8" t="s">
+        <v>886</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>1005</v>
+      <c r="A14" s="8" t="s">
+        <v>887</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>1006</v>
+      <c r="A15" s="8" t="s">
+        <v>888</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>1007</v>
+      <c r="A16" s="8" t="s">
+        <v>889</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>1008</v>
+      <c r="A17" s="8" t="s">
+        <v>890</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>1009</v>
+      <c r="A18" s="8" t="s">
+        <v>891</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>1010</v>
+      <c r="A19" s="8" t="s">
+        <v>892</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>1011</v>
+      <c r="A20" s="8" t="s">
+        <v>893</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>1012</v>
+      <c r="A21" s="8" t="s">
+        <v>894</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>1013</v>
+      <c r="A22" s="8" t="s">
+        <v>895</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>1014</v>
+      <c r="A23" s="8" t="s">
+        <v>896</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>1015</v>
+      <c r="A24" s="8" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>1016</v>
+      <c r="A25" s="8" t="s">
+        <v>898</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>1017</v>
+      <c r="A26" s="8" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>1018</v>
+      <c r="A27" s="8" t="s">
+        <v>900</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>1019</v>
+      <c r="A28" s="8" t="s">
+        <v>901</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>1020</v>
+      <c r="A29" s="8" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>1021</v>
+      <c r="A30" s="8" t="s">
+        <v>903</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>1022</v>
+      <c r="A31" s="8" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>1023</v>
+      <c r="A32" s="8" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>1024</v>
+      <c r="A33" s="8" t="s">
+        <v>906</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>1025</v>
+      <c r="A34" s="8" t="s">
+        <v>907</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
-        <v>1026</v>
+      <c r="A35" s="8" t="s">
+        <v>908</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
-        <v>1027</v>
+      <c r="A36" s="8" t="s">
+        <v>909</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
-        <v>1028</v>
+      <c r="A37" s="8" t="s">
+        <v>910</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
-        <v>1029</v>
+      <c r="A38" s="8" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
-        <v>1030</v>
+      <c r="A39" s="8" t="s">
+        <v>912</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
-        <v>1031</v>
+      <c r="A40" s="8" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
-        <v>1032</v>
+      <c r="A41" s="8" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
-        <v>1033</v>
+      <c r="A42" s="8" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
-        <v>1034</v>
+      <c r="A43" s="8" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
-        <v>1035</v>
+      <c r="A44" s="8" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
-        <v>1036</v>
+      <c r="A45" s="8" t="s">
+        <v>918</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
-        <v>1037</v>
+      <c r="A46" s="8" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
-        <v>1038</v>
+      <c r="A47" s="8" t="s">
+        <v>920</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
-        <v>1039</v>
+      <c r="A48" s="8" t="s">
+        <v>921</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
-        <v>1040</v>
+      <c r="A49" s="8" t="s">
+        <v>922</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
-        <v>1041</v>
+      <c r="A50" s="8" t="s">
+        <v>923</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
-        <v>1042</v>
+      <c r="A51" s="8" t="s">
+        <v>924</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
-        <v>1043</v>
+      <c r="A52" s="8" t="s">
+        <v>925</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
-        <v>1044</v>
+      <c r="A53" s="8" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
-        <v>1045</v>
+      <c r="A54" s="8" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
-        <v>1046</v>
+      <c r="A55" s="8" t="s">
+        <v>928</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
-        <v>1047</v>
+      <c r="A56" s="8" t="s">
+        <v>929</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
-        <v>1048</v>
+      <c r="A57" s="8" t="s">
+        <v>930</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
-        <v>1049</v>
+      <c r="A58" s="8" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
-        <v>1050</v>
+      <c r="A59" s="8" t="s">
+        <v>932</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="9" t="s">
-        <v>1051</v>
+      <c r="A60" s="8" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
-        <v>1052</v>
+      <c r="A61" s="8" t="s">
+        <v>934</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
-        <v>1053</v>
+      <c r="A62" s="8" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="9" t="s">
-        <v>1054</v>
+      <c r="A63" s="8" t="s">
+        <v>936</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="9" t="s">
-        <v>1055</v>
+      <c r="A64" s="8" t="s">
+        <v>937</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="s">
-        <v>1056</v>
+      <c r="A65" s="8" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="9" t="s">
-        <v>1057</v>
+      <c r="A66" s="8" t="s">
+        <v>939</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="9" t="s">
-        <v>1058</v>
+      <c r="A67" s="8" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="9" t="s">
-        <v>1059</v>
+      <c r="A68" s="8" t="s">
+        <v>941</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
-        <v>1060</v>
+      <c r="A69" s="8" t="s">
+        <v>942</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="9" t="s">
-        <v>1061</v>
+      <c r="A70" s="8" t="s">
+        <v>943</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="9" t="s">
-        <v>1062</v>
+      <c r="A71" s="8" t="s">
+        <v>944</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="9" t="s">
-        <v>1063</v>
+      <c r="A72" s="8" t="s">
+        <v>945</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="9" t="s">
-        <v>1064</v>
+      <c r="A73" s="8" t="s">
+        <v>946</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="9" t="s">
-        <v>1065</v>
+      <c r="A74" s="8" t="s">
+        <v>947</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="9" t="s">
-        <v>1066</v>
+      <c r="A75" s="8" t="s">
+        <v>948</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="9" t="s">
-        <v>1067</v>
+      <c r="A76" s="8" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="9" t="s">
-        <v>1068</v>
+      <c r="A77" s="8" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="9" t="s">
-        <v>1069</v>
+      <c r="A78" s="8" t="s">
+        <v>951</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="9" t="s">
-        <v>1070</v>
+      <c r="A79" s="8" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="9" t="s">
-        <v>1071</v>
+      <c r="A80" s="8" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="9" t="s">
-        <v>1072</v>
+      <c r="A81" s="8" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="9" t="s">
-        <v>1073</v>
+      <c r="A82" s="8" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="9" t="s">
-        <v>1074</v>
+      <c r="A83" s="8" t="s">
+        <v>956</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="9" t="s">
-        <v>1075</v>
+      <c r="A84" s="8" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="9" t="s">
-        <v>1076</v>
+      <c r="A85" s="8" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="9" t="s">
-        <v>1077</v>
+      <c r="A86" s="8" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="9" t="s">
-        <v>1078</v>
+      <c r="A87" s="8" t="s">
+        <v>960</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="9" t="s">
-        <v>1079</v>
+      <c r="A88" s="8" t="s">
+        <v>961</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="9" t="s">
-        <v>1080</v>
+      <c r="A89" s="8" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="9" t="s">
-        <v>1081</v>
+      <c r="A90" s="8" t="s">
+        <v>963</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="9" t="s">
-        <v>1082</v>
+      <c r="A91" s="8" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="9" t="s">
-        <v>1083</v>
+      <c r="A92" s="8" t="s">
+        <v>965</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="9" t="s">
-        <v>1084</v>
+      <c r="A93" s="8" t="s">
+        <v>966</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="9" t="s">
-        <v>1085</v>
+      <c r="A94" s="8" t="s">
+        <v>967</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="9" t="s">
-        <v>1086</v>
+      <c r="A95" s="8" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="9" t="s">
-        <v>1087</v>
+      <c r="A96" s="8" t="s">
+        <v>969</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="9" t="s">
-        <v>1088</v>
+      <c r="A97" s="8" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="9" t="s">
-        <v>1089</v>
+      <c r="A98" s="8" t="s">
+        <v>971</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="9" t="s">
-        <v>1090</v>
+      <c r="A99" s="8" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="9" t="s">
-        <v>1091</v>
+      <c r="A100" s="8" t="s">
+        <v>973</v>
       </c>
     </row>
   </sheetData>

--- a/mapping_file_creator/2023_primer_sets.xlsx
+++ b/mapping_file_creator/2023_primer_sets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://joinnioz-my.sharepoint.com/personal/maartje_brouwer_nioz_nl/Documents/Documenten/GitHub/molecular_tools/mapping_file_creator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{C6AF72BB-625C-4B69-9230-F2B46AEF5449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77611D52-2134-46C2-A37E-FCDC03DC490F}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{C6AF72BB-625C-4B69-9230-F2B46AEF5449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB598D6A-9EAA-4035-AC95-D29F49496EE6}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="2" activeTab="6" xr2:uid="{B4BA240D-4364-4E6B-832C-6ED414D244A6}"/>
+    <workbookView xWindow="-16320" yWindow="-6525" windowWidth="16440" windowHeight="28320" firstSheet="3" activeTab="9" xr2:uid="{B4BA240D-4364-4E6B-832C-6ED414D244A6}"/>
   </bookViews>
   <sheets>
     <sheet name="515F" sheetId="1" r:id="rId1"/>
@@ -2669,156 +2669,6 @@
     <t>926RBC_Golay9200</t>
   </si>
   <si>
-    <t>LCO_1490_5T.Golay1</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay3</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay5</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay7</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay9</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay11</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay13</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay15</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay17</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay19</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay21</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay23</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay25</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay27</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay29</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay31</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay33</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay35</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay37</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay39</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay41</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay43</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay45</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay47</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay49</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay51</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay53</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay55</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay57</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay59</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay61</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay63</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay65</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay67</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay69</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay71</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay73</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay75</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay77</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay79</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay81</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay83</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay85</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay87</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay89</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay91</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay93</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay95</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay97</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay99</t>
-  </si>
-  <si>
     <t>LCO_1490_5T.Golay101</t>
   </si>
   <si>
@@ -2969,153 +2819,6 @@
     <t>LCO_1490_5T.Golay199</t>
   </si>
   <si>
-    <t>HCO_1777_15T.Golay2</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay4</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay6</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay8</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay10</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay12</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay14</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay16</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay18</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay20</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay22</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay24</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay26</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay28</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay30</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay32</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay34</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay36</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay38</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay40</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay42</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay44</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay46</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay48</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay50</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay52</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay54</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay56</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay58</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay60</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay62</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay64</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay66</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay68</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay70</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay72</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay74</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay76</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay78</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay80</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay82</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay84</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay86</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay88</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay90</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay92</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay94</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay96</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay98</t>
-  </si>
-  <si>
     <t>HCO_1777_15T.Golay100</t>
   </si>
   <si>
@@ -3621,6 +3324,303 @@
   </si>
   <si>
     <t>12S_F1a_Golay117</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay001</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay003</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay005</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay007</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay009</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay011</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay013</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay015</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay017</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay019</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay021</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay023</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay025</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay027</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay029</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay031</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay033</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay035</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay037</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay039</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay041</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay043</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay045</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay047</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay049</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay051</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay053</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay055</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay057</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay059</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay061</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay063</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay065</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay067</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay069</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay071</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay073</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay075</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay077</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay079</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay081</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay083</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay085</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay087</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay089</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay091</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay093</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay095</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay097</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T.Golay099</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay002</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay004</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay006</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay008</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay010</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay012</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay014</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay016</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay018</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay020</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay022</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay024</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay026</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay028</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay030</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay032</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay034</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay036</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay038</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay040</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay042</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay044</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay046</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay048</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay050</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay052</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay054</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay056</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay058</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay060</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay062</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay064</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay066</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay068</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay070</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay072</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay074</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay076</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay078</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay080</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay082</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay084</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay086</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay088</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay090</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay092</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay094</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay096</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T.Golay098</t>
   </si>
 </sst>
 </file>
@@ -5181,510 +5181,513 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E288A0-433F-455A-BEEA-9B6096EDB2EA}">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>974</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>975</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>976</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>977</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>978</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>979</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>980</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>981</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>982</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>983</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>984</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>985</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>986</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>987</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>988</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>989</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>990</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>991</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>992</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>993</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>994</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>995</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>996</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>997</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>998</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>999</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>1000</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>1001</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>1002</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>1003</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>1004</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>1005</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>1006</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>1007</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>1008</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>1009</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>1010</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>1011</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>1012</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>1013</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>1014</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>1015</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>1016</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>1017</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>1018</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>1019</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>1020</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>1021</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>1022</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>1023</v>
+        <v>924</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>1024</v>
+        <v>925</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>1025</v>
+        <v>926</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>1026</v>
+        <v>927</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>1027</v>
+        <v>928</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>1028</v>
+        <v>929</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>1029</v>
+        <v>930</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>1030</v>
+        <v>931</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>1031</v>
+        <v>932</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>1032</v>
+        <v>933</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>1033</v>
+        <v>934</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>1034</v>
+        <v>935</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>1035</v>
+        <v>936</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>1036</v>
+        <v>937</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>1037</v>
+        <v>938</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>1038</v>
+        <v>939</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>1039</v>
+        <v>940</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>1040</v>
+        <v>941</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>1041</v>
+        <v>942</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>1042</v>
+        <v>943</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>1043</v>
+        <v>944</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>1044</v>
+        <v>945</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>1045</v>
+        <v>946</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>1046</v>
+        <v>947</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>1047</v>
+        <v>948</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>1048</v>
+        <v>949</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
-        <v>1049</v>
+        <v>950</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>1050</v>
+        <v>951</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
-        <v>1051</v>
+        <v>952</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>1052</v>
+        <v>953</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>1053</v>
+        <v>954</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>1054</v>
+        <v>955</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
-        <v>1055</v>
+        <v>956</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
-        <v>1056</v>
+        <v>957</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
-        <v>1057</v>
+        <v>958</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
-        <v>1058</v>
+        <v>959</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
-        <v>1059</v>
+        <v>960</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
-        <v>1060</v>
+        <v>961</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
-        <v>1061</v>
+        <v>962</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
-        <v>1062</v>
+        <v>963</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
-        <v>1063</v>
+        <v>964</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
-        <v>1064</v>
+        <v>965</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
-        <v>1065</v>
+        <v>966</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
-        <v>1066</v>
+        <v>967</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
-        <v>1067</v>
+        <v>968</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
-        <v>1068</v>
+        <v>969</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
-        <v>1069</v>
+        <v>970</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
-        <v>1070</v>
+        <v>971</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
-        <v>1071</v>
+        <v>972</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
-        <v>1072</v>
+        <v>973</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
-        <v>1073</v>
+        <v>974</v>
       </c>
     </row>
   </sheetData>
@@ -9031,8 +9034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{585703A0-3DDC-44D2-BF87-0AC42AF5FD0E}">
   <dimension ref="A1:A59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9042,297 +9045,297 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1133</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1134</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1135</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1136</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1137</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1138</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1139</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1140</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1141</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1142</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1143</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1144</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1145</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1146</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1147</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1148</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1149</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1150</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1151</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1152</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1153</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1154</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1155</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1156</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1157</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1158</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1159</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1160</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1161</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1162</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1163</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1164</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1165</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1166</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1167</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1168</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1169</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1170</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1171</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1172</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1173</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1174</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1175</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1176</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1177</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1178</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1179</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1180</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1181</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1182</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1183</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1184</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1185</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1186</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1187</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1188</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1189</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1190</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1191</v>
+        <v>1092</v>
       </c>
     </row>
   </sheetData>
@@ -9344,305 +9347,305 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82FE6956-99CC-4672-8011-5C0D01D5A669}">
   <dimension ref="A1:A59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A59"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1074</v>
+        <v>975</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1075</v>
+        <v>976</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1076</v>
+        <v>977</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1077</v>
+        <v>978</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1078</v>
+        <v>979</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1079</v>
+        <v>980</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1080</v>
+        <v>981</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1081</v>
+        <v>982</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1082</v>
+        <v>983</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1083</v>
+        <v>984</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1084</v>
+        <v>985</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1085</v>
+        <v>986</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1086</v>
+        <v>987</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1087</v>
+        <v>988</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1088</v>
+        <v>989</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1089</v>
+        <v>990</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1090</v>
+        <v>991</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1091</v>
+        <v>992</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1092</v>
+        <v>993</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1093</v>
+        <v>994</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1094</v>
+        <v>995</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1095</v>
+        <v>996</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1096</v>
+        <v>997</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1097</v>
+        <v>998</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1098</v>
+        <v>999</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1099</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1100</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1101</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1102</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1103</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1104</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1105</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1106</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1107</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1108</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1109</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1110</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1111</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1112</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1113</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1114</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1115</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1116</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1117</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1118</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1119</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1120</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1121</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1122</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1123</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1124</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1125</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1126</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1127</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1128</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1129</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1130</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1131</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1132</v>
+        <v>1033</v>
       </c>
     </row>
   </sheetData>
@@ -9655,509 +9658,512 @@
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A100"/>
+      <selection activeCell="A90" sqref="A1:A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>874</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>875</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>876</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>877</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>878</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>879</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>880</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>881</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>882</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>883</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>884</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>885</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>886</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>887</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>888</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>889</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>890</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>891</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>892</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>893</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>894</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>895</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>896</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>897</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>898</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>899</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>900</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>901</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>902</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>903</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>904</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>905</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>906</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>907</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>908</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>909</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>910</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>911</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>912</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>913</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>914</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>915</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>916</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>917</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>918</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>919</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>920</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>921</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>922</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>923</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>924</v>
+        <v>874</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>925</v>
+        <v>875</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>926</v>
+        <v>876</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>927</v>
+        <v>877</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>928</v>
+        <v>878</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>929</v>
+        <v>879</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>930</v>
+        <v>880</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>931</v>
+        <v>881</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>932</v>
+        <v>882</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>933</v>
+        <v>883</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>934</v>
+        <v>884</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>935</v>
+        <v>885</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>936</v>
+        <v>886</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>937</v>
+        <v>887</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>938</v>
+        <v>888</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>939</v>
+        <v>889</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>940</v>
+        <v>890</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>941</v>
+        <v>891</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>942</v>
+        <v>892</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>943</v>
+        <v>893</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>944</v>
+        <v>894</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>945</v>
+        <v>895</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>946</v>
+        <v>896</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>947</v>
+        <v>897</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>948</v>
+        <v>898</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
-        <v>949</v>
+        <v>899</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>950</v>
+        <v>900</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
-        <v>951</v>
+        <v>901</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>952</v>
+        <v>902</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>953</v>
+        <v>903</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>954</v>
+        <v>904</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
-        <v>955</v>
+        <v>905</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
-        <v>956</v>
+        <v>906</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
-        <v>957</v>
+        <v>907</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
-        <v>958</v>
+        <v>908</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
-        <v>959</v>
+        <v>909</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
-        <v>960</v>
+        <v>910</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
-        <v>961</v>
+        <v>911</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
-        <v>962</v>
+        <v>912</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
-        <v>963</v>
+        <v>913</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
-        <v>964</v>
+        <v>914</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
-        <v>965</v>
+        <v>915</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
-        <v>966</v>
+        <v>916</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
-        <v>967</v>
+        <v>917</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
-        <v>968</v>
+        <v>918</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
-        <v>969</v>
+        <v>919</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
-        <v>970</v>
+        <v>920</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
-        <v>971</v>
+        <v>921</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
-        <v>972</v>
+        <v>922</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
-        <v>973</v>
+        <v>923</v>
       </c>
     </row>
   </sheetData>

--- a/mapping_file_creator/2023_primer_sets.xlsx
+++ b/mapping_file_creator/2023_primer_sets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://joinnioz-my.sharepoint.com/personal/maartje_brouwer_nioz_nl/Documents/Documenten/GitHub/molecular_tools/mapping_file_creator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{C6AF72BB-625C-4B69-9230-F2B46AEF5449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB598D6A-9EAA-4035-AC95-D29F49496EE6}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{C6AF72BB-625C-4B69-9230-F2B46AEF5449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9468BFDB-4828-49D7-925D-DE608E836A2A}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-6525" windowWidth="16440" windowHeight="28320" firstSheet="3" activeTab="9" xr2:uid="{B4BA240D-4364-4E6B-832C-6ED414D244A6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="9" xr2:uid="{B4BA240D-4364-4E6B-832C-6ED414D244A6}"/>
   </bookViews>
   <sheets>
     <sheet name="515F" sheetId="1" r:id="rId1"/>
@@ -2669,309 +2669,6 @@
     <t>926RBC_Golay9200</t>
   </si>
   <si>
-    <t>LCO_1490_5T.Golay101</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay103</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay105</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay107</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay109</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay111</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay113</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay115</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay117</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay119</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay121</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay123</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay125</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay127</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay129</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay131</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay133</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay135</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay137</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay139</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay141</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay143</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay145</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay147</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay149</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay151</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay153</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay155</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay157</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay159</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay161</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay163</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay165</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay167</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay169</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay171</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay173</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay175</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay177</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay179</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay181</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay183</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay185</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay187</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay189</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay191</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay193</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay195</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay197</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay199</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay100</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay102</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay104</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay106</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay108</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay110</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay112</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay114</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay116</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay118</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay120</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay122</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay124</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay126</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay128</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay130</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay132</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay134</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay136</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay138</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay140</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay142</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay144</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay146</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay148</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay150</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay152</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay154</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay156</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay158</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay160</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay162</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay164</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay166</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay168</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay170</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay172</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay174</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay176</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay178</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay180</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay182</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay184</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay186</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay188</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay190</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay192</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay194</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay196</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay198</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay200</t>
-  </si>
-  <si>
     <t>12S_R1_Golay002</t>
   </si>
   <si>
@@ -3326,301 +3023,604 @@
     <t>12S_F1a_Golay117</t>
   </si>
   <si>
-    <t>LCO_1490_5T.Golay001</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay003</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay005</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay007</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay009</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay011</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay013</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay015</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay017</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay019</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay021</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay023</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay025</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay027</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay029</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay031</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay033</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay035</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay037</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay039</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay041</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay043</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay045</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay047</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay049</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay051</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay053</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay055</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay057</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay059</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay061</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay063</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay065</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay067</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay069</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay071</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay073</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay075</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay077</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay079</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay081</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay083</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay085</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay087</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay089</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay091</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay093</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay095</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay097</t>
-  </si>
-  <si>
-    <t>LCO_1490_5T.Golay099</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay002</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay004</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay006</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay008</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay010</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay012</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay014</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay016</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay018</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay020</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay022</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay024</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay026</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay028</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay030</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay032</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay034</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay036</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay038</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay040</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay042</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay044</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay046</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay048</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay050</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay052</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay054</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay056</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay058</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay060</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay062</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay064</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay066</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay068</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay070</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay072</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay074</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay076</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay078</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay080</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay082</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay084</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay086</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay088</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay090</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay092</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay094</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay096</t>
-  </si>
-  <si>
-    <t>HCO_1777_15T.Golay098</t>
+    <t>LCO_1490_5T_Golay001</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay003</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay005</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay007</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay009</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay011</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay013</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay015</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay017</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay019</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay021</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay023</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay025</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay027</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay029</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay031</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay033</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay035</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay037</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay039</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay041</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay043</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay045</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay047</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay049</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay051</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay053</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay055</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay057</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay059</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay061</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay063</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay065</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay067</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay069</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay071</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay073</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay075</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay077</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay079</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay081</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay083</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay085</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay087</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay089</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay091</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay093</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay095</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay097</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay099</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay101</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay103</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay105</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay107</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay109</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay111</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay113</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay115</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay117</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay119</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay121</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay123</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay125</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay127</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay129</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay131</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay133</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay135</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay137</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay139</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay141</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay143</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay145</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay147</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay149</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay151</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay153</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay155</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay157</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay159</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay161</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay163</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay165</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay167</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay169</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay171</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay173</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay175</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay177</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay179</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay181</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay183</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay185</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay187</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay189</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay191</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay193</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay195</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay197</t>
+  </si>
+  <si>
+    <t>LCO_1490_5T_Golay199</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay002</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay004</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay006</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay008</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay010</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay012</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay014</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay016</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay018</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay020</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay022</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay024</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay026</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay028</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay030</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay032</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay034</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay036</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay038</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay040</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay042</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay044</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay046</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay048</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay050</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay052</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay054</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay056</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay058</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay060</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay062</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay064</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay066</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay068</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay070</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay072</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay074</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay076</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay078</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay080</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay082</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay084</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay086</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay088</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay090</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay092</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay094</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay096</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay098</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay100</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay102</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay104</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay106</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay108</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay110</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay112</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay114</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay116</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay118</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay120</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay122</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay124</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay126</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay128</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay130</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay132</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay134</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay136</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay138</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay140</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay142</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay144</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay146</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay148</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay150</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay152</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay154</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay156</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay158</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay160</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay162</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay164</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay166</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay168</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay170</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay172</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay174</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay176</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay178</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay180</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay182</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay184</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay186</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay188</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay190</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay192</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay194</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay196</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay198</t>
+  </si>
+  <si>
+    <t>HCO_1777_15T_Golay200</t>
   </si>
 </sst>
 </file>
@@ -5181,8 +5181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E288A0-433F-455A-BEEA-9B6096EDB2EA}">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5192,502 +5192,502 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>1143</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>1144</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>1145</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>1146</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>1147</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>1148</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>1149</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>1150</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>1151</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>1152</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>1153</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>1154</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>1155</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>1156</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>1157</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>1158</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>1159</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>1160</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>1161</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>1162</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>1163</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>1164</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>1165</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>1166</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>1167</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>1168</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>1169</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>1170</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>1171</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>1172</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>1173</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>1174</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>1175</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>1176</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>1177</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>1178</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>1179</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>1180</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>1181</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>1182</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>1183</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>1184</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>1185</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>1186</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>1187</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>1188</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>1189</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>1190</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>1191</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>924</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>925</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>926</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>927</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>928</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>929</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>930</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>931</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>932</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>933</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>934</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>935</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>936</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>937</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>938</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>939</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>940</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>941</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>942</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>943</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>944</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>945</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>946</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>947</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>948</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>949</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
-        <v>950</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>951</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
-        <v>952</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>953</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>954</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>955</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
-        <v>956</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
-        <v>957</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
-        <v>958</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
-        <v>959</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
-        <v>960</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
-        <v>961</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
-        <v>962</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
-        <v>963</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
-        <v>964</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
-        <v>965</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
-        <v>966</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
-        <v>967</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
-        <v>968</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
-        <v>969</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
-        <v>970</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
-        <v>971</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
-        <v>972</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
-        <v>973</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
-        <v>974</v>
+        <v>1191</v>
       </c>
     </row>
   </sheetData>
@@ -9045,297 +9045,297 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1034</v>
+        <v>933</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1035</v>
+        <v>934</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1036</v>
+        <v>935</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1037</v>
+        <v>936</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1038</v>
+        <v>937</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1039</v>
+        <v>938</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1040</v>
+        <v>939</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1041</v>
+        <v>940</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1042</v>
+        <v>941</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1043</v>
+        <v>942</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1044</v>
+        <v>943</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1045</v>
+        <v>944</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1046</v>
+        <v>945</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1047</v>
+        <v>946</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1048</v>
+        <v>947</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1049</v>
+        <v>948</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1050</v>
+        <v>949</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1051</v>
+        <v>950</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1052</v>
+        <v>951</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1053</v>
+        <v>952</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1054</v>
+        <v>953</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1055</v>
+        <v>954</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1056</v>
+        <v>955</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1057</v>
+        <v>956</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1058</v>
+        <v>957</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1059</v>
+        <v>958</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1060</v>
+        <v>959</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1061</v>
+        <v>960</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1062</v>
+        <v>961</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1063</v>
+        <v>962</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1064</v>
+        <v>963</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1065</v>
+        <v>964</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1066</v>
+        <v>965</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1067</v>
+        <v>966</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1068</v>
+        <v>967</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1069</v>
+        <v>968</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1070</v>
+        <v>969</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1071</v>
+        <v>970</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1072</v>
+        <v>971</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1073</v>
+        <v>972</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1074</v>
+        <v>973</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1075</v>
+        <v>974</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1076</v>
+        <v>975</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1077</v>
+        <v>976</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1078</v>
+        <v>977</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1079</v>
+        <v>978</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1080</v>
+        <v>979</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1081</v>
+        <v>980</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1082</v>
+        <v>981</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1083</v>
+        <v>982</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1084</v>
+        <v>983</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1085</v>
+        <v>984</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1086</v>
+        <v>985</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1087</v>
+        <v>986</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1088</v>
+        <v>987</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1089</v>
+        <v>988</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1090</v>
+        <v>989</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1091</v>
+        <v>990</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1092</v>
+        <v>991</v>
       </c>
     </row>
   </sheetData>
@@ -9355,297 +9355,297 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>975</v>
+        <v>874</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>976</v>
+        <v>875</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>977</v>
+        <v>876</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>978</v>
+        <v>877</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>979</v>
+        <v>878</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>980</v>
+        <v>879</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>981</v>
+        <v>880</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>982</v>
+        <v>881</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>983</v>
+        <v>882</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>984</v>
+        <v>883</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>985</v>
+        <v>884</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>986</v>
+        <v>885</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>987</v>
+        <v>886</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>988</v>
+        <v>887</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>989</v>
+        <v>888</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>990</v>
+        <v>889</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>991</v>
+        <v>890</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>992</v>
+        <v>891</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>993</v>
+        <v>892</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>994</v>
+        <v>893</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>995</v>
+        <v>894</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>996</v>
+        <v>895</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>997</v>
+        <v>896</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>998</v>
+        <v>897</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>999</v>
+        <v>898</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1000</v>
+        <v>899</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1001</v>
+        <v>900</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1002</v>
+        <v>901</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1003</v>
+        <v>902</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1004</v>
+        <v>903</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1005</v>
+        <v>904</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1006</v>
+        <v>905</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1007</v>
+        <v>906</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1008</v>
+        <v>907</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1009</v>
+        <v>908</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1010</v>
+        <v>909</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1011</v>
+        <v>910</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1012</v>
+        <v>911</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1013</v>
+        <v>912</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1014</v>
+        <v>913</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1015</v>
+        <v>914</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1016</v>
+        <v>915</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1017</v>
+        <v>916</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1018</v>
+        <v>917</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1019</v>
+        <v>918</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1020</v>
+        <v>919</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1021</v>
+        <v>920</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1022</v>
+        <v>921</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1023</v>
+        <v>922</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1024</v>
+        <v>923</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1025</v>
+        <v>924</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1026</v>
+        <v>925</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1027</v>
+        <v>926</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1028</v>
+        <v>927</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1029</v>
+        <v>928</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1030</v>
+        <v>929</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1031</v>
+        <v>930</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1032</v>
+        <v>931</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1033</v>
+        <v>932</v>
       </c>
     </row>
   </sheetData>
@@ -9658,7 +9658,7 @@
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A90" sqref="A1:A90"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9668,502 +9668,502 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>1093</v>
+        <v>992</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>1094</v>
+        <v>993</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>1095</v>
+        <v>994</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>1096</v>
+        <v>995</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>1097</v>
+        <v>996</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>1098</v>
+        <v>997</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>1099</v>
+        <v>998</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>1100</v>
+        <v>999</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>1101</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>1102</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>1103</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>1104</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>1105</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>1106</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>1107</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>1108</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>1109</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>1110</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>1111</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>1112</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>1113</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>1114</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>1115</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>1116</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>1117</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>1118</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>1119</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>1120</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>1121</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>1122</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>1123</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>1124</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>1125</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>1126</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>1127</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>1128</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>1129</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>1130</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>1131</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>1132</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>1133</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>1134</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>1135</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>1136</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>1137</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>1138</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>1139</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>1140</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>1141</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>1142</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>874</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>875</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>876</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>877</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>878</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>879</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>880</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>881</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>882</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>883</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>884</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>885</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>886</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>887</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>888</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>889</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>890</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>891</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>892</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>893</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>894</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>895</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>896</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>897</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>898</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
-        <v>899</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>900</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
-        <v>901</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>902</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>903</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>904</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
-        <v>905</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
-        <v>906</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
-        <v>907</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
-        <v>908</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
-        <v>909</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
-        <v>910</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
-        <v>911</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
-        <v>912</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
-        <v>913</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
-        <v>914</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
-        <v>915</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
-        <v>916</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
-        <v>917</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
-        <v>918</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
-        <v>919</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
-        <v>920</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
-        <v>921</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
-        <v>922</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
-        <v>923</v>
+        <v>1091</v>
       </c>
     </row>
   </sheetData>

--- a/mapping_file_creator/2023_primer_sets.xlsx
+++ b/mapping_file_creator/2023_primer_sets.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{C6AF72BB-625C-4B69-9230-F2B46AEF5449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9468BFDB-4828-49D7-925D-DE608E836A2A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="9" xr2:uid="{B4BA240D-4364-4E6B-832C-6ED414D244A6}"/>
+    <workbookView xWindow="-16320" yWindow="-6525" windowWidth="16440" windowHeight="28320" firstSheet="3" activeTab="9" xr2:uid="{B4BA240D-4364-4E6B-832C-6ED414D244A6}"/>
   </bookViews>
   <sheets>
     <sheet name="515F" sheetId="1" r:id="rId1"/>
@@ -3715,10 +3715,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5182,7 +5178,7 @@
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection sqref="A1:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9658,7 +9654,7 @@
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection sqref="A1:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/mapping_file_creator/2023_primer_sets.xlsx
+++ b/mapping_file_creator/2023_primer_sets.xlsx
@@ -1,28 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://joinnioz-my.sharepoint.com/personal/maartje_brouwer_nioz_nl/Documents/Documenten/GitHub/molecular_tools/mapping_file_creator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{C6AF72BB-625C-4B69-9230-F2B46AEF5449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9468BFDB-4828-49D7-925D-DE608E836A2A}"/>
+  <xr:revisionPtr revIDLastSave="423" documentId="13_ncr:1_{C6AF72BB-625C-4B69-9230-F2B46AEF5449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7711C73D-C61A-4C03-BC24-DCDC3CFC04E0}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-6525" windowWidth="16440" windowHeight="28320" firstSheet="3" activeTab="9" xr2:uid="{B4BA240D-4364-4E6B-832C-6ED414D244A6}"/>
+    <workbookView xWindow="60" yWindow="16080" windowWidth="20760" windowHeight="13200" xr2:uid="{B4BA240D-4364-4E6B-832C-6ED414D244A6}"/>
   </bookViews>
   <sheets>
-    <sheet name="515F" sheetId="1" r:id="rId1"/>
-    <sheet name="926R" sheetId="2" r:id="rId2"/>
-    <sheet name="806RB" sheetId="3" r:id="rId3"/>
-    <sheet name="951R" sheetId="6" r:id="rId4"/>
-    <sheet name="F04" sheetId="4" r:id="rId5"/>
-    <sheet name="R22" sheetId="5" r:id="rId6"/>
-    <sheet name="12S_F1a" sheetId="7" r:id="rId7"/>
-    <sheet name="12S_R1" sheetId="8" r:id="rId8"/>
-    <sheet name="LCO" sheetId="9" r:id="rId9"/>
-    <sheet name="HCO" sheetId="10" r:id="rId10"/>
+    <sheet name="Do not use these barcodes" sheetId="11" r:id="rId1"/>
+    <sheet name="M13F" sheetId="12" r:id="rId2"/>
+    <sheet name="M13R" sheetId="13" r:id="rId3"/>
+    <sheet name="515F" sheetId="1" r:id="rId4"/>
+    <sheet name="926R" sheetId="2" r:id="rId5"/>
+    <sheet name="806RB" sheetId="3" r:id="rId6"/>
+    <sheet name="951R" sheetId="6" r:id="rId7"/>
+    <sheet name="F04" sheetId="4" r:id="rId8"/>
+    <sheet name="R22" sheetId="5" r:id="rId9"/>
+    <sheet name="12S_F1a" sheetId="7" r:id="rId10"/>
+    <sheet name="12S_R1" sheetId="8" r:id="rId11"/>
+    <sheet name="LCO" sheetId="9" r:id="rId12"/>
+    <sheet name="HCO" sheetId="10" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="1192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="1418">
   <si>
     <t>515F_Golay0257</t>
   </si>
@@ -3621,13 +3624,691 @@
   </si>
   <si>
     <t>HCO_1777_15T_Golay200</t>
+  </si>
+  <si>
+    <t>515rcbc200</t>
+  </si>
+  <si>
+    <t>515rcbc223</t>
+  </si>
+  <si>
+    <t>515rcbc20</t>
+  </si>
+  <si>
+    <t>515rcbc53</t>
+  </si>
+  <si>
+    <t>515rcbc74</t>
+  </si>
+  <si>
+    <t>515rcbc108</t>
+  </si>
+  <si>
+    <t>515rcbc227</t>
+  </si>
+  <si>
+    <t>515rcbc240</t>
+  </si>
+  <si>
+    <t>515rcbc246</t>
+  </si>
+  <si>
+    <t>515rcbc279</t>
+  </si>
+  <si>
+    <t>515rcbc282</t>
+  </si>
+  <si>
+    <t>515rcbc287</t>
+  </si>
+  <si>
+    <t>515rcbc297</t>
+  </si>
+  <si>
+    <t>515rcbc299</t>
+  </si>
+  <si>
+    <t>515rcbc512</t>
+  </si>
+  <si>
+    <t>515rcbc460</t>
+  </si>
+  <si>
+    <t>515rcbc430</t>
+  </si>
+  <si>
+    <t>515rcbc531</t>
+  </si>
+  <si>
+    <t>515rcbc535</t>
+  </si>
+  <si>
+    <t>515rcbc547</t>
+  </si>
+  <si>
+    <t>515rcbc571</t>
+  </si>
+  <si>
+    <t>515rcbc593</t>
+  </si>
+  <si>
+    <t>515rcbc647</t>
+  </si>
+  <si>
+    <t>515rcbc673</t>
+  </si>
+  <si>
+    <t>515rcbc687</t>
+  </si>
+  <si>
+    <t>515rcbc699</t>
+  </si>
+  <si>
+    <t>515rcbc709</t>
+  </si>
+  <si>
+    <t>515rcbc592</t>
+  </si>
+  <si>
+    <t>515rcbc600</t>
+  </si>
+  <si>
+    <t>515rcbc614</t>
+  </si>
+  <si>
+    <t>515rcbc680</t>
+  </si>
+  <si>
+    <t>515rcbc704</t>
+  </si>
+  <si>
+    <t>515rcbc716</t>
+  </si>
+  <si>
+    <t>Do not use these barcodes</t>
+  </si>
+  <si>
+    <t>M13F_Golay028</t>
+  </si>
+  <si>
+    <t>M13F_Golay001</t>
+  </si>
+  <si>
+    <t>M13F_Golay002</t>
+  </si>
+  <si>
+    <t>M13F_Golay003</t>
+  </si>
+  <si>
+    <t>M13F_Golay004</t>
+  </si>
+  <si>
+    <t>M13F_Golay005</t>
+  </si>
+  <si>
+    <t>M13F_Golay006</t>
+  </si>
+  <si>
+    <t>M13F_Golay007</t>
+  </si>
+  <si>
+    <t>M13F_Golay008</t>
+  </si>
+  <si>
+    <t>M13F_Golay009</t>
+  </si>
+  <si>
+    <t>M13F_Golay010</t>
+  </si>
+  <si>
+    <t>M13F_Golay011</t>
+  </si>
+  <si>
+    <t>M13F_Golay012</t>
+  </si>
+  <si>
+    <t>M13F_Golay013</t>
+  </si>
+  <si>
+    <t>M13F_Golay014</t>
+  </si>
+  <si>
+    <t>M13F_Golay015</t>
+  </si>
+  <si>
+    <t>M13F_Golay016</t>
+  </si>
+  <si>
+    <t>M13F_Golay017</t>
+  </si>
+  <si>
+    <t>M13F_Golay018</t>
+  </si>
+  <si>
+    <t>M13F_Golay019</t>
+  </si>
+  <si>
+    <t>M13F_Golay020</t>
+  </si>
+  <si>
+    <t>M13F_Golay021</t>
+  </si>
+  <si>
+    <t>M13F_Golay022</t>
+  </si>
+  <si>
+    <t>M13F_Golay023</t>
+  </si>
+  <si>
+    <t>M13F_Golay024</t>
+  </si>
+  <si>
+    <t>M13F_Golay025</t>
+  </si>
+  <si>
+    <t>M13F_Golay026</t>
+  </si>
+  <si>
+    <t>M13F_Golay027</t>
+  </si>
+  <si>
+    <t>M13F_Golay029</t>
+  </si>
+  <si>
+    <t>M13F_Golay030</t>
+  </si>
+  <si>
+    <t>M13F_Golay031</t>
+  </si>
+  <si>
+    <t>M13F_Golay032</t>
+  </si>
+  <si>
+    <t>M13F_Golay033</t>
+  </si>
+  <si>
+    <t>M13F_Golay034</t>
+  </si>
+  <si>
+    <t>M13F_Golay035</t>
+  </si>
+  <si>
+    <t>M13F_Golay036</t>
+  </si>
+  <si>
+    <t>M13F_Golay037</t>
+  </si>
+  <si>
+    <t>M13F_Golay038</t>
+  </si>
+  <si>
+    <t>M13F_Golay039</t>
+  </si>
+  <si>
+    <t>M13F_Golay040</t>
+  </si>
+  <si>
+    <t>M13F_Golay041</t>
+  </si>
+  <si>
+    <t>M13F_Golay042</t>
+  </si>
+  <si>
+    <t>M13F_Golay043</t>
+  </si>
+  <si>
+    <t>M13F_Golay044</t>
+  </si>
+  <si>
+    <t>M13F_Golay045</t>
+  </si>
+  <si>
+    <t>M13F_Golay046</t>
+  </si>
+  <si>
+    <t>M13F_Golay047</t>
+  </si>
+  <si>
+    <t>M13F_Golay048</t>
+  </si>
+  <si>
+    <t>M13F_Golay049</t>
+  </si>
+  <si>
+    <t>M13F_Golay050</t>
+  </si>
+  <si>
+    <t>M13F_Golay051</t>
+  </si>
+  <si>
+    <t>M13F_Golay052</t>
+  </si>
+  <si>
+    <t>M13F_Golay053</t>
+  </si>
+  <si>
+    <t>M13F_Golay054</t>
+  </si>
+  <si>
+    <t>M13F_Golay055</t>
+  </si>
+  <si>
+    <t>M13F_Golay056</t>
+  </si>
+  <si>
+    <t>M13F_Golay057</t>
+  </si>
+  <si>
+    <t>M13F_Golay058</t>
+  </si>
+  <si>
+    <t>M13F_Golay059</t>
+  </si>
+  <si>
+    <t>M13F_Golay060</t>
+  </si>
+  <si>
+    <t>M13F_Golay061</t>
+  </si>
+  <si>
+    <t>M13F_Golay062</t>
+  </si>
+  <si>
+    <t>M13F_Golay063</t>
+  </si>
+  <si>
+    <t>M13F_Golay064</t>
+  </si>
+  <si>
+    <t>M13F_Golay065</t>
+  </si>
+  <si>
+    <t>M13F_Golay066</t>
+  </si>
+  <si>
+    <t>M13F_Golay067</t>
+  </si>
+  <si>
+    <t>M13F_Golay068</t>
+  </si>
+  <si>
+    <t>M13F_Golay069</t>
+  </si>
+  <si>
+    <t>M13F_Golay070</t>
+  </si>
+  <si>
+    <t>M13F_Golay071</t>
+  </si>
+  <si>
+    <t>M13F_Golay072</t>
+  </si>
+  <si>
+    <t>M13F_Golay073</t>
+  </si>
+  <si>
+    <t>M13F_Golay074</t>
+  </si>
+  <si>
+    <t>M13F_Golay075</t>
+  </si>
+  <si>
+    <t>M13F_Golay076</t>
+  </si>
+  <si>
+    <t>M13F_Golay077</t>
+  </si>
+  <si>
+    <t>M13F_Golay078</t>
+  </si>
+  <si>
+    <t>M13F_Golay079</t>
+  </si>
+  <si>
+    <t>M13F_Golay080</t>
+  </si>
+  <si>
+    <t>M13F_Golay081</t>
+  </si>
+  <si>
+    <t>M13F_Golay082</t>
+  </si>
+  <si>
+    <t>M13F_Golay083</t>
+  </si>
+  <si>
+    <t>M13F_Golay084</t>
+  </si>
+  <si>
+    <t>M13F_Golay085</t>
+  </si>
+  <si>
+    <t>M13F_Golay086</t>
+  </si>
+  <si>
+    <t>M13F_Golay087</t>
+  </si>
+  <si>
+    <t>M13F_Golay088</t>
+  </si>
+  <si>
+    <t>M13F_Golay089</t>
+  </si>
+  <si>
+    <t>M13F_Golay090</t>
+  </si>
+  <si>
+    <t>M13F_Golay091</t>
+  </si>
+  <si>
+    <t>M13F_Golay092</t>
+  </si>
+  <si>
+    <t>M13F_Golay093</t>
+  </si>
+  <si>
+    <t>M13F_Golay094</t>
+  </si>
+  <si>
+    <t>M13F_Golay095</t>
+  </si>
+  <si>
+    <t>M13F_Golay096</t>
+  </si>
+  <si>
+    <t>M13R_Golay901</t>
+  </si>
+  <si>
+    <t>M13R_Golay902</t>
+  </si>
+  <si>
+    <t>M13R_Golay903</t>
+  </si>
+  <si>
+    <t>M13R_Golay904</t>
+  </si>
+  <si>
+    <t>M13R_Golay905</t>
+  </si>
+  <si>
+    <t>M13R_Golay906</t>
+  </si>
+  <si>
+    <t>M13R_Golay907</t>
+  </si>
+  <si>
+    <t>M13R_Golay908</t>
+  </si>
+  <si>
+    <t>M13R_Golay909</t>
+  </si>
+  <si>
+    <t>M13R_Golay910</t>
+  </si>
+  <si>
+    <t>M13R_Golay911</t>
+  </si>
+  <si>
+    <t>M13R_Golay912</t>
+  </si>
+  <si>
+    <t>M13R_Golay913</t>
+  </si>
+  <si>
+    <t>M13R_Golay914</t>
+  </si>
+  <si>
+    <t>M13R_Golay915</t>
+  </si>
+  <si>
+    <t>M13R_Golay916</t>
+  </si>
+  <si>
+    <t>M13R_Golay917</t>
+  </si>
+  <si>
+    <t>M13R_Golay918</t>
+  </si>
+  <si>
+    <t>M13R_Golay919</t>
+  </si>
+  <si>
+    <t>M13R_Golay920</t>
+  </si>
+  <si>
+    <t>M13R_Golay921</t>
+  </si>
+  <si>
+    <t>M13R_Golay922</t>
+  </si>
+  <si>
+    <t>M13R_Golay923</t>
+  </si>
+  <si>
+    <t>M13R_Golay924</t>
+  </si>
+  <si>
+    <t>M13R_Golay925</t>
+  </si>
+  <si>
+    <t>M13R_Golay926</t>
+  </si>
+  <si>
+    <t>M13R_Golay927</t>
+  </si>
+  <si>
+    <t>M13R_Golay928</t>
+  </si>
+  <si>
+    <t>M13R_Golay929</t>
+  </si>
+  <si>
+    <t>M13R_Golay930</t>
+  </si>
+  <si>
+    <t>M13R_Golay931</t>
+  </si>
+  <si>
+    <t>M13R_Golay932</t>
+  </si>
+  <si>
+    <t>M13R_Golay933</t>
+  </si>
+  <si>
+    <t>M13R_Golay934</t>
+  </si>
+  <si>
+    <t>M13R_Golay935</t>
+  </si>
+  <si>
+    <t>M13R_Golay936</t>
+  </si>
+  <si>
+    <t>M13R_Golay937</t>
+  </si>
+  <si>
+    <t>M13R_Golay938</t>
+  </si>
+  <si>
+    <t>M13R_Golay939</t>
+  </si>
+  <si>
+    <t>M13R_Golay940</t>
+  </si>
+  <si>
+    <t>M13R_Golay941</t>
+  </si>
+  <si>
+    <t>M13R_Golay942</t>
+  </si>
+  <si>
+    <t>M13R_Golay943</t>
+  </si>
+  <si>
+    <t>M13R_Golay944</t>
+  </si>
+  <si>
+    <t>M13R_Golay945</t>
+  </si>
+  <si>
+    <t>M13R_Golay946</t>
+  </si>
+  <si>
+    <t>M13R_Golay947</t>
+  </si>
+  <si>
+    <t>M13R_Golay948</t>
+  </si>
+  <si>
+    <t>M13R_Golay949</t>
+  </si>
+  <si>
+    <t>M13R_Golay950</t>
+  </si>
+  <si>
+    <t>M13R_Golay951</t>
+  </si>
+  <si>
+    <t>M13R_Golay952</t>
+  </si>
+  <si>
+    <t>M13R_Golay953</t>
+  </si>
+  <si>
+    <t>M13R_Golay954</t>
+  </si>
+  <si>
+    <t>M13R_Golay955</t>
+  </si>
+  <si>
+    <t>M13R_Golay956</t>
+  </si>
+  <si>
+    <t>M13R_Golay957</t>
+  </si>
+  <si>
+    <t>M13R_Golay958</t>
+  </si>
+  <si>
+    <t>M13R_Golay959</t>
+  </si>
+  <si>
+    <t>M13R_Golay960</t>
+  </si>
+  <si>
+    <t>M13R_Golay961</t>
+  </si>
+  <si>
+    <t>M13R_Golay962</t>
+  </si>
+  <si>
+    <t>M13R_Golay963</t>
+  </si>
+  <si>
+    <t>M13R_Golay964</t>
+  </si>
+  <si>
+    <t>M13R_Golay965</t>
+  </si>
+  <si>
+    <t>M13R_Golay966</t>
+  </si>
+  <si>
+    <t>M13R_Golay967</t>
+  </si>
+  <si>
+    <t>M13R_Golay968</t>
+  </si>
+  <si>
+    <t>M13R_Golay969</t>
+  </si>
+  <si>
+    <t>M13R_Golay970</t>
+  </si>
+  <si>
+    <t>M13R_Golay971</t>
+  </si>
+  <si>
+    <t>M13R_Golay972</t>
+  </si>
+  <si>
+    <t>M13R_Golay973</t>
+  </si>
+  <si>
+    <t>M13R_Golay974</t>
+  </si>
+  <si>
+    <t>M13R_Golay975</t>
+  </si>
+  <si>
+    <t>M13R_Golay976</t>
+  </si>
+  <si>
+    <t>M13R_Golay977</t>
+  </si>
+  <si>
+    <t>M13R_Golay978</t>
+  </si>
+  <si>
+    <t>M13R_Golay979</t>
+  </si>
+  <si>
+    <t>M13R_Golay980</t>
+  </si>
+  <si>
+    <t>M13R_Golay981</t>
+  </si>
+  <si>
+    <t>M13R_Golay982</t>
+  </si>
+  <si>
+    <t>M13R_Golay983</t>
+  </si>
+  <si>
+    <t>M13R_Golay984</t>
+  </si>
+  <si>
+    <t>M13R_Golay985</t>
+  </si>
+  <si>
+    <t>M13R_Golay986</t>
+  </si>
+  <si>
+    <t>M13R_Golay987</t>
+  </si>
+  <si>
+    <t>M13R_Golay988</t>
+  </si>
+  <si>
+    <t>M13R_Golay989</t>
+  </si>
+  <si>
+    <t>M13R_Golay990</t>
+  </si>
+  <si>
+    <t>M13R_Golay991</t>
+  </si>
+  <si>
+    <t>M13R_Golay992</t>
+  </si>
+  <si>
+    <t>M13R_Golay993</t>
+  </si>
+  <si>
+    <t>M13R_Golay994</t>
+  </si>
+  <si>
+    <t>M13R_Golay995</t>
+  </si>
+  <si>
+    <t>M13R_Golay996</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3659,6 +4340,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3683,9 +4370,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3700,9 +4388,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{A9EB43B9-362A-4AEB-B742-526B94F1DF05}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{B11A60B6-B646-4867-A944-865747C5FD8E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4013,1159 +4702,186 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9D52808-D23F-42E0-96C4-7FD50F2C2336}">
-  <dimension ref="A1:A229"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD9A3057-C941-4BFB-A1E1-28B9761B3636}">
+  <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>228</v>
+      <c r="A1" s="1" t="s">
+        <v>1225</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>104</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>105</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>106</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>107</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>108</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>89</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>90</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>91</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>92</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>93</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>94</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>95</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>96</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>97</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>98</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>99</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>100</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>103</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>0</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>109</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>110</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>111</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>112</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>113</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>114</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>115</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>116</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>117</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>118</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>119</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="1" t="s">
-        <v>182</v>
+        <v>1224</v>
       </c>
     </row>
   </sheetData>
@@ -5174,10 +4890,1151 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{585703A0-3DDC-44D2-BF87-0AC42AF5FD0E}">
+  <dimension ref="A1:A59"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>991</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82FE6956-99CC-4672-8011-5C0D01D5A669}">
+  <dimension ref="A1:A59"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>932</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3972E3-C764-4F7C-B243-F7B5A335E4F5}">
+  <dimension ref="A1:A100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="8" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="8" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="8" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="8" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="8" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="8" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="8" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="8" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="8" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="8" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="8" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="8" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="8" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="8" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="8" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="8" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="8" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="8" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="8" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="8" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="8" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="8" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="8" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="8" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="8" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E288A0-433F-455A-BEEA-9B6096EDB2EA}">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A24"/>
     </sheetView>
   </sheetViews>
@@ -5692,16 +6549,2187 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA075C03-1B8D-4264-8483-BC788DBF524B}">
+  <dimension ref="A1:A97"/>
+  <sheetViews>
+    <sheetView topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{827BB0EE-993D-41D6-BD94-807A9C9F1761}">
+  <dimension ref="A1:A97"/>
+  <sheetViews>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9D52808-D23F-42E0-96C4-7FD50F2C2336}">
+  <dimension ref="A1:A229"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{877BBEAB-A1AB-4B40-808F-FC750FE08F59}">
   <dimension ref="A1:A229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -6855,7 +9883,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48FEBC80-A34C-4DC6-93D9-330135E62C29}">
   <dimension ref="A1:A129"/>
   <sheetViews>
@@ -7516,7 +10544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E46386-BA13-4EF4-904F-9E4D9EAEC7F6}">
   <dimension ref="A1:A97"/>
   <sheetViews>
@@ -8020,7 +11048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6266B8C-11FE-408B-BD4A-0C2D15AB0E21}">
   <dimension ref="A1:A97"/>
   <sheetViews>
@@ -8523,7 +11551,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4AABAE1-CEB5-4D9C-ACF3-C0901C1E79F6}">
   <dimension ref="A1:A97"/>
   <sheetViews>
@@ -9024,1145 +12052,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{585703A0-3DDC-44D2-BF87-0AC42AF5FD0E}">
-  <dimension ref="A1:A59"/>
-  <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>991</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82FE6956-99CC-4672-8011-5C0D01D5A669}">
-  <dimension ref="A1:A59"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>932</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3972E3-C764-4F7C-B243-F7B5A335E4F5}">
-  <dimension ref="A1:A100"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="8" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="8" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="8" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="8" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="8" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="8" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="8" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="8" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="8" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="8" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="8" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="8" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="8" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="8" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="8" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="8" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="8" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="8" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="8" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="8" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="8" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="8" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="8" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="8" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="8" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="8" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="8" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="8" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="8" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="8" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="8" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="8" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="8" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="8" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="8" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="8" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="8" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="8" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="8" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/mapping_file_creator/2023_primer_sets.xlsx
+++ b/mapping_file_creator/2023_primer_sets.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="423" documentId="13_ncr:1_{C6AF72BB-625C-4B69-9230-F2B46AEF5449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7711C73D-C61A-4C03-BC24-DCDC3CFC04E0}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="16080" windowWidth="20760" windowHeight="13200" xr2:uid="{B4BA240D-4364-4E6B-832C-6ED414D244A6}"/>
+    <workbookView xWindow="-16320" yWindow="-6525" windowWidth="16440" windowHeight="28320" firstSheet="3" activeTab="8" xr2:uid="{B4BA240D-4364-4E6B-832C-6ED414D244A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Do not use these barcodes" sheetId="11" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="HCO" sheetId="10" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4705,7 +4706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD9A3057-C941-4BFB-A1E1-28B9761B3636}">
   <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -11052,8 +11053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6266B8C-11FE-408B-BD4A-0C2D15AB0E21}">
   <dimension ref="A1:A97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11555,8 +11556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4AABAE1-CEB5-4D9C-ACF3-C0901C1E79F6}">
   <dimension ref="A1:A97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
